--- a/results/QDMTTscenario_noCO.xlsx
+++ b/results/QDMTTscenario_noCO.xlsx
@@ -543,10 +543,10 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>587353278.594063</v>
+        <v>587354637.8276626</v>
       </c>
       <c r="I3" t="n">
-        <v>587353278.594063</v>
+        <v>587354637.8276626</v>
       </c>
     </row>
     <row r="4">
@@ -642,10 +642,10 @@
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>145342.0188106639</v>
+        <v>145342.3551563736</v>
       </c>
       <c r="I6" t="n">
-        <v>145342.0188106639</v>
+        <v>145342.3551563736</v>
       </c>
     </row>
     <row r="7">
@@ -675,10 +675,10 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>613856541.4557098</v>
+        <v>613857962.0222868</v>
       </c>
       <c r="I7" t="n">
-        <v>613856541.4557098</v>
+        <v>613857962.0222868</v>
       </c>
     </row>
     <row r="8">
@@ -741,10 +741,10 @@
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>2191381118.708691</v>
+        <v>2191386189.930653</v>
       </c>
       <c r="I9" t="n">
-        <v>2191381118.708691</v>
+        <v>2191386189.930653</v>
       </c>
     </row>
     <row r="10">
@@ -774,10 +774,10 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>26590330.53070208</v>
+        <v>26590392.06516864</v>
       </c>
       <c r="I10" t="n">
-        <v>26590330.53070208</v>
+        <v>26590392.06516864</v>
       </c>
     </row>
     <row r="11">
@@ -807,10 +807,10 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>50229.86171584266</v>
+        <v>50229.97795613318</v>
       </c>
       <c r="I11" t="n">
-        <v>50229.86171584266</v>
+        <v>50229.97795613318</v>
       </c>
     </row>
     <row r="12">
@@ -840,10 +840,10 @@
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>382008837.8408701</v>
+        <v>382009721.8731325</v>
       </c>
       <c r="I12" t="n">
-        <v>382008837.8408701</v>
+        <v>382009721.8731325</v>
       </c>
     </row>
     <row r="13">
@@ -873,10 +873,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>1338443.262134624</v>
+        <v>1338446.359515909</v>
       </c>
       <c r="I13" t="n">
-        <v>1338443.262134624</v>
+        <v>1338446.359515909</v>
       </c>
     </row>
     <row r="14">
@@ -939,10 +939,10 @@
         <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>750464539.6140324</v>
+        <v>750466265.797222</v>
       </c>
       <c r="I15" t="n">
-        <v>750464539.6140324</v>
+        <v>750466265.797222</v>
       </c>
     </row>
     <row r="16">
@@ -972,10 +972,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>913297240.9191951</v>
+        <v>913299354.3738225</v>
       </c>
       <c r="I16" t="n">
-        <v>2671459684.781631</v>
+        <v>2671461798.236259</v>
       </c>
     </row>
     <row r="17">
@@ -1005,10 +1005,10 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>1063862.133998914</v>
+        <v>1063864.595953602</v>
       </c>
       <c r="I17" t="n">
-        <v>1063862.133998914</v>
+        <v>1063864.595953602</v>
       </c>
     </row>
     <row r="18">
@@ -1071,10 +1071,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>1244920.631622791</v>
+        <v>1244923.35447904</v>
       </c>
       <c r="I19" t="n">
-        <v>1244920.631622791</v>
+        <v>1244923.35447904</v>
       </c>
     </row>
     <row r="20">
@@ -1104,10 +1104,10 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>2329333.931808589</v>
+        <v>2329339.322276404</v>
       </c>
       <c r="I20" t="n">
-        <v>2329333.931808589</v>
+        <v>2329339.322276404</v>
       </c>
     </row>
     <row r="21">
@@ -1137,10 +1137,10 @@
         <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>2820740.660149513</v>
+        <v>2820747.187814584</v>
       </c>
       <c r="I21" t="n">
-        <v>2820740.660149513</v>
+        <v>2820747.187814584</v>
       </c>
     </row>
     <row r="22">
@@ -1170,10 +1170,10 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>121739736.042543</v>
+        <v>121740017.7686279</v>
       </c>
       <c r="I22" t="n">
-        <v>121739736.042543</v>
+        <v>121740017.7686279</v>
       </c>
     </row>
     <row r="23">
@@ -1269,10 +1269,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>10229117.35227444</v>
+        <v>10229141.02416069</v>
       </c>
       <c r="I25" t="n">
-        <v>10229117.35227444</v>
+        <v>10229141.02416069</v>
       </c>
     </row>
     <row r="26">
@@ -1302,10 +1302,10 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>713977.9484359106</v>
+        <v>713979.5328680035</v>
       </c>
       <c r="I26" t="n">
-        <v>713977.9484359106</v>
+        <v>713979.5328680035</v>
       </c>
     </row>
     <row r="27">
@@ -1401,10 +1401,10 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>1976495.976684585</v>
+        <v>1976500.550626433</v>
       </c>
       <c r="I29" t="n">
-        <v>1976495.976684585</v>
+        <v>1976500.550626433</v>
       </c>
     </row>
     <row r="30">
@@ -1434,10 +1434,10 @@
         <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>588442012.3154961</v>
+        <v>588443374.0686072</v>
       </c>
       <c r="I30" t="n">
-        <v>588442012.3154961</v>
+        <v>588443374.0686072</v>
       </c>
     </row>
     <row r="31">
@@ -1500,10 +1500,10 @@
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>1557810.221848667</v>
+        <v>1557813.689053417</v>
       </c>
       <c r="I32" t="n">
-        <v>1557810.221848667</v>
+        <v>1557813.689053417</v>
       </c>
     </row>
     <row r="33">
@@ -1566,10 +1566,10 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>5767412.482486392</v>
+        <v>5767425.829242279</v>
       </c>
       <c r="I34" t="n">
-        <v>5767412.482486392</v>
+        <v>5767425.829242279</v>
       </c>
     </row>
     <row r="35">
@@ -1599,10 +1599,10 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>124518.9760410237</v>
+        <v>124519.2641987342</v>
       </c>
       <c r="I35" t="n">
-        <v>124518.9760410237</v>
+        <v>124519.2641987342</v>
       </c>
     </row>
     <row r="36">
@@ -1632,10 +1632,10 @@
         <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>174946835.3825232</v>
+        <v>174947240.2387238</v>
       </c>
       <c r="I36" t="n">
-        <v>174946835.3825232</v>
+        <v>174947240.2387238</v>
       </c>
     </row>
     <row r="37">
@@ -1698,10 +1698,10 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>369119686.5111089</v>
+        <v>369120540.7157221</v>
       </c>
       <c r="I38" t="n">
-        <v>369119686.5111089</v>
+        <v>369120540.7157221</v>
       </c>
     </row>
     <row r="39">
@@ -1731,10 +1731,10 @@
         <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>1579163127.096873</v>
+        <v>1579166781.544136</v>
       </c>
       <c r="I39" t="n">
-        <v>1579163127.096873</v>
+        <v>1579166781.544136</v>
       </c>
     </row>
     <row r="40">
@@ -1764,10 +1764,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>7341077.685036684</v>
+        <v>7341094.673516718</v>
       </c>
       <c r="I40" t="n">
-        <v>7341077.685036684</v>
+        <v>7341094.673516718</v>
       </c>
     </row>
     <row r="41">
@@ -1830,10 +1830,10 @@
         <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>446496.3399751271</v>
+        <v>446497.3732422416</v>
       </c>
       <c r="I42" t="n">
-        <v>446496.3399751271</v>
+        <v>446497.3732422416</v>
       </c>
     </row>
     <row r="43">
@@ -1863,10 +1863,10 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>6863503.970610525</v>
+        <v>6863518.982278102</v>
       </c>
       <c r="I43" t="n">
-        <v>6863503.970610525</v>
+        <v>6863518.982278102</v>
       </c>
     </row>
     <row r="44">
@@ -1896,10 +1896,10 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>3047454.093508514</v>
+        <v>3047461.14582634</v>
       </c>
       <c r="I44" t="n">
-        <v>3047454.093508514</v>
+        <v>3047461.14582634</v>
       </c>
     </row>
     <row r="45">
@@ -1929,10 +1929,10 @@
         <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>9494002.122197254</v>
+        <v>9494024.092904065</v>
       </c>
       <c r="I45" t="n">
-        <v>9494002.122197254</v>
+        <v>9494024.092904065</v>
       </c>
     </row>
     <row r="46">
@@ -1962,10 +1962,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>295790787.8071154</v>
+        <v>295791472.3164079</v>
       </c>
       <c r="I46" t="n">
-        <v>295790787.8071154</v>
+        <v>295791472.3164079</v>
       </c>
     </row>
     <row r="47">
@@ -2085,7 +2085,7 @@
         <v>0</v>
       </c>
       <c r="E50" t="n">
-        <v>90537.30873756681</v>
+        <v>90540.19425228065</v>
       </c>
       <c r="F50" t="n">
         <v>0</v>
@@ -2094,10 +2094,10 @@
         <v>0</v>
       </c>
       <c r="H50" t="n">
-        <v>162307544.4731167</v>
+        <v>162307917.4038906</v>
       </c>
       <c r="I50" t="n">
-        <v>162398081.7818542</v>
+        <v>162398457.5981428</v>
       </c>
     </row>
     <row r="51">
@@ -2127,10 +2127,10 @@
         <v>0</v>
       </c>
       <c r="H51" t="n">
-        <v>779154707.5753725</v>
+        <v>779156498.4538875</v>
       </c>
       <c r="I51" t="n">
-        <v>7540693856.800295</v>
+        <v>7540695647.67881</v>
       </c>
     </row>
     <row r="52">
@@ -2160,10 +2160,10 @@
         <v>0</v>
       </c>
       <c r="H52" t="n">
-        <v>283138212.4311456</v>
+        <v>283138867.5985444</v>
       </c>
       <c r="I52" t="n">
-        <v>1602689251.50184</v>
+        <v>1602689906.669239</v>
       </c>
     </row>
     <row r="53">
@@ -2193,10 +2193,10 @@
         <v>0</v>
       </c>
       <c r="H53" t="n">
-        <v>56131668.54266259</v>
+        <v>56131798.44071996</v>
       </c>
       <c r="I53" t="n">
-        <v>56131668.54266259</v>
+        <v>56131798.44071996</v>
       </c>
     </row>
     <row r="54">
@@ -2226,10 +2226,10 @@
         <v>0</v>
       </c>
       <c r="H54" t="n">
-        <v>10949732.83685399</v>
+        <v>10949758.17636484</v>
       </c>
       <c r="I54" t="n">
-        <v>10949732.83685399</v>
+        <v>10949758.17636484</v>
       </c>
     </row>
     <row r="55">
@@ -2259,10 +2259,10 @@
         <v>0</v>
       </c>
       <c r="H55" t="n">
-        <v>41132522.77139772</v>
+        <v>41132615.76879328</v>
       </c>
       <c r="I55" t="n">
-        <v>41132522.77139772</v>
+        <v>41132615.76879328</v>
       </c>
     </row>
     <row r="56">
@@ -2292,10 +2292,10 @@
         <v>0</v>
       </c>
       <c r="H56" t="n">
-        <v>39240634.51742721</v>
+        <v>39240724.79085993</v>
       </c>
       <c r="I56" t="n">
-        <v>39240634.51742721</v>
+        <v>39240724.79085993</v>
       </c>
     </row>
     <row r="57">
@@ -2325,10 +2325,10 @@
         <v>0</v>
       </c>
       <c r="H57" t="n">
-        <v>1449669173.574164</v>
+        <v>1449672527.87676</v>
       </c>
       <c r="I57" t="n">
-        <v>3171374711.717046</v>
+        <v>3171378066.019641</v>
       </c>
     </row>
     <row r="58">
@@ -2349,7 +2349,7 @@
         <v>0</v>
       </c>
       <c r="E58" t="n">
-        <v>107300540.2000094</v>
+        <v>107300540.2000116</v>
       </c>
       <c r="F58" t="n">
         <v>0</v>
@@ -2358,10 +2358,10 @@
         <v>0</v>
       </c>
       <c r="H58" t="n">
-        <v>9077046.609838678</v>
+        <v>9077067.615638733</v>
       </c>
       <c r="I58" t="n">
-        <v>116377586.8098481</v>
+        <v>116377607.8156504</v>
       </c>
     </row>
     <row r="59">
@@ -2424,10 +2424,10 @@
         <v>0</v>
       </c>
       <c r="H60" t="n">
-        <v>9636767491.42536</v>
+        <v>9636789792.515083</v>
       </c>
       <c r="I60" t="n">
-        <v>9636767491.42536</v>
+        <v>9636789792.515083</v>
       </c>
     </row>
     <row r="61">
@@ -2457,10 +2457,10 @@
         <v>0</v>
       </c>
       <c r="H61" t="n">
-        <v>64293531.37425055</v>
+        <v>64293680.16022188</v>
       </c>
       <c r="I61" t="n">
-        <v>1152751592.658633</v>
+        <v>1152751741.444604</v>
       </c>
     </row>
     <row r="62">
@@ -2523,10 +2523,10 @@
         <v>0</v>
       </c>
       <c r="H63" t="n">
-        <v>13666439527.11698</v>
+        <v>13666471153.54092</v>
       </c>
       <c r="I63" t="n">
-        <v>13666439527.11698</v>
+        <v>13666471153.54092</v>
       </c>
     </row>
     <row r="64">
@@ -2556,10 +2556,10 @@
         <v>0</v>
       </c>
       <c r="H64" t="n">
-        <v>256239211.940592</v>
+        <v>256239804.9209312</v>
       </c>
       <c r="I64" t="n">
-        <v>256239211.940592</v>
+        <v>256239804.9209312</v>
       </c>
     </row>
     <row r="65">
@@ -2589,10 +2589,10 @@
         <v>0</v>
       </c>
       <c r="H65" t="n">
-        <v>1202512.682056583</v>
+        <v>1202515.4648718</v>
       </c>
       <c r="I65" t="n">
-        <v>1202512.682056583</v>
+        <v>1202515.4648718</v>
       </c>
     </row>
     <row r="66">
@@ -2688,10 +2688,10 @@
         <v>0</v>
       </c>
       <c r="H68" t="n">
-        <v>12974048150.40137</v>
+        <v>12918539792.49016</v>
       </c>
       <c r="I68" t="n">
-        <v>12974048150.40137</v>
+        <v>12918539792.49016</v>
       </c>
     </row>
     <row r="69">
@@ -2721,10 +2721,10 @@
         <v>0</v>
       </c>
       <c r="H69" t="n">
-        <v>13406127.72966916</v>
+        <v>13406158.52860022</v>
       </c>
       <c r="I69" t="n">
-        <v>13406127.72966916</v>
+        <v>13406158.52860022</v>
       </c>
     </row>
     <row r="70">
@@ -2787,10 +2787,10 @@
         <v>0</v>
       </c>
       <c r="H71" t="n">
-        <v>38162632.79775593</v>
+        <v>38162721.11246299</v>
       </c>
       <c r="I71" t="n">
-        <v>38162632.79775593</v>
+        <v>38162721.11246299</v>
       </c>
     </row>
     <row r="72">
@@ -2853,10 +2853,10 @@
         <v>0</v>
       </c>
       <c r="H73" t="n">
-        <v>404279.8312424507</v>
+        <v>404280.766813512</v>
       </c>
       <c r="I73" t="n">
-        <v>404279.8312424507</v>
+        <v>404280.766813512</v>
       </c>
     </row>
     <row r="74">
@@ -2886,10 +2886,10 @@
         <v>0</v>
       </c>
       <c r="H74" t="n">
-        <v>755532.8100803639</v>
+        <v>755534.5585094923</v>
       </c>
       <c r="I74" t="n">
-        <v>755532.8100803639</v>
+        <v>755534.5585094923</v>
       </c>
     </row>
     <row r="75">
@@ -2919,10 +2919,10 @@
         <v>0</v>
       </c>
       <c r="H75" t="n">
-        <v>65071108.22301238</v>
+        <v>65071258.80842643</v>
       </c>
       <c r="I75" t="n">
-        <v>113533971.1453291</v>
+        <v>113534121.7307432</v>
       </c>
     </row>
     <row r="76">
@@ -3018,10 +3018,10 @@
         <v>0</v>
       </c>
       <c r="H78" t="n">
-        <v>250269348.6611187</v>
+        <v>250269927.8261971</v>
       </c>
       <c r="I78" t="n">
-        <v>250269348.6611187</v>
+        <v>250269927.8261971</v>
       </c>
     </row>
     <row r="79">
@@ -3051,10 +3051,10 @@
         <v>0</v>
       </c>
       <c r="H79" t="n">
-        <v>5283902.466039487</v>
+        <v>5283914.693872428</v>
       </c>
       <c r="I79" t="n">
-        <v>5283902.466039487</v>
+        <v>5283914.693872428</v>
       </c>
     </row>
     <row r="80">
@@ -3084,10 +3084,10 @@
         <v>0</v>
       </c>
       <c r="H80" t="n">
-        <v>1585736.896197552</v>
+        <v>1585740.565857615</v>
       </c>
       <c r="I80" t="n">
-        <v>1585736.896197552</v>
+        <v>1585740.565857615</v>
       </c>
     </row>
     <row r="81">
@@ -3183,10 +3183,10 @@
         <v>0</v>
       </c>
       <c r="H83" t="n">
-        <v>23648985.9222939</v>
+        <v>23649040.6499977</v>
       </c>
       <c r="I83" t="n">
-        <v>23648985.9222939</v>
+        <v>23649040.6499977</v>
       </c>
     </row>
     <row r="84">
@@ -3216,10 +3216,10 @@
         <v>0</v>
       </c>
       <c r="H84" t="n">
-        <v>70614007.0990912</v>
+        <v>70614170.51169915</v>
       </c>
       <c r="I84" t="n">
-        <v>70614007.0990912</v>
+        <v>70614170.51169915</v>
       </c>
     </row>
     <row r="85">
@@ -3249,10 +3249,10 @@
         <v>0</v>
       </c>
       <c r="H85" t="n">
-        <v>426194.192364678</v>
+        <v>426195.1786492316</v>
       </c>
       <c r="I85" t="n">
-        <v>426194.192364678</v>
+        <v>426195.1786492316</v>
       </c>
     </row>
     <row r="86">
@@ -3273,7 +3273,7 @@
         <v>0</v>
       </c>
       <c r="E86" t="n">
-        <v>565082761.8001571</v>
+        <v>565082765.5200381</v>
       </c>
       <c r="F86" t="n">
         <v>0</v>
@@ -3282,10 +3282,10 @@
         <v>0</v>
       </c>
       <c r="H86" t="n">
-        <v>200641702.9867502</v>
+        <v>200642156.6665096</v>
       </c>
       <c r="I86" t="n">
-        <v>765724464.7869073</v>
+        <v>765724922.1865478</v>
       </c>
     </row>
     <row r="87">
@@ -3315,10 +3315,10 @@
         <v>0</v>
       </c>
       <c r="H87" t="n">
-        <v>67934576.4944804</v>
+        <v>67934733.70643836</v>
       </c>
       <c r="I87" t="n">
-        <v>67934576.4944804</v>
+        <v>67934733.70643836</v>
       </c>
     </row>
     <row r="88">
@@ -3381,10 +3381,10 @@
         <v>0</v>
       </c>
       <c r="H89" t="n">
-        <v>20631894.5953776</v>
+        <v>20631942.34102809</v>
       </c>
       <c r="I89" t="n">
-        <v>20631894.5953776</v>
+        <v>20631942.34102809</v>
       </c>
     </row>
     <row r="90">
@@ -3447,10 +3447,10 @@
         <v>0</v>
       </c>
       <c r="H91" t="n">
-        <v>26003961.33165548</v>
+        <v>26004021.50916576</v>
       </c>
       <c r="I91" t="n">
-        <v>26003961.33165548</v>
+        <v>26004021.50916576</v>
       </c>
     </row>
     <row r="92">
@@ -3480,10 +3480,10 @@
         <v>0</v>
       </c>
       <c r="H92" t="n">
-        <v>3115066.76187753</v>
+        <v>3115073.970662365</v>
       </c>
       <c r="I92" t="n">
-        <v>3115066.76187753</v>
+        <v>3115073.970662365</v>
       </c>
     </row>
     <row r="93">
@@ -3513,10 +3513,10 @@
         <v>0</v>
       </c>
       <c r="H93" t="n">
-        <v>4503312.583841842</v>
+        <v>4503323.005259404</v>
       </c>
       <c r="I93" t="n">
-        <v>4503312.583841842</v>
+        <v>4503323.005259404</v>
       </c>
     </row>
     <row r="94">
@@ -3546,10 +3546,10 @@
         <v>0</v>
       </c>
       <c r="H94" t="n">
-        <v>30713721.19006892</v>
+        <v>30713792.26675025</v>
       </c>
       <c r="I94" t="n">
-        <v>30713721.19006892</v>
+        <v>30713792.26675025</v>
       </c>
     </row>
     <row r="95">
@@ -3579,10 +3579,10 @@
         <v>0</v>
       </c>
       <c r="H95" t="n">
-        <v>8882490.45019345</v>
+        <v>8882511.005760103</v>
       </c>
       <c r="I95" t="n">
-        <v>1368694449.758217</v>
+        <v>1368694470.313784</v>
       </c>
     </row>
     <row r="96">
@@ -3678,10 +3678,10 @@
         <v>0</v>
       </c>
       <c r="H98" t="n">
-        <v>2191166.646178138</v>
+        <v>2191171.716903774</v>
       </c>
       <c r="I98" t="n">
-        <v>2191166.646178138</v>
+        <v>2191171.716903774</v>
       </c>
     </row>
     <row r="99">
@@ -3711,10 +3711,10 @@
         <v>0</v>
       </c>
       <c r="H99" t="n">
-        <v>90865632.8726276</v>
+        <v>90865843.15088047</v>
       </c>
       <c r="I99" t="n">
-        <v>90865632.8726276</v>
+        <v>90865843.15088047</v>
       </c>
     </row>
     <row r="100">
@@ -3744,10 +3744,10 @@
         <v>0</v>
       </c>
       <c r="H100" t="n">
-        <v>1763524.94993879</v>
+        <v>1763529.031030108</v>
       </c>
       <c r="I100" t="n">
-        <v>1763524.94993879</v>
+        <v>1763529.031030108</v>
       </c>
     </row>
     <row r="101">
@@ -3777,10 +3777,10 @@
         <v>0</v>
       </c>
       <c r="H101" t="n">
-        <v>3285111.042500857</v>
+        <v>3285118.644796561</v>
       </c>
       <c r="I101" t="n">
-        <v>3285111.042500857</v>
+        <v>3285118.644796561</v>
       </c>
     </row>
     <row r="102">
@@ -3810,10 +3810,10 @@
         <v>0</v>
       </c>
       <c r="H102" t="n">
-        <v>82640760.88861929</v>
+        <v>82640951.43247309</v>
       </c>
       <c r="I102" t="n">
-        <v>82640760.88861929</v>
+        <v>82640951.43247309</v>
       </c>
     </row>
     <row r="103">
@@ -3876,10 +3876,10 @@
         <v>0</v>
       </c>
       <c r="H104" t="n">
-        <v>52358894.31468859</v>
+        <v>52359015.48191617</v>
       </c>
       <c r="I104" t="n">
-        <v>52358894.31468859</v>
+        <v>52359015.48191617</v>
       </c>
     </row>
     <row r="105">
@@ -3909,10 +3909,10 @@
         <v>0</v>
       </c>
       <c r="H105" t="n">
-        <v>34915484.79545546</v>
+        <v>34915564.08291487</v>
       </c>
       <c r="I105" t="n">
-        <v>34915484.79545546</v>
+        <v>34915564.08291487</v>
       </c>
     </row>
     <row r="106">
@@ -3942,10 +3942,10 @@
         <v>0</v>
       </c>
       <c r="H106" t="n">
-        <v>15808975.49637075</v>
+        <v>15809010.60815153</v>
       </c>
       <c r="I106" t="n">
-        <v>15808975.49637075</v>
+        <v>15809010.60815153</v>
       </c>
     </row>
     <row r="107">
@@ -4008,10 +4008,10 @@
         <v>0</v>
       </c>
       <c r="H108" t="n">
-        <v>35844642.19544199</v>
+        <v>35844725.1459316</v>
       </c>
       <c r="I108" t="n">
-        <v>35844642.19544199</v>
+        <v>35844725.1459316</v>
       </c>
     </row>
     <row r="109">
@@ -4041,10 +4041,10 @@
         <v>0</v>
       </c>
       <c r="H109" t="n">
-        <v>437782.0949191549</v>
+        <v>437783.1080200507</v>
       </c>
       <c r="I109" t="n">
-        <v>437782.0949191549</v>
+        <v>437783.1080200507</v>
       </c>
     </row>
     <row r="110">
@@ -4140,10 +4140,10 @@
         <v>0</v>
       </c>
       <c r="H112" t="n">
-        <v>22532562.08802037</v>
+        <v>22532612.61025009</v>
       </c>
       <c r="I112" t="n">
-        <v>22532562.08802037</v>
+        <v>22532612.61025009</v>
       </c>
     </row>
     <row r="113">
@@ -4206,10 +4206,10 @@
         <v>0</v>
       </c>
       <c r="H114" t="n">
-        <v>12208055.73309851</v>
+        <v>12208083.98457874</v>
       </c>
       <c r="I114" t="n">
-        <v>27807127.31714851</v>
+        <v>27807155.56862874</v>
       </c>
     </row>
     <row r="115">
@@ -4263,7 +4263,7 @@
         <v>0</v>
       </c>
       <c r="E116" t="n">
-        <v>164313933.3017717</v>
+        <v>164313933.3020834</v>
       </c>
       <c r="F116" t="n">
         <v>0</v>
@@ -4272,10 +4272,10 @@
         <v>0</v>
       </c>
       <c r="H116" t="n">
-        <v>16838401.30800638</v>
+        <v>16838440.27459066</v>
       </c>
       <c r="I116" t="n">
-        <v>181152334.6097781</v>
+        <v>181152373.576674</v>
       </c>
     </row>
     <row r="117">
@@ -4338,10 +4338,10 @@
         <v>0</v>
       </c>
       <c r="H118" t="n">
-        <v>60578027.15552276</v>
+        <v>60578167.34319669</v>
       </c>
       <c r="I118" t="n">
-        <v>60578027.15552276</v>
+        <v>60578167.34319669</v>
       </c>
     </row>
     <row r="119">
@@ -4404,10 +4404,10 @@
         <v>0</v>
       </c>
       <c r="H120" t="n">
-        <v>6692.936641886054</v>
+        <v>6692.952130459446</v>
       </c>
       <c r="I120" t="n">
-        <v>6692.936641886054</v>
+        <v>6692.952130459446</v>
       </c>
     </row>
     <row r="121">
@@ -4437,10 +4437,10 @@
         <v>0</v>
       </c>
       <c r="H121" t="n">
-        <v>391906.4982482323</v>
+        <v>391907.4051853342</v>
       </c>
       <c r="I121" t="n">
-        <v>391906.4982482323</v>
+        <v>391907.4051853342</v>
       </c>
     </row>
     <row r="122">
@@ -4470,10 +4470,10 @@
         <v>0</v>
       </c>
       <c r="H122" t="n">
-        <v>29393.14911294192</v>
+        <v>29393.21713359886</v>
       </c>
       <c r="I122" t="n">
-        <v>29393.14911294192</v>
+        <v>29393.21713359886</v>
       </c>
     </row>
     <row r="123">
@@ -4503,10 +4503,10 @@
         <v>0</v>
       </c>
       <c r="H123" t="n">
-        <v>2364798.26741236</v>
+        <v>2364803.739950572</v>
       </c>
       <c r="I123" t="n">
-        <v>2364798.26741236</v>
+        <v>2364803.739950572</v>
       </c>
     </row>
     <row r="124">
@@ -4569,10 +4569,10 @@
         <v>0</v>
       </c>
       <c r="H125" t="n">
-        <v>1148205.281427774</v>
+        <v>1148207.938566594</v>
       </c>
       <c r="I125" t="n">
-        <v>1148205.281427774</v>
+        <v>1148207.938566594</v>
       </c>
     </row>
     <row r="126">
@@ -4602,10 +4602,10 @@
         <v>0</v>
       </c>
       <c r="H126" t="n">
-        <v>821062.1213648403</v>
+        <v>821064.0214397412</v>
       </c>
       <c r="I126" t="n">
-        <v>821062.1213648403</v>
+        <v>821064.0214397412</v>
       </c>
     </row>
     <row r="127">
@@ -4668,10 +4668,10 @@
         <v>0</v>
       </c>
       <c r="H128" t="n">
-        <v>52682442.91256641</v>
+        <v>52682560.92661368</v>
       </c>
       <c r="I128" t="n">
-        <v>52682442.91256641</v>
+        <v>52682560.92661368</v>
       </c>
     </row>
     <row r="129">
@@ -4701,10 +4701,10 @@
         <v>0</v>
       </c>
       <c r="H129" t="n">
-        <v>209600.103014623</v>
+        <v>209600.5880642735</v>
       </c>
       <c r="I129" t="n">
-        <v>209600.103014623</v>
+        <v>209600.5880642735</v>
       </c>
     </row>
     <row r="130">
@@ -4734,10 +4734,10 @@
         <v>0</v>
       </c>
       <c r="H130" t="n">
-        <v>2101652.320511614</v>
+        <v>2101657.184086149</v>
       </c>
       <c r="I130" t="n">
-        <v>2101652.320511614</v>
+        <v>2101657.184086149</v>
       </c>
     </row>
     <row r="131">
@@ -4767,10 +4767,10 @@
         <v>0</v>
       </c>
       <c r="H131" t="n">
-        <v>732111.9794107857</v>
+        <v>732113.6736401997</v>
       </c>
       <c r="I131" t="n">
-        <v>732111.9794107857</v>
+        <v>732113.6736401997</v>
       </c>
     </row>
     <row r="132">
@@ -4800,10 +4800,10 @@
         <v>0</v>
       </c>
       <c r="H132" t="n">
-        <v>2515207.067875102</v>
+        <v>2515212.888484403</v>
       </c>
       <c r="I132" t="n">
-        <v>2515207.067875102</v>
+        <v>2515212.888484403</v>
       </c>
     </row>
     <row r="133">
@@ -4899,10 +4899,10 @@
         <v>0</v>
       </c>
       <c r="H135" t="n">
-        <v>147551433.1812252</v>
+        <v>147551771.899469</v>
       </c>
       <c r="I135" t="n">
-        <v>147551433.1812252</v>
+        <v>147551771.899469</v>
       </c>
     </row>
     <row r="136">
@@ -4965,10 +4965,10 @@
         <v>0</v>
       </c>
       <c r="H137" t="n">
-        <v>4018030.138908589</v>
+        <v>4018039.437301511</v>
       </c>
       <c r="I137" t="n">
-        <v>4018030.138908589</v>
+        <v>4018039.437301511</v>
       </c>
     </row>
     <row r="138">
@@ -4998,10 +4998,10 @@
         <v>0</v>
       </c>
       <c r="H138" t="n">
-        <v>256411.7677398296</v>
+        <v>256412.3611194917</v>
       </c>
       <c r="I138" t="n">
-        <v>256411.7677398296</v>
+        <v>256412.3611194917</v>
       </c>
     </row>
     <row r="139">
@@ -5022,7 +5022,7 @@
         <v>0</v>
       </c>
       <c r="E139" t="n">
-        <v>2502804674.249134</v>
+        <v>1290552412.996203</v>
       </c>
       <c r="F139" t="n">
         <v>0</v>
@@ -5031,10 +5031,10 @@
         <v>0</v>
       </c>
       <c r="H139" t="n">
-        <v>18663205367.97086</v>
+        <v>18404892839.41222</v>
       </c>
       <c r="I139" t="n">
-        <v>21166010042.21999</v>
+        <v>19695445252.40842</v>
       </c>
     </row>
     <row r="140">
@@ -5064,10 +5064,10 @@
         <v>0</v>
       </c>
       <c r="H140" t="n">
-        <v>45290865.06255213</v>
+        <v>45290969.56837157</v>
       </c>
       <c r="I140" t="n">
-        <v>45290865.06255213</v>
+        <v>45290969.56837157</v>
       </c>
     </row>
     <row r="141">
@@ -5097,10 +5097,10 @@
         <v>0</v>
       </c>
       <c r="H141" t="n">
-        <v>103868.5928999397</v>
+        <v>103868.8332692141</v>
       </c>
       <c r="I141" t="n">
-        <v>103868.5928999397</v>
+        <v>103868.8332692141</v>
       </c>
     </row>
     <row r="142">
@@ -5130,10 +5130,10 @@
         <v>0</v>
       </c>
       <c r="H142" t="n">
-        <v>14219797.06642357</v>
+        <v>14219828.8963549</v>
       </c>
       <c r="I142" t="n">
-        <v>14219797.06642357</v>
+        <v>14219828.8963549</v>
       </c>
     </row>
     <row r="143">
@@ -5163,10 +5163,10 @@
         <v>0</v>
       </c>
       <c r="H143" t="n">
-        <v>217025163.28232</v>
+        <v>217025665.5148002</v>
       </c>
       <c r="I143" t="n">
-        <v>217025163.28232</v>
+        <v>217025665.5148002</v>
       </c>
     </row>
     <row r="144">
@@ -5196,10 +5196,10 @@
         <v>0</v>
       </c>
       <c r="H144" t="n">
-        <v>4253315158.730065</v>
+        <v>4253325001.611825</v>
       </c>
       <c r="I144" t="n">
-        <v>4253315158.730065</v>
+        <v>4253325001.611825</v>
       </c>
     </row>
     <row r="145">
@@ -5229,10 +5229,10 @@
         <v>0</v>
       </c>
       <c r="H145" t="n">
-        <v>1078182715.516245</v>
+        <v>1078185210.611151</v>
       </c>
       <c r="I145" t="n">
-        <v>1078182715.516245</v>
+        <v>1078185210.611151</v>
       </c>
     </row>
     <row r="146">
@@ -5262,10 +5262,10 @@
         <v>0</v>
       </c>
       <c r="H146" t="n">
-        <v>33736320.56393764</v>
+        <v>33736398.63541882</v>
       </c>
       <c r="I146" t="n">
-        <v>33736320.56393764</v>
+        <v>33736398.63541882</v>
       </c>
     </row>
     <row r="147">
@@ -5295,10 +5295,10 @@
         <v>0</v>
       </c>
       <c r="H147" t="n">
-        <v>10072760647.27761</v>
+        <v>10072783957.14705</v>
       </c>
       <c r="I147" t="n">
-        <v>10072760647.27761</v>
+        <v>10072783957.14705</v>
       </c>
     </row>
     <row r="148">
@@ -5394,10 +5394,10 @@
         <v>0</v>
       </c>
       <c r="H150" t="n">
-        <v>36656492.33395074</v>
+        <v>36656573.77199164</v>
       </c>
       <c r="I150" t="n">
-        <v>36656492.33395074</v>
+        <v>36656573.77199164</v>
       </c>
     </row>
     <row r="151">
@@ -5427,10 +5427,10 @@
         <v>0</v>
       </c>
       <c r="H151" t="n">
-        <v>72694244.73929136</v>
+        <v>72694412.96591669</v>
       </c>
       <c r="I151" t="n">
-        <v>72694244.73929136</v>
+        <v>72694412.96591669</v>
       </c>
     </row>
     <row r="152">
@@ -5460,10 +5460,10 @@
         <v>0</v>
       </c>
       <c r="H152" t="n">
-        <v>97814850.21940032</v>
+        <v>97815076.57930294</v>
       </c>
       <c r="I152" t="n">
-        <v>97814850.21940032</v>
+        <v>97815076.57930294</v>
       </c>
     </row>
     <row r="153">
@@ -5484,7 +5484,7 @@
         <v>0</v>
       </c>
       <c r="E153" t="n">
-        <v>4031323080.766756</v>
+        <v>4031323091.636458</v>
       </c>
       <c r="F153" t="n">
         <v>0</v>
@@ -5493,10 +5493,10 @@
         <v>0</v>
       </c>
       <c r="H153" t="n">
-        <v>600264733.4580017</v>
+        <v>600266112.490416</v>
       </c>
       <c r="I153" t="n">
-        <v>4631587814.224757</v>
+        <v>4631589204.126874</v>
       </c>
     </row>
     <row r="154">
@@ -5583,7 +5583,7 @@
         <v>0</v>
       </c>
       <c r="E156" t="n">
-        <v>222906.0974928759</v>
+        <v>222913.2017334711</v>
       </c>
       <c r="F156" t="n">
         <v>0</v>
@@ -5592,10 +5592,10 @@
         <v>0</v>
       </c>
       <c r="H156" t="n">
-        <v>434427522.371121</v>
+        <v>434428521.120577</v>
       </c>
       <c r="I156" t="n">
-        <v>434650428.4686139</v>
+        <v>434651434.3223104</v>
       </c>
     </row>
     <row r="157">
@@ -5625,10 +5625,10 @@
         <v>0</v>
       </c>
       <c r="H157" t="n">
-        <v>31837222.88407116</v>
+        <v>31837296.56072307</v>
       </c>
       <c r="I157" t="n">
-        <v>31837222.88407116</v>
+        <v>31837296.56072307</v>
       </c>
     </row>
     <row r="158">
@@ -5658,10 +5658,10 @@
         <v>0</v>
       </c>
       <c r="H158" t="n">
-        <v>57681244.95583417</v>
+        <v>57681378.43987019</v>
       </c>
       <c r="I158" t="n">
-        <v>57681244.95583417</v>
+        <v>57681378.43987019</v>
       </c>
     </row>
     <row r="159">
@@ -5691,10 +5691,10 @@
         <v>0</v>
       </c>
       <c r="H159" t="n">
-        <v>88003692.66555355</v>
+        <v>88003896.32079872</v>
       </c>
       <c r="I159" t="n">
-        <v>159776422.1467609</v>
+        <v>159776625.802006</v>
       </c>
     </row>
     <row r="160">
@@ -5724,10 +5724,10 @@
         <v>0</v>
       </c>
       <c r="H160" t="n">
-        <v>68095501.94305086</v>
+        <v>68095659.52741718</v>
       </c>
       <c r="I160" t="n">
-        <v>68095501.94305086</v>
+        <v>68095659.52741718</v>
       </c>
     </row>
     <row r="161">
@@ -5757,10 +5757,10 @@
         <v>0</v>
       </c>
       <c r="H161" t="n">
-        <v>476827269.3677722</v>
+        <v>476828372.8257238</v>
       </c>
       <c r="I161" t="n">
-        <v>476827269.3677722</v>
+        <v>476828372.8257238</v>
       </c>
     </row>
     <row r="162">
@@ -5790,10 +5790,10 @@
         <v>0</v>
       </c>
       <c r="H162" t="n">
-        <v>1204703.732693324</v>
+        <v>1204706.520578998</v>
       </c>
       <c r="I162" t="n">
-        <v>1204703.732693324</v>
+        <v>1204706.520578998</v>
       </c>
     </row>
     <row r="163">
@@ -5823,10 +5823,10 @@
         <v>0</v>
       </c>
       <c r="H163" t="n">
-        <v>4269178.284524171</v>
+        <v>4269187.882487919</v>
       </c>
       <c r="I163" t="n">
-        <v>4269178.284524171</v>
+        <v>4269187.882487919</v>
       </c>
     </row>
     <row r="164">
@@ -5922,10 +5922,10 @@
         <v>0</v>
       </c>
       <c r="H166" t="n">
-        <v>240763.0514193477</v>
+        <v>240763.6085852663</v>
       </c>
       <c r="I166" t="n">
-        <v>240763.0514193477</v>
+        <v>240763.6085852663</v>
       </c>
     </row>
     <row r="167">
@@ -5955,10 +5955,10 @@
         <v>0</v>
       </c>
       <c r="H167" t="n">
-        <v>239122698.3961767</v>
+        <v>239123251.6804912</v>
       </c>
       <c r="I167" t="n">
-        <v>239122698.3961767</v>
+        <v>239123251.6804912</v>
       </c>
     </row>
     <row r="168">
@@ -6045,7 +6045,7 @@
         <v>0</v>
       </c>
       <c r="E170" t="n">
-        <v>31.8871637419285</v>
+        <v>31.88818001777592</v>
       </c>
       <c r="F170" t="n">
         <v>0</v>
@@ -6054,10 +6054,10 @@
         <v>0</v>
       </c>
       <c r="H170" t="n">
-        <v>300313.2554198466</v>
+        <v>300313.949452401</v>
       </c>
       <c r="I170" t="n">
-        <v>300345.1425835885</v>
+        <v>300345.8376324188</v>
       </c>
     </row>
     <row r="171">
@@ -6087,10 +6087,10 @@
         <v>0</v>
       </c>
       <c r="H171" t="n">
-        <v>19960226.65912361</v>
+        <v>19960272.8504223</v>
       </c>
       <c r="I171" t="n">
-        <v>34195141.01002829</v>
+        <v>34195187.20132698</v>
       </c>
     </row>
     <row r="172">
@@ -6120,10 +6120,10 @@
         <v>0</v>
       </c>
       <c r="H172" t="n">
-        <v>641662336.2492503</v>
+        <v>641663821.163081</v>
       </c>
       <c r="I172" t="n">
-        <v>641662336.2492503</v>
+        <v>641663821.163081</v>
       </c>
     </row>
     <row r="173">
@@ -6153,10 +6153,10 @@
         <v>0</v>
       </c>
       <c r="H173" t="n">
-        <v>40573227.72575936</v>
+        <v>40573321.61898576</v>
       </c>
       <c r="I173" t="n">
-        <v>40573227.72575936</v>
+        <v>40573321.61898576</v>
       </c>
     </row>
     <row r="174">
@@ -6219,10 +6219,10 @@
         <v>0</v>
       </c>
       <c r="H175" t="n">
-        <v>59874393.55384713</v>
+        <v>59874531.14558312</v>
       </c>
       <c r="I175" t="n">
-        <v>59874393.55384713</v>
+        <v>59874531.14558312</v>
       </c>
     </row>
     <row r="176">
@@ -6252,10 +6252,10 @@
         <v>0</v>
       </c>
       <c r="H176" t="n">
-        <v>2002320.463938849</v>
+        <v>2002325.097642875</v>
       </c>
       <c r="I176" t="n">
-        <v>2002320.463938849</v>
+        <v>2002325.097642875</v>
       </c>
     </row>
     <row r="177">
@@ -6318,10 +6318,10 @@
         <v>0</v>
       </c>
       <c r="H178" t="n">
-        <v>5558670.985407772</v>
+        <v>5558683.849100965</v>
       </c>
       <c r="I178" t="n">
-        <v>5558670.985407772</v>
+        <v>5558683.849100965</v>
       </c>
     </row>
     <row r="179">
@@ -6351,10 +6351,10 @@
         <v>0</v>
       </c>
       <c r="H179" t="n">
-        <v>53414634.1264252</v>
+        <v>53414757.73681107</v>
       </c>
       <c r="I179" t="n">
-        <v>53414634.1264252</v>
+        <v>53414757.73681107</v>
       </c>
     </row>
     <row r="180">
@@ -6384,10 +6384,10 @@
         <v>0</v>
       </c>
       <c r="H180" t="n">
-        <v>134902824.5469848</v>
+        <v>134903136.7346553</v>
       </c>
       <c r="I180" t="n">
-        <v>134902824.5469848</v>
+        <v>134903136.7346553</v>
       </c>
     </row>
     <row r="181">
@@ -6417,10 +6417,10 @@
         <v>0</v>
       </c>
       <c r="H181" t="n">
-        <v>849313.5995112128</v>
+        <v>849315.5649647533</v>
       </c>
       <c r="I181" t="n">
-        <v>849313.5995112128</v>
+        <v>849315.5649647533</v>
       </c>
     </row>
     <row r="182">
@@ -6450,10 +6450,10 @@
         <v>0</v>
       </c>
       <c r="H182" t="n">
-        <v>4314964.042076981</v>
+        <v>4314974.027624556</v>
       </c>
       <c r="I182" t="n">
-        <v>4314964.042076981</v>
+        <v>4314974.027624556</v>
       </c>
     </row>
     <row r="183">
@@ -6483,10 +6483,10 @@
         <v>0</v>
       </c>
       <c r="H183" t="n">
-        <v>26600497.34291907</v>
+        <v>26600558.90091333</v>
       </c>
       <c r="I183" t="n">
-        <v>26600497.34291907</v>
+        <v>26600558.90091333</v>
       </c>
     </row>
     <row r="184">
@@ -6516,10 +6516,10 @@
         <v>0</v>
       </c>
       <c r="H184" t="n">
-        <v>173968071.3571517</v>
+        <v>173968473.9483289</v>
       </c>
       <c r="I184" t="n">
-        <v>173968071.3571517</v>
+        <v>173968473.9483289</v>
       </c>
     </row>
     <row r="185">
@@ -6549,10 +6549,10 @@
         <v>0</v>
       </c>
       <c r="H185" t="n">
-        <v>13604682703.10675</v>
+        <v>13604714186.61509</v>
       </c>
       <c r="I185" t="n">
-        <v>13604682703.10675</v>
+        <v>13604714186.61509</v>
       </c>
     </row>
     <row r="186">
@@ -6582,10 +6582,10 @@
         <v>0</v>
       </c>
       <c r="H186" t="n">
-        <v>926408.6673597165</v>
+        <v>926410.8112241222</v>
       </c>
       <c r="I186" t="n">
-        <v>926408.6673597165</v>
+        <v>926410.8112241222</v>
       </c>
     </row>
     <row r="187">
@@ -6648,10 +6648,10 @@
         <v>0</v>
       </c>
       <c r="H188" t="n">
-        <v>105539715.7257517</v>
+        <v>105539959.24588</v>
       </c>
       <c r="I188" t="n">
-        <v>105539715.7257517</v>
+        <v>105539959.24588</v>
       </c>
     </row>
     <row r="189">
@@ -6714,10 +6714,10 @@
         <v>0</v>
       </c>
       <c r="H190" t="n">
-        <v>289246226.4532226</v>
+        <v>289246895.8173069</v>
       </c>
       <c r="I190" t="n">
-        <v>289246226.4532226</v>
+        <v>289246895.8173069</v>
       </c>
     </row>
     <row r="191">
@@ -6747,10 +6747,10 @@
         <v>0</v>
       </c>
       <c r="H191" t="n">
-        <v>126540368.230596</v>
+        <v>126540659.2673598</v>
       </c>
       <c r="I191" t="n">
-        <v>126540368.230596</v>
+        <v>126540659.2673598</v>
       </c>
     </row>
     <row r="192">
@@ -6780,10 +6780,10 @@
         <v>0</v>
       </c>
       <c r="H192" t="n">
-        <v>24252758.07377038</v>
+        <v>24252814.1987038</v>
       </c>
       <c r="I192" t="n">
-        <v>24252758.07377038</v>
+        <v>24252814.1987038</v>
       </c>
     </row>
     <row r="193">
@@ -6813,10 +6813,10 @@
         <v>0</v>
       </c>
       <c r="H193" t="n">
-        <v>21571359.3433967</v>
+        <v>21571409.26312555</v>
       </c>
       <c r="I193" t="n">
-        <v>21571359.3433967</v>
+        <v>21571409.26312555</v>
       </c>
     </row>
     <row r="194">
@@ -6846,10 +6846,10 @@
         <v>0</v>
       </c>
       <c r="H194" t="n">
-        <v>171125.4953143334</v>
+        <v>171125.8913273147</v>
       </c>
       <c r="I194" t="n">
-        <v>171125.4953143334</v>
+        <v>171125.8913273147</v>
       </c>
     </row>
     <row r="195">
@@ -6879,10 +6879,10 @@
         <v>0</v>
       </c>
       <c r="H195" t="n">
-        <v>224665.6702900389</v>
+        <v>224666.1902039286</v>
       </c>
       <c r="I195" t="n">
-        <v>224665.6702900389</v>
+        <v>224666.1902039286</v>
       </c>
     </row>
     <row r="196">
@@ -6912,10 +6912,10 @@
         <v>0</v>
       </c>
       <c r="H196" t="n">
-        <v>197618447.6694296</v>
+        <v>197618904.9915282</v>
       </c>
       <c r="I196" t="n">
-        <v>197618447.6694296</v>
+        <v>197618904.9915282</v>
       </c>
     </row>
     <row r="197">
@@ -6945,10 +6945,10 @@
         <v>0</v>
       </c>
       <c r="H197" t="n">
-        <v>13271433.30820351</v>
+        <v>13271462.89658676</v>
       </c>
       <c r="I197" t="n">
-        <v>13271433.30820351</v>
+        <v>13271462.89658676</v>
       </c>
     </row>
     <row r="198">
@@ -6978,10 +6978,10 @@
         <v>0</v>
       </c>
       <c r="H198" t="n">
-        <v>128858.7816328444</v>
+        <v>128859.0798335899</v>
       </c>
       <c r="I198" t="n">
-        <v>128858.7816328444</v>
+        <v>128859.0798335899</v>
       </c>
     </row>
   </sheetData>
@@ -7077,10 +7077,10 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>21260.2546848016</v>
+        <v>21260.49084848563</v>
       </c>
       <c r="I2" t="n">
-        <v>21260.2546848016</v>
+        <v>21260.49084848563</v>
       </c>
     </row>
     <row r="3">
@@ -7110,10 +7110,10 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>1202997526.140971</v>
+        <v>1203010889.307681</v>
       </c>
       <c r="I3" t="n">
-        <v>1202997526.140971</v>
+        <v>1203010889.307681</v>
       </c>
     </row>
     <row r="4">
@@ -7143,10 +7143,10 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>556591.920287931</v>
+        <v>556598.1030359903</v>
       </c>
       <c r="I4" t="n">
-        <v>556591.920287931</v>
+        <v>556598.1030359903</v>
       </c>
     </row>
     <row r="5">
@@ -7209,10 +7209,10 @@
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>1027289.481512835</v>
+        <v>1027300.892875121</v>
       </c>
       <c r="I6" t="n">
-        <v>1027289.481512835</v>
+        <v>1027300.892875121</v>
       </c>
     </row>
     <row r="7">
@@ -7242,10 +7242,10 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>4535832995.688714</v>
+        <v>4535883380.740363</v>
       </c>
       <c r="I7" t="n">
-        <v>4535832995.688714</v>
+        <v>4535883380.740363</v>
       </c>
     </row>
     <row r="8">
@@ -7308,10 +7308,10 @@
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>2929256021.66982</v>
+        <v>2929288560.503611</v>
       </c>
       <c r="I9" t="n">
-        <v>2929256021.66982</v>
+        <v>2929288560.503611</v>
       </c>
     </row>
     <row r="10">
@@ -7341,10 +7341,10 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>106690473.5266132</v>
+        <v>106691658.6683555</v>
       </c>
       <c r="I10" t="n">
-        <v>106690473.5266132</v>
+        <v>106691658.6683555</v>
       </c>
     </row>
     <row r="11">
@@ -7374,10 +7374,10 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>115225.7486624984</v>
+        <v>115227.0286159939</v>
       </c>
       <c r="I11" t="n">
-        <v>115225.7486624984</v>
+        <v>115227.0286159939</v>
       </c>
     </row>
     <row r="12">
@@ -7407,10 +7407,10 @@
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>3760885252.838111</v>
+        <v>3760927029.596183</v>
       </c>
       <c r="I12" t="n">
-        <v>3760885252.838111</v>
+        <v>3760927029.596183</v>
       </c>
     </row>
     <row r="13">
@@ -7440,10 +7440,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>2311559.935576226</v>
+        <v>2311585.612903159</v>
       </c>
       <c r="I13" t="n">
-        <v>2311559.935576226</v>
+        <v>2311585.612903159</v>
       </c>
     </row>
     <row r="14">
@@ -7506,10 +7506,10 @@
         <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>1782781722.294537</v>
+        <v>1782801385.950699</v>
       </c>
       <c r="I15" t="n">
-        <v>1782781722.294537</v>
+        <v>1782801385.950699</v>
       </c>
     </row>
     <row r="16">
@@ -7539,10 +7539,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>1667614078.474494</v>
+        <v>1667632600.065625</v>
       </c>
       <c r="I16" t="n">
-        <v>4311493955.57443</v>
+        <v>4311512477.165562</v>
       </c>
     </row>
     <row r="17">
@@ -7572,10 +7572,10 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>2122517.184874177</v>
+        <v>2122540.762271777</v>
       </c>
       <c r="I17" t="n">
-        <v>2122517.184874177</v>
+        <v>2122540.762271777</v>
       </c>
     </row>
     <row r="18">
@@ -7638,10 +7638,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>1763326.600708707</v>
+        <v>1763345.112534013</v>
       </c>
       <c r="I19" t="n">
-        <v>1763326.600708707</v>
+        <v>1763345.112534013</v>
       </c>
     </row>
     <row r="20">
@@ -7671,10 +7671,10 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>3106142.368268395</v>
+        <v>3106176.871995451</v>
       </c>
       <c r="I20" t="n">
-        <v>3106142.368268395</v>
+        <v>3106176.871995451</v>
       </c>
     </row>
     <row r="21">
@@ -7704,10 +7704,10 @@
         <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>8557572.819911409</v>
+        <v>8557666.231743662</v>
       </c>
       <c r="I21" t="n">
-        <v>8557572.819911409</v>
+        <v>8557666.231743662</v>
       </c>
     </row>
     <row r="22">
@@ -7737,10 +7737,10 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>203516101.80271</v>
+        <v>203518362.5052779</v>
       </c>
       <c r="I22" t="n">
-        <v>203516101.80271</v>
+        <v>203518362.5052779</v>
       </c>
     </row>
     <row r="23">
@@ -7836,10 +7836,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>21292119.74023959</v>
+        <v>21292356.25788781</v>
       </c>
       <c r="I25" t="n">
-        <v>21292119.74023959</v>
+        <v>21292356.25788781</v>
       </c>
     </row>
     <row r="26">
@@ -7869,10 +7869,10 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>2554842.813974189</v>
+        <v>2554870.30017969</v>
       </c>
       <c r="I26" t="n">
-        <v>2554842.813974189</v>
+        <v>2554870.30017969</v>
       </c>
     </row>
     <row r="27">
@@ -7968,10 +7968,10 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>11718545.20921889</v>
+        <v>11718675.38145102</v>
       </c>
       <c r="I29" t="n">
-        <v>11718545.20921889</v>
+        <v>11718675.38145102</v>
       </c>
     </row>
     <row r="30">
@@ -8001,10 +8001,10 @@
         <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>1137530292.606927</v>
+        <v>1137542890.862815</v>
       </c>
       <c r="I30" t="n">
-        <v>1137530292.606927</v>
+        <v>1137542890.862815</v>
       </c>
     </row>
     <row r="31">
@@ -8067,10 +8067,10 @@
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>3556988.005261371</v>
+        <v>3557026.630992409</v>
       </c>
       <c r="I32" t="n">
-        <v>3556988.005261371</v>
+        <v>3557026.630992409</v>
       </c>
     </row>
     <row r="33">
@@ -8100,10 +8100,10 @@
         <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>84628.34998690237</v>
+        <v>84629.29005762129</v>
       </c>
       <c r="I33" t="n">
-        <v>84628.34998690237</v>
+        <v>84629.29005762129</v>
       </c>
     </row>
     <row r="34">
@@ -8133,10 +8133,10 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>21414501.0624618</v>
+        <v>21414738.93954923</v>
       </c>
       <c r="I34" t="n">
-        <v>21414501.0624618</v>
+        <v>21414738.93954923</v>
       </c>
     </row>
     <row r="35">
@@ -8166,10 +8166,10 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>219550.3664421744</v>
+        <v>219552.8052569552</v>
       </c>
       <c r="I35" t="n">
-        <v>219550.3664421744</v>
+        <v>219552.8052569552</v>
       </c>
     </row>
     <row r="36">
@@ -8199,10 +8199,10 @@
         <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>2392627905.828352</v>
+        <v>2392654483.676507</v>
       </c>
       <c r="I36" t="n">
-        <v>2392627905.828352</v>
+        <v>2392654483.676507</v>
       </c>
     </row>
     <row r="37">
@@ -8265,10 +8265,10 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>1211272382.165685</v>
+        <v>1211285837.251354</v>
       </c>
       <c r="I38" t="n">
-        <v>1211272382.165685</v>
+        <v>1211285837.251354</v>
       </c>
     </row>
     <row r="39">
@@ -8298,10 +8298,10 @@
         <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>7792453962.036921</v>
+        <v>7792540522.365692</v>
       </c>
       <c r="I39" t="n">
-        <v>7792453962.036921</v>
+        <v>7792540522.365692</v>
       </c>
     </row>
     <row r="40">
@@ -8331,10 +8331,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>17611051.12091571</v>
+        <v>17611246.74842696</v>
       </c>
       <c r="I40" t="n">
-        <v>17611051.12091571</v>
+        <v>17611246.74842696</v>
       </c>
     </row>
     <row r="41">
@@ -8397,10 +8397,10 @@
         <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>3318724.397395929</v>
+        <v>3318759.718365533</v>
       </c>
       <c r="I42" t="n">
-        <v>3318724.397395929</v>
+        <v>3318759.718365533</v>
       </c>
     </row>
     <row r="43">
@@ -8430,10 +8430,10 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>9630185.414909985</v>
+        <v>9630286.51490473</v>
       </c>
       <c r="I43" t="n">
-        <v>9630185.414909985</v>
+        <v>9630286.51490473</v>
       </c>
     </row>
     <row r="44">
@@ -8463,10 +8463,10 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>4060458.653459619</v>
+        <v>4060503.757946308</v>
       </c>
       <c r="I44" t="n">
-        <v>4060458.653459619</v>
+        <v>4060503.757946308</v>
       </c>
     </row>
     <row r="45">
@@ -8496,10 +8496,10 @@
         <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>16172231.35876187</v>
+        <v>16172411.00354004</v>
       </c>
       <c r="I45" t="n">
-        <v>16172231.35876187</v>
+        <v>16172411.00354004</v>
       </c>
     </row>
     <row r="46">
@@ -8529,10 +8529,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>514203125.0694565</v>
+        <v>514208836.9532581</v>
       </c>
       <c r="I46" t="n">
-        <v>514203125.0694565</v>
+        <v>514208836.9532581</v>
       </c>
     </row>
     <row r="47">
@@ -8652,7 +8652,7 @@
         <v>0</v>
       </c>
       <c r="E50" t="n">
-        <v>2613571.32126653</v>
+        <v>2613610.920575189</v>
       </c>
       <c r="F50" t="n">
         <v>0</v>
@@ -8661,10 +8661,10 @@
         <v>0</v>
       </c>
       <c r="H50" t="n">
-        <v>464212119.6346059</v>
+        <v>464217237.5432938</v>
       </c>
       <c r="I50" t="n">
-        <v>466825690.9558724</v>
+        <v>466830848.463869</v>
       </c>
     </row>
     <row r="51">
@@ -8694,10 +8694,10 @@
         <v>0</v>
       </c>
       <c r="H51" t="n">
-        <v>1656696105.082601</v>
+        <v>1656714363.671662</v>
       </c>
       <c r="I51" t="n">
-        <v>18426902154.30753</v>
+        <v>18426920412.89659</v>
       </c>
     </row>
     <row r="52">
@@ -8727,10 +8727,10 @@
         <v>0</v>
       </c>
       <c r="H52" t="n">
-        <v>456111031.5845903</v>
+        <v>456116097.066614</v>
       </c>
       <c r="I52" t="n">
-        <v>3522390558.259035</v>
+        <v>3522395623.741059</v>
       </c>
     </row>
     <row r="53">
@@ -8760,10 +8760,10 @@
         <v>0</v>
       </c>
       <c r="H53" t="n">
-        <v>111879140.1711049</v>
+        <v>111880382.9497216</v>
       </c>
       <c r="I53" t="n">
-        <v>111879140.1711049</v>
+        <v>111880382.9497216</v>
       </c>
     </row>
     <row r="54">
@@ -8793,10 +8793,10 @@
         <v>0</v>
       </c>
       <c r="H54" t="n">
-        <v>31374737.82169916</v>
+        <v>31375078.80974282</v>
       </c>
       <c r="I54" t="n">
-        <v>31374737.82169916</v>
+        <v>31375078.80974282</v>
       </c>
     </row>
     <row r="55">
@@ -8826,10 +8826,10 @@
         <v>0</v>
       </c>
       <c r="H55" t="n">
-        <v>69093204.03613368</v>
+        <v>69093954.44810645</v>
       </c>
       <c r="I55" t="n">
-        <v>69093204.03613368</v>
+        <v>69093954.44810645</v>
       </c>
     </row>
     <row r="56">
@@ -8859,10 +8859,10 @@
         <v>0</v>
       </c>
       <c r="H56" t="n">
-        <v>63975723.26150339</v>
+        <v>63976425.8981469</v>
       </c>
       <c r="I56" t="n">
-        <v>63975723.26150339</v>
+        <v>63976425.8981469</v>
       </c>
     </row>
     <row r="57">
@@ -8892,10 +8892,10 @@
         <v>0</v>
       </c>
       <c r="H57" t="n">
-        <v>3018166740.953527</v>
+        <v>3018200261.717731</v>
       </c>
       <c r="I57" t="n">
-        <v>7007272053.041909</v>
+        <v>7007305573.806113</v>
       </c>
     </row>
     <row r="58">
@@ -8916,7 +8916,7 @@
         <v>0</v>
       </c>
       <c r="E58" t="n">
-        <v>262105041.5023063</v>
+        <v>262105041.5023231</v>
       </c>
       <c r="F58" t="n">
         <v>0</v>
@@ -8925,10 +8925,10 @@
         <v>0</v>
       </c>
       <c r="H58" t="n">
-        <v>14336574.55451382</v>
+        <v>14336733.80838835</v>
       </c>
       <c r="I58" t="n">
-        <v>276441616.0568202</v>
+        <v>276441775.3107114</v>
       </c>
     </row>
     <row r="59">
@@ -8958,10 +8958,10 @@
         <v>0</v>
       </c>
       <c r="H59" t="n">
-        <v>453437.9518736099</v>
+        <v>453442.98876422</v>
       </c>
       <c r="I59" t="n">
-        <v>453437.9518736099</v>
+        <v>453442.98876422</v>
       </c>
     </row>
     <row r="60">
@@ -8991,10 +8991,10 @@
         <v>0</v>
       </c>
       <c r="H60" t="n">
-        <v>17833531785.68668</v>
+        <v>17833729884.56312</v>
       </c>
       <c r="I60" t="n">
-        <v>17833531785.68668</v>
+        <v>17833729884.56312</v>
       </c>
     </row>
     <row r="61">
@@ -9024,10 +9024,10 @@
         <v>0</v>
       </c>
       <c r="H61" t="n">
-        <v>291674949.5049655</v>
+        <v>291678189.4958138</v>
       </c>
       <c r="I61" t="n">
-        <v>2235304926.668648</v>
+        <v>2235308166.659496</v>
       </c>
     </row>
     <row r="62">
@@ -9057,10 +9057,10 @@
         <v>0</v>
       </c>
       <c r="H62" t="n">
-        <v>3549784.064974771</v>
+        <v>3549823.496773435</v>
       </c>
       <c r="I62" t="n">
-        <v>3549784.064974771</v>
+        <v>3549823.496773435</v>
       </c>
     </row>
     <row r="63">
@@ -9090,10 +9090,10 @@
         <v>0</v>
       </c>
       <c r="H63" t="n">
-        <v>21505847282.67824</v>
+        <v>21506086174.46</v>
       </c>
       <c r="I63" t="n">
-        <v>21505847282.67824</v>
+        <v>21506086174.46</v>
       </c>
     </row>
     <row r="64">
@@ -9123,10 +9123,10 @@
         <v>0</v>
       </c>
       <c r="H64" t="n">
-        <v>506222231.8853708</v>
+        <v>506227837.6448229</v>
       </c>
       <c r="I64" t="n">
-        <v>4706842276.8005</v>
+        <v>4706847882.559952</v>
       </c>
     </row>
     <row r="65">
@@ -9156,10 +9156,10 @@
         <v>0</v>
       </c>
       <c r="H65" t="n">
-        <v>1629756.848685645</v>
+        <v>1629774.952390758</v>
       </c>
       <c r="I65" t="n">
-        <v>1629756.848685645</v>
+        <v>1629774.952390758</v>
       </c>
     </row>
     <row r="66">
@@ -9255,10 +9255,10 @@
         <v>0</v>
       </c>
       <c r="H68" t="n">
-        <v>23480725924.48036</v>
+        <v>23425486339.18104</v>
       </c>
       <c r="I68" t="n">
-        <v>23480725924.48036</v>
+        <v>23425486339.18104</v>
       </c>
     </row>
     <row r="69">
@@ -9288,10 +9288,10 @@
         <v>0</v>
       </c>
       <c r="H69" t="n">
-        <v>18997831.69577165</v>
+        <v>18998041.2147741</v>
       </c>
       <c r="I69" t="n">
-        <v>18997831.69577165</v>
+        <v>18998041.2147741</v>
       </c>
     </row>
     <row r="70">
@@ -9354,10 +9354,10 @@
         <v>0</v>
       </c>
       <c r="H71" t="n">
-        <v>120189945.1956512</v>
+        <v>120191280.1909089</v>
       </c>
       <c r="I71" t="n">
-        <v>120189945.1956512</v>
+        <v>120191280.1909089</v>
       </c>
     </row>
     <row r="72">
@@ -9420,10 +9420,10 @@
         <v>0</v>
       </c>
       <c r="H73" t="n">
-        <v>804428.160037369</v>
+        <v>804437.0958060428</v>
       </c>
       <c r="I73" t="n">
-        <v>804428.160037369</v>
+        <v>804437.0958060428</v>
       </c>
     </row>
     <row r="74">
@@ -9453,10 +9453,10 @@
         <v>0</v>
       </c>
       <c r="H74" t="n">
-        <v>1068250.699289741</v>
+        <v>1068262.565658434</v>
       </c>
       <c r="I74" t="n">
-        <v>1068250.699289741</v>
+        <v>1068262.565658434</v>
       </c>
     </row>
     <row r="75">
@@ -9486,10 +9486,10 @@
         <v>0</v>
       </c>
       <c r="H75" t="n">
-        <v>111544992.8158704</v>
+        <v>111546231.8827033</v>
       </c>
       <c r="I75" t="n">
-        <v>263125018.2381872</v>
+        <v>263126257.3050201</v>
       </c>
     </row>
     <row r="76">
@@ -9585,10 +9585,10 @@
         <v>0</v>
       </c>
       <c r="H78" t="n">
-        <v>855454237.700554</v>
+        <v>855463740.2783587</v>
       </c>
       <c r="I78" t="n">
-        <v>855454237.700554</v>
+        <v>855463740.2783587</v>
       </c>
     </row>
     <row r="79">
@@ -9618,10 +9618,10 @@
         <v>0</v>
       </c>
       <c r="H79" t="n">
-        <v>15774718.26883417</v>
+        <v>15774893.49794766</v>
       </c>
       <c r="I79" t="n">
-        <v>15774718.26883417</v>
+        <v>15774893.49794766</v>
       </c>
     </row>
     <row r="80">
@@ -9651,10 +9651,10 @@
         <v>0</v>
       </c>
       <c r="H80" t="n">
-        <v>2384402.77479655</v>
+        <v>2384429.261278102</v>
       </c>
       <c r="I80" t="n">
-        <v>2384402.77479655</v>
+        <v>2384429.261278102</v>
       </c>
     </row>
     <row r="81">
@@ -9750,10 +9750,10 @@
         <v>0</v>
       </c>
       <c r="H83" t="n">
-        <v>61137383.53728542</v>
+        <v>61138062.66507301</v>
       </c>
       <c r="I83" t="n">
-        <v>61137383.53728542</v>
+        <v>61138062.66507301</v>
       </c>
     </row>
     <row r="84">
@@ -9783,10 +9783,10 @@
         <v>0</v>
       </c>
       <c r="H84" t="n">
-        <v>129393725.1998252</v>
+        <v>129395162.5343861</v>
       </c>
       <c r="I84" t="n">
-        <v>129393725.1998252</v>
+        <v>129395162.5343861</v>
       </c>
     </row>
     <row r="85">
@@ -9816,10 +9816,10 @@
         <v>0</v>
       </c>
       <c r="H85" t="n">
-        <v>573848.0033774761</v>
+        <v>573854.3778099822</v>
       </c>
       <c r="I85" t="n">
-        <v>573848.0033774761</v>
+        <v>573854.3778099822</v>
       </c>
     </row>
     <row r="86">
@@ -9840,7 +9840,7 @@
         <v>0</v>
       </c>
       <c r="E86" t="n">
-        <v>1211202877.123633</v>
+        <v>1211202921.840612</v>
       </c>
       <c r="F86" t="n">
         <v>0</v>
@@ -9849,10 +9849,10 @@
         <v>0</v>
       </c>
       <c r="H86" t="n">
-        <v>499607027.3915213</v>
+        <v>499612481.1111977</v>
       </c>
       <c r="I86" t="n">
-        <v>1710809904.515155</v>
+        <v>1710815402.95181</v>
       </c>
     </row>
     <row r="87">
@@ -9882,10 +9882,10 @@
         <v>0</v>
       </c>
       <c r="H87" t="n">
-        <v>195751420.2508007</v>
+        <v>195753594.701542</v>
       </c>
       <c r="I87" t="n">
-        <v>195751420.2508007</v>
+        <v>195753594.701542</v>
       </c>
     </row>
     <row r="88">
@@ -9948,10 +9948,10 @@
         <v>0</v>
       </c>
       <c r="H89" t="n">
-        <v>36376485.24328407</v>
+        <v>36376889.3214522</v>
       </c>
       <c r="I89" t="n">
-        <v>36376485.24328407</v>
+        <v>36376889.3214522</v>
       </c>
     </row>
     <row r="90">
@@ -10014,10 +10014,10 @@
         <v>0</v>
       </c>
       <c r="H91" t="n">
-        <v>44476080.16578536</v>
+        <v>44476574.21607304</v>
       </c>
       <c r="I91" t="n">
-        <v>44476080.16578536</v>
+        <v>44476574.21607304</v>
       </c>
     </row>
     <row r="92">
@@ -10047,10 +10047,10 @@
         <v>0</v>
       </c>
       <c r="H92" t="n">
-        <v>6419177.636658695</v>
+        <v>6419248.94232561</v>
       </c>
       <c r="I92" t="n">
-        <v>6419177.636658695</v>
+        <v>6419248.94232561</v>
       </c>
     </row>
     <row r="93">
@@ -10080,10 +10080,10 @@
         <v>0</v>
       </c>
       <c r="H93" t="n">
-        <v>10257976.58293752</v>
+        <v>10258090.53084531</v>
       </c>
       <c r="I93" t="n">
-        <v>10257976.58293752</v>
+        <v>10258090.53084531</v>
       </c>
     </row>
     <row r="94">
@@ -10113,10 +10113,10 @@
         <v>0</v>
       </c>
       <c r="H94" t="n">
-        <v>73797979.2039903</v>
+        <v>73798798.96851809</v>
       </c>
       <c r="I94" t="n">
-        <v>73797979.2039903</v>
+        <v>73798798.96851809</v>
       </c>
     </row>
     <row r="95">
@@ -10146,10 +10146,10 @@
         <v>0</v>
       </c>
       <c r="H95" t="n">
-        <v>17415266.93944164</v>
+        <v>17415460.39213821</v>
       </c>
       <c r="I95" t="n">
-        <v>4320721569.740366</v>
+        <v>4320721763.193063</v>
       </c>
     </row>
     <row r="96">
@@ -10245,10 +10245,10 @@
         <v>0</v>
       </c>
       <c r="H98" t="n">
-        <v>4280618.697051577</v>
+        <v>4280666.247125478</v>
       </c>
       <c r="I98" t="n">
-        <v>4280618.697051577</v>
+        <v>4280666.247125478</v>
       </c>
     </row>
     <row r="99">
@@ -10278,10 +10278,10 @@
         <v>0</v>
       </c>
       <c r="H99" t="n">
-        <v>165639162.8551145</v>
+        <v>165641002.8121375</v>
       </c>
       <c r="I99" t="n">
-        <v>165639162.8551145</v>
+        <v>165641002.8121375</v>
       </c>
     </row>
     <row r="100">
@@ -10311,10 +10311,10 @@
         <v>0</v>
       </c>
       <c r="H100" t="n">
-        <v>9217574.941773374</v>
+        <v>9217677.332666064</v>
       </c>
       <c r="I100" t="n">
-        <v>9217574.941773374</v>
+        <v>9217677.332666064</v>
       </c>
     </row>
     <row r="101">
@@ -10344,10 +10344,10 @@
         <v>0</v>
       </c>
       <c r="H101" t="n">
-        <v>6228437.039130455</v>
+        <v>6228506.226007974</v>
       </c>
       <c r="I101" t="n">
-        <v>6228437.039130455</v>
+        <v>6228506.226007974</v>
       </c>
     </row>
     <row r="102">
@@ -10377,10 +10377,10 @@
         <v>0</v>
       </c>
       <c r="H102" t="n">
-        <v>126004189.5753966</v>
+        <v>126005582.8009406</v>
       </c>
       <c r="I102" t="n">
-        <v>126004189.5753966</v>
+        <v>126005582.8009406</v>
       </c>
     </row>
     <row r="103">
@@ -10443,10 +10443,10 @@
         <v>0</v>
       </c>
       <c r="H104" t="n">
-        <v>322848342.9763075</v>
+        <v>322851929.248212</v>
       </c>
       <c r="I104" t="n">
-        <v>322848342.9763075</v>
+        <v>322851929.248212</v>
       </c>
     </row>
     <row r="105">
@@ -10476,10 +10476,10 @@
         <v>0</v>
       </c>
       <c r="H105" t="n">
-        <v>48956291.73133022</v>
+        <v>48956825.86666951</v>
       </c>
       <c r="I105" t="n">
-        <v>48956291.73133022</v>
+        <v>48956825.86666951</v>
       </c>
     </row>
     <row r="106">
@@ -10509,10 +10509,10 @@
         <v>0</v>
       </c>
       <c r="H106" t="n">
-        <v>26762916.78295349</v>
+        <v>26763201.25875194</v>
       </c>
       <c r="I106" t="n">
-        <v>26762916.78295349</v>
+        <v>26763201.25875194</v>
       </c>
     </row>
     <row r="107">
@@ -10575,10 +10575,10 @@
         <v>0</v>
       </c>
       <c r="H108" t="n">
-        <v>47769378.59653915</v>
+        <v>47769909.22952545</v>
       </c>
       <c r="I108" t="n">
-        <v>47769378.59653915</v>
+        <v>47769909.22952545</v>
       </c>
     </row>
     <row r="109">
@@ -10608,10 +10608,10 @@
         <v>0</v>
       </c>
       <c r="H109" t="n">
-        <v>1076355.375349095</v>
+        <v>1076367.331746351</v>
       </c>
       <c r="I109" t="n">
-        <v>1076355.375349095</v>
+        <v>1076367.331746351</v>
       </c>
     </row>
     <row r="110">
@@ -10707,10 +10707,10 @@
         <v>0</v>
       </c>
       <c r="H112" t="n">
-        <v>45248021.45215712</v>
+        <v>45248509.52052544</v>
       </c>
       <c r="I112" t="n">
-        <v>45248021.45215712</v>
+        <v>45248509.52052544</v>
       </c>
     </row>
     <row r="113">
@@ -10773,10 +10773,10 @@
         <v>0</v>
       </c>
       <c r="H114" t="n">
-        <v>37413879.64169675</v>
+        <v>37414295.24347486</v>
       </c>
       <c r="I114" t="n">
-        <v>66028538.64309676</v>
+        <v>66028954.24487486</v>
       </c>
     </row>
     <row r="115">
@@ -10830,7 +10830,7 @@
         <v>0</v>
       </c>
       <c r="E116" t="n">
-        <v>338993981.3887741</v>
+        <v>338993981.3911793</v>
       </c>
       <c r="F116" t="n">
         <v>0</v>
@@ -10839,10 +10839,10 @@
         <v>0</v>
       </c>
       <c r="H116" t="n">
-        <v>27068065.38484778</v>
+        <v>27068366.06076539</v>
       </c>
       <c r="I116" t="n">
-        <v>366062046.7736219</v>
+        <v>366062347.4519446</v>
       </c>
     </row>
     <row r="117">
@@ -10905,10 +10905,10 @@
         <v>0</v>
       </c>
       <c r="H118" t="n">
-        <v>115265750.2739383</v>
+        <v>115267030.6717807</v>
       </c>
       <c r="I118" t="n">
-        <v>115265750.2739383</v>
+        <v>115267030.6717807</v>
       </c>
     </row>
     <row r="119">
@@ -10971,10 +10971,10 @@
         <v>0</v>
       </c>
       <c r="H120" t="n">
-        <v>406307.3753072679</v>
+        <v>406311.8886608482</v>
       </c>
       <c r="I120" t="n">
-        <v>406307.3753072679</v>
+        <v>406311.8886608482</v>
       </c>
     </row>
     <row r="121">
@@ -11004,10 +11004,10 @@
         <v>0</v>
       </c>
       <c r="H121" t="n">
-        <v>924105.9096048622</v>
+        <v>924116.1747808574</v>
       </c>
       <c r="I121" t="n">
-        <v>924105.9096048622</v>
+        <v>924116.1747808574</v>
       </c>
     </row>
     <row r="122">
@@ -11037,10 +11037,10 @@
         <v>0</v>
       </c>
       <c r="H122" t="n">
-        <v>39163.72913452733</v>
+        <v>39164.16417402661</v>
       </c>
       <c r="I122" t="n">
-        <v>39163.72913452733</v>
+        <v>39164.16417402661</v>
       </c>
     </row>
     <row r="123">
@@ -11070,10 +11070,10 @@
         <v>0</v>
       </c>
       <c r="H123" t="n">
-        <v>104274316.0368024</v>
+        <v>104275474.3393246</v>
       </c>
       <c r="I123" t="n">
-        <v>104274316.0368024</v>
+        <v>104275474.3393246</v>
       </c>
     </row>
     <row r="124">
@@ -11136,10 +11136,10 @@
         <v>0</v>
       </c>
       <c r="H125" t="n">
-        <v>4157749.933935208</v>
+        <v>4157796.119155291</v>
       </c>
       <c r="I125" t="n">
-        <v>4157749.933935208</v>
+        <v>4157796.119155291</v>
       </c>
     </row>
     <row r="126">
@@ -11169,10 +11169,10 @@
         <v>0</v>
       </c>
       <c r="H126" t="n">
-        <v>1149797.011538706</v>
+        <v>1149809.783742151</v>
       </c>
       <c r="I126" t="n">
-        <v>1149797.011538706</v>
+        <v>1149809.783742151</v>
       </c>
     </row>
     <row r="127">
@@ -11235,10 +11235,10 @@
         <v>0</v>
       </c>
       <c r="H128" t="n">
-        <v>86666191.75654395</v>
+        <v>86667128.23070168</v>
       </c>
       <c r="I128" t="n">
-        <v>86666191.75654395</v>
+        <v>86667128.23070168</v>
       </c>
     </row>
     <row r="129">
@@ -11268,10 +11268,10 @@
         <v>0</v>
       </c>
       <c r="H129" t="n">
-        <v>342814.1986439549</v>
+        <v>342818.0067010685</v>
       </c>
       <c r="I129" t="n">
-        <v>342814.1986439549</v>
+        <v>342818.0067010685</v>
       </c>
     </row>
     <row r="130">
@@ -11301,10 +11301,10 @@
         <v>0</v>
       </c>
       <c r="H130" t="n">
-        <v>4308224.247335793</v>
+        <v>4308272.104058347</v>
       </c>
       <c r="I130" t="n">
-        <v>4308224.247335793</v>
+        <v>4308272.104058347</v>
       </c>
     </row>
     <row r="131">
@@ -11334,10 +11334,10 @@
         <v>0</v>
       </c>
       <c r="H131" t="n">
-        <v>1043336.642118954</v>
+        <v>1043348.231736704</v>
       </c>
       <c r="I131" t="n">
-        <v>1043336.642118954</v>
+        <v>1043348.231736704</v>
       </c>
     </row>
     <row r="132">
@@ -11367,10 +11367,10 @@
         <v>0</v>
       </c>
       <c r="H132" t="n">
-        <v>3791374.894666819</v>
+        <v>3791417.01011068</v>
       </c>
       <c r="I132" t="n">
-        <v>3791374.894666819</v>
+        <v>3791417.01011068</v>
       </c>
     </row>
     <row r="133">
@@ -11466,10 +11466,10 @@
         <v>0</v>
       </c>
       <c r="H135" t="n">
-        <v>663650872.9818251</v>
+        <v>663658207.8287145</v>
       </c>
       <c r="I135" t="n">
-        <v>663650872.9818251</v>
+        <v>663658207.8287145</v>
       </c>
     </row>
     <row r="136">
@@ -11499,10 +11499,10 @@
         <v>0</v>
       </c>
       <c r="H136" t="n">
-        <v>7175814.779089858</v>
+        <v>7175894.489652089</v>
       </c>
       <c r="I136" t="n">
-        <v>7175814.779089858</v>
+        <v>7175894.489652089</v>
       </c>
     </row>
     <row r="137">
@@ -11532,10 +11532,10 @@
         <v>0</v>
       </c>
       <c r="H137" t="n">
-        <v>10003375.93554748</v>
+        <v>10003487.0552941</v>
       </c>
       <c r="I137" t="n">
-        <v>10003375.93554748</v>
+        <v>10003487.0552941</v>
       </c>
     </row>
     <row r="138">
@@ -11565,10 +11565,10 @@
         <v>0</v>
       </c>
       <c r="H138" t="n">
-        <v>3293352.324584521</v>
+        <v>3293388.90788182</v>
       </c>
       <c r="I138" t="n">
-        <v>3293352.324584521</v>
+        <v>3293388.90788182</v>
       </c>
     </row>
     <row r="139">
@@ -11589,7 +11589,7 @@
         <v>0</v>
       </c>
       <c r="E139" t="n">
-        <v>5045039339.746584</v>
+        <v>2601436604.526104</v>
       </c>
       <c r="F139" t="n">
         <v>0</v>
@@ -11598,10 +11598,10 @@
         <v>0</v>
       </c>
       <c r="H139" t="n">
-        <v>28675280056.59562</v>
+        <v>28416967528.03698</v>
       </c>
       <c r="I139" t="n">
-        <v>33720319396.3422</v>
+        <v>31018404132.56308</v>
       </c>
     </row>
     <row r="140">
@@ -11631,10 +11631,10 @@
         <v>0</v>
       </c>
       <c r="H140" t="n">
-        <v>89152710.05135986</v>
+        <v>89153697.29827988</v>
       </c>
       <c r="I140" t="n">
-        <v>89152710.05135986</v>
+        <v>89153697.29827988</v>
       </c>
     </row>
     <row r="141">
@@ -11664,10 +11664,10 @@
         <v>0</v>
       </c>
       <c r="H141" t="n">
-        <v>241318.3621538018</v>
+        <v>241321.0427723679</v>
       </c>
       <c r="I141" t="n">
-        <v>241318.3621538018</v>
+        <v>241321.0427723679</v>
       </c>
     </row>
     <row r="142">
@@ -11697,10 +11697,10 @@
         <v>0</v>
       </c>
       <c r="H142" t="n">
-        <v>37398544.27115221</v>
+        <v>37398950.40499263</v>
       </c>
       <c r="I142" t="n">
-        <v>37398544.27115221</v>
+        <v>37398950.40499263</v>
       </c>
     </row>
     <row r="143">
@@ -11730,10 +11730,10 @@
         <v>0</v>
       </c>
       <c r="H143" t="n">
-        <v>456211164.8146619</v>
+        <v>456216226.6607407</v>
       </c>
       <c r="I143" t="n">
-        <v>456211164.8146619</v>
+        <v>456216226.6607407</v>
       </c>
     </row>
     <row r="144">
@@ -11763,10 +11763,10 @@
         <v>0</v>
       </c>
       <c r="H144" t="n">
-        <v>6614630747.168625</v>
+        <v>6614704219.560066</v>
       </c>
       <c r="I144" t="n">
-        <v>6614630747.168625</v>
+        <v>6614704219.560066</v>
       </c>
     </row>
     <row r="145">
@@ -11796,10 +11796,10 @@
         <v>0</v>
       </c>
       <c r="H145" t="n">
-        <v>1910878457.081932</v>
+        <v>1910899683.549011</v>
       </c>
       <c r="I145" t="n">
-        <v>1910878457.081932</v>
+        <v>1910899683.549011</v>
       </c>
     </row>
     <row r="146">
@@ -11829,10 +11829,10 @@
         <v>0</v>
       </c>
       <c r="H146" t="n">
-        <v>52828820.6080773</v>
+        <v>52829407.4424818</v>
       </c>
       <c r="I146" t="n">
-        <v>52828820.6080773</v>
+        <v>52829407.4424818</v>
       </c>
     </row>
     <row r="147">
@@ -11862,10 +11862,10 @@
         <v>0</v>
       </c>
       <c r="H147" t="n">
-        <v>15015098463.98994</v>
+        <v>15015265250.86572</v>
       </c>
       <c r="I147" t="n">
-        <v>15015098463.98994</v>
+        <v>15015265250.86572</v>
       </c>
     </row>
     <row r="148">
@@ -11961,10 +11961,10 @@
         <v>0</v>
       </c>
       <c r="H150" t="n">
-        <v>141525894.2009156</v>
+        <v>141527427.9334169</v>
       </c>
       <c r="I150" t="n">
-        <v>141525894.2009156</v>
+        <v>141527427.9334169</v>
       </c>
     </row>
     <row r="151">
@@ -11994,10 +11994,10 @@
         <v>0</v>
       </c>
       <c r="H151" t="n">
-        <v>188617880.731046</v>
+        <v>188619975.9408281</v>
       </c>
       <c r="I151" t="n">
-        <v>188617880.731046</v>
+        <v>188619975.9408281</v>
       </c>
     </row>
     <row r="152">
@@ -12027,10 +12027,10 @@
         <v>0</v>
       </c>
       <c r="H152" t="n">
-        <v>167930095.9566284</v>
+        <v>167931961.3618509</v>
       </c>
       <c r="I152" t="n">
-        <v>167930095.9566284</v>
+        <v>167931961.3618509</v>
       </c>
     </row>
     <row r="153">
@@ -12051,7 +12051,7 @@
         <v>0</v>
       </c>
       <c r="E153" t="n">
-        <v>8065854513.35629</v>
+        <v>8065854601.999779</v>
       </c>
       <c r="F153" t="n">
         <v>0</v>
@@ -12060,10 +12060,10 @@
         <v>0</v>
       </c>
       <c r="H153" t="n">
-        <v>1019821715.996176</v>
+        <v>1019832962.140838</v>
       </c>
       <c r="I153" t="n">
-        <v>9085676229.352465</v>
+        <v>9085687564.140617</v>
       </c>
     </row>
     <row r="154">
@@ -12126,10 +12126,10 @@
         <v>0</v>
       </c>
       <c r="H155" t="n">
-        <v>56463.56070813303</v>
+        <v>56464.18791804691</v>
       </c>
       <c r="I155" t="n">
-        <v>56463.56070813303</v>
+        <v>56464.18791804691</v>
       </c>
     </row>
     <row r="156">
@@ -12150,7 +12150,7 @@
         <v>0</v>
       </c>
       <c r="E156" t="n">
-        <v>329005.8491541455</v>
+        <v>329056.6311517915</v>
       </c>
       <c r="F156" t="n">
         <v>0</v>
@@ -12159,10 +12159,10 @@
         <v>0</v>
       </c>
       <c r="H156" t="n">
-        <v>646936233.1348394</v>
+        <v>646943372.3204902</v>
       </c>
       <c r="I156" t="n">
-        <v>647265238.9839935</v>
+        <v>647272428.951642</v>
       </c>
     </row>
     <row r="157">
@@ -12192,10 +12192,10 @@
         <v>0</v>
       </c>
       <c r="H157" t="n">
-        <v>57089868.24456992</v>
+        <v>57090502.41164859</v>
       </c>
       <c r="I157" t="n">
-        <v>57089868.24456992</v>
+        <v>57090502.41164859</v>
       </c>
     </row>
     <row r="158">
@@ -12225,10 +12225,10 @@
         <v>0</v>
       </c>
       <c r="H158" t="n">
-        <v>81454321.77171651</v>
+        <v>81455226.58461712</v>
       </c>
       <c r="I158" t="n">
-        <v>81454321.77171651</v>
+        <v>81455226.58461712</v>
       </c>
     </row>
     <row r="159">
@@ -12258,10 +12258,10 @@
         <v>0</v>
       </c>
       <c r="H159" t="n">
-        <v>370171580.6992936</v>
+        <v>370175692.6483514</v>
       </c>
       <c r="I159" t="n">
-        <v>486173874.4805009</v>
+        <v>486177986.4295587</v>
       </c>
     </row>
     <row r="160">
@@ -12291,10 +12291,10 @@
         <v>0</v>
       </c>
       <c r="H160" t="n">
-        <v>181609704.5927542</v>
+        <v>181611715.6534859</v>
       </c>
       <c r="I160" t="n">
-        <v>181609704.5927542</v>
+        <v>181611715.6534859</v>
       </c>
     </row>
     <row r="161">
@@ -12324,10 +12324,10 @@
         <v>0</v>
       </c>
       <c r="H161" t="n">
-        <v>711077376.0279548</v>
+        <v>711085274.7358316</v>
       </c>
       <c r="I161" t="n">
-        <v>711077376.0279548</v>
+        <v>711085274.7358316</v>
       </c>
     </row>
     <row r="162">
@@ -12357,10 +12357,10 @@
         <v>0</v>
       </c>
       <c r="H162" t="n">
-        <v>1707251.804297713</v>
+        <v>1707270.768834198</v>
       </c>
       <c r="I162" t="n">
-        <v>1707251.804297713</v>
+        <v>1707270.768834198</v>
       </c>
     </row>
     <row r="163">
@@ -12390,10 +12390,10 @@
         <v>0</v>
       </c>
       <c r="H163" t="n">
-        <v>7938975.940858024</v>
+        <v>7939061.284634079</v>
       </c>
       <c r="I163" t="n">
-        <v>7938975.940858024</v>
+        <v>7939061.284634079</v>
       </c>
     </row>
     <row r="164">
@@ -12456,10 +12456,10 @@
         <v>0</v>
       </c>
       <c r="H165" t="n">
-        <v>178426.1448963424</v>
+        <v>178428.1268940338</v>
       </c>
       <c r="I165" t="n">
-        <v>178426.1448963424</v>
+        <v>178428.1268940338</v>
       </c>
     </row>
     <row r="166">
@@ -12489,10 +12489,10 @@
         <v>0</v>
       </c>
       <c r="H166" t="n">
-        <v>2817593.250147669</v>
+        <v>2817624.548606314</v>
       </c>
       <c r="I166" t="n">
-        <v>2817593.250147669</v>
+        <v>2817624.548606314</v>
       </c>
     </row>
     <row r="167">
@@ -12522,10 +12522,10 @@
         <v>0</v>
       </c>
       <c r="H167" t="n">
-        <v>349524899.0657671</v>
+        <v>349528781.1142253</v>
       </c>
       <c r="I167" t="n">
-        <v>349524899.0657671</v>
+        <v>349528781.1142253</v>
       </c>
     </row>
     <row r="168">
@@ -12555,10 +12555,10 @@
         <v>0</v>
       </c>
       <c r="H168" t="n">
-        <v>106300.1958751396</v>
+        <v>106301.37668159</v>
       </c>
       <c r="I168" t="n">
-        <v>106300.1958751396</v>
+        <v>106301.37668159</v>
       </c>
     </row>
     <row r="169">
@@ -12612,7 +12612,7 @@
         <v>0</v>
       </c>
       <c r="E170" t="n">
-        <v>3286.366757250456</v>
+        <v>3286.87400740835</v>
       </c>
       <c r="F170" t="n">
         <v>0</v>
@@ -12621,10 +12621,10 @@
         <v>0</v>
       </c>
       <c r="H170" t="n">
-        <v>31227380.02271194</v>
+        <v>31227726.43271835</v>
       </c>
       <c r="I170" t="n">
-        <v>31230666.3894692</v>
+        <v>31231013.30672576</v>
       </c>
     </row>
     <row r="171">
@@ -12654,10 +12654,10 @@
         <v>0</v>
       </c>
       <c r="H171" t="n">
-        <v>47861119.23383803</v>
+        <v>47861650.88589994</v>
       </c>
       <c r="I171" t="n">
-        <v>88700694.17429271</v>
+        <v>88701225.82635462</v>
       </c>
     </row>
     <row r="172">
@@ -12687,10 +12687,10 @@
         <v>0</v>
       </c>
       <c r="H172" t="n">
-        <v>1279530877.072732</v>
+        <v>1279545090.389093</v>
       </c>
       <c r="I172" t="n">
-        <v>2086532813.116756</v>
+        <v>2086547026.433118</v>
       </c>
     </row>
     <row r="173">
@@ -12720,10 +12720,10 @@
         <v>0</v>
       </c>
       <c r="H173" t="n">
-        <v>56612431.46234845</v>
+        <v>56613060.32595211</v>
       </c>
       <c r="I173" t="n">
-        <v>56612431.46234845</v>
+        <v>56613060.32595211</v>
       </c>
     </row>
     <row r="174">
@@ -12786,10 +12786,10 @@
         <v>0</v>
       </c>
       <c r="H175" t="n">
-        <v>1071243017.12085</v>
+        <v>1071254900.549965</v>
       </c>
       <c r="I175" t="n">
-        <v>1071243017.12085</v>
+        <v>1071254900.549965</v>
       </c>
     </row>
     <row r="176">
@@ -12819,10 +12819,10 @@
         <v>0</v>
       </c>
       <c r="H176" t="n">
-        <v>3470086.542514933</v>
+        <v>3470125.089015618</v>
       </c>
       <c r="I176" t="n">
-        <v>3470086.542514933</v>
+        <v>3470125.089015618</v>
       </c>
     </row>
     <row r="177">
@@ -12885,10 +12885,10 @@
         <v>0</v>
       </c>
       <c r="H178" t="n">
-        <v>12019529.6624287</v>
+        <v>12019663.17806374</v>
       </c>
       <c r="I178" t="n">
-        <v>12019529.6624287</v>
+        <v>12019663.17806374</v>
       </c>
     </row>
     <row r="179">
@@ -12918,10 +12918,10 @@
         <v>0</v>
       </c>
       <c r="H179" t="n">
-        <v>221122633.6173075</v>
+        <v>221125089.8971852</v>
       </c>
       <c r="I179" t="n">
-        <v>221122633.6173075</v>
+        <v>221125089.8971852</v>
       </c>
     </row>
     <row r="180">
@@ -12951,10 +12951,10 @@
         <v>0</v>
       </c>
       <c r="H180" t="n">
-        <v>568488578.4660406</v>
+        <v>568494893.3648509</v>
       </c>
       <c r="I180" t="n">
-        <v>568488578.4660406</v>
+        <v>568494893.3648509</v>
       </c>
     </row>
     <row r="181">
@@ -12984,10 +12984,10 @@
         <v>0</v>
       </c>
       <c r="H181" t="n">
-        <v>1160397.022467782</v>
+        <v>1160409.912418529</v>
       </c>
       <c r="I181" t="n">
-        <v>1160397.022467782</v>
+        <v>1160409.912418529</v>
       </c>
     </row>
     <row r="182">
@@ -13017,10 +13017,10 @@
         <v>0</v>
       </c>
       <c r="H182" t="n">
-        <v>11791476.3779594</v>
+        <v>11791607.36032734</v>
       </c>
       <c r="I182" t="n">
-        <v>11791476.3779594</v>
+        <v>11791607.36032734</v>
       </c>
     </row>
     <row r="183">
@@ -13050,10 +13050,10 @@
         <v>0</v>
       </c>
       <c r="H183" t="n">
-        <v>83210383.2176116</v>
+        <v>83211307.53723717</v>
       </c>
       <c r="I183" t="n">
-        <v>83210383.2176116</v>
+        <v>83211307.53723717</v>
       </c>
     </row>
     <row r="184">
@@ -13083,10 +13083,10 @@
         <v>0</v>
       </c>
       <c r="H184" t="n">
-        <v>298051348.8393322</v>
+        <v>298054659.6606565</v>
       </c>
       <c r="I184" t="n">
-        <v>298051348.8393322</v>
+        <v>298054659.6606565</v>
       </c>
     </row>
     <row r="185">
@@ -13116,10 +13116,10 @@
         <v>0</v>
       </c>
       <c r="H185" t="n">
-        <v>24506712680.51161</v>
+        <v>24506984906.5802</v>
       </c>
       <c r="I185" t="n">
-        <v>24506712680.51161</v>
+        <v>24506984906.5802</v>
       </c>
     </row>
     <row r="186">
@@ -13149,10 +13149,10 @@
         <v>0</v>
       </c>
       <c r="H186" t="n">
-        <v>1292349.33300954</v>
+        <v>1292363.688716188</v>
       </c>
       <c r="I186" t="n">
-        <v>1292349.33300954</v>
+        <v>1292363.688716188</v>
       </c>
     </row>
     <row r="187">
@@ -13215,10 +13215,10 @@
         <v>0</v>
       </c>
       <c r="H188" t="n">
-        <v>152531993.2317761</v>
+        <v>152533680.1969387</v>
       </c>
       <c r="I188" t="n">
-        <v>152531993.2317761</v>
+        <v>152533680.1969387</v>
       </c>
     </row>
     <row r="189">
@@ -13281,10 +13281,10 @@
         <v>0</v>
       </c>
       <c r="H190" t="n">
-        <v>387794034.8830426</v>
+        <v>387798342.5862794</v>
       </c>
       <c r="I190" t="n">
-        <v>387794034.8830426</v>
+        <v>387798342.5862794</v>
       </c>
     </row>
     <row r="191">
@@ -13314,10 +13314,10 @@
         <v>0</v>
       </c>
       <c r="H191" t="n">
-        <v>425021343.859933</v>
+        <v>425026049.5031289</v>
       </c>
       <c r="I191" t="n">
-        <v>425021343.859933</v>
+        <v>425026049.5031289</v>
       </c>
     </row>
     <row r="192">
@@ -13347,10 +13347,10 @@
         <v>0</v>
       </c>
       <c r="H192" t="n">
-        <v>32471138.41188544</v>
+        <v>32471499.10858384</v>
       </c>
       <c r="I192" t="n">
-        <v>32471138.41188544</v>
+        <v>32471499.10858384</v>
       </c>
     </row>
     <row r="193">
@@ -13380,10 +13380,10 @@
         <v>0</v>
       </c>
       <c r="H193" t="n">
-        <v>33041577.47282671</v>
+        <v>33041944.50609031</v>
       </c>
       <c r="I193" t="n">
-        <v>33041577.47282671</v>
+        <v>33041944.50609031</v>
       </c>
     </row>
     <row r="194">
@@ -13413,10 +13413,10 @@
         <v>0</v>
       </c>
       <c r="H194" t="n">
-        <v>290507.1749410807</v>
+        <v>290510.4019600269</v>
       </c>
       <c r="I194" t="n">
-        <v>290507.1749410807</v>
+        <v>290510.4019600269</v>
       </c>
     </row>
     <row r="195">
@@ -13446,10 +13446,10 @@
         <v>0</v>
       </c>
       <c r="H195" t="n">
-        <v>419132.890312397</v>
+        <v>419137.5461346786</v>
       </c>
       <c r="I195" t="n">
-        <v>419132.890312397</v>
+        <v>419137.5461346786</v>
       </c>
     </row>
     <row r="196">
@@ -13479,10 +13479,10 @@
         <v>0</v>
       </c>
       <c r="H196" t="n">
-        <v>341075577.5210207</v>
+        <v>341079366.2651404</v>
       </c>
       <c r="I196" t="n">
-        <v>341075577.5210207</v>
+        <v>341079366.2651404</v>
       </c>
     </row>
     <row r="197">
@@ -13512,10 +13512,10 @@
         <v>0</v>
       </c>
       <c r="H197" t="n">
-        <v>30180453.56754364</v>
+        <v>30180774.53424064</v>
       </c>
       <c r="I197" t="n">
-        <v>30180453.56754364</v>
+        <v>30180774.53424064</v>
       </c>
     </row>
     <row r="198">
@@ -13545,10 +13545,10 @@
         <v>0</v>
       </c>
       <c r="H198" t="n">
-        <v>209186.4106459562</v>
+        <v>209188.7343355882</v>
       </c>
       <c r="I198" t="n">
-        <v>209186.4106459562</v>
+        <v>209188.7343355882</v>
       </c>
     </row>
   </sheetData>
@@ -13644,10 +13644,10 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>96768.16834864359</v>
+        <v>96769.64848702231</v>
       </c>
       <c r="I2" t="n">
-        <v>96768.16834864359</v>
+        <v>96769.64848702231</v>
       </c>
     </row>
     <row r="3">
@@ -13677,10 +13677,10 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>1819995347.434026</v>
+        <v>1820023185.565188</v>
       </c>
       <c r="I3" t="n">
-        <v>1819995347.434026</v>
+        <v>1820023185.565188</v>
       </c>
     </row>
     <row r="4">
@@ -13710,10 +13710,10 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>1411347.590679911</v>
+        <v>1411369.17825122</v>
       </c>
       <c r="I4" t="n">
-        <v>1411347.590679911</v>
+        <v>1411369.17825122</v>
       </c>
     </row>
     <row r="5">
@@ -13776,10 +13776,10 @@
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>2057755.058464247</v>
+        <v>2057786.533300322</v>
       </c>
       <c r="I6" t="n">
-        <v>2057755.058464247</v>
+        <v>2057786.533300322</v>
       </c>
     </row>
     <row r="7">
@@ -13809,10 +13809,10 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>8549209949.748008</v>
+        <v>8549340716.031696</v>
       </c>
       <c r="I7" t="n">
-        <v>8549209949.748008</v>
+        <v>8549340716.031696</v>
       </c>
     </row>
     <row r="8">
@@ -13875,10 +13875,10 @@
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>3670557936.094271</v>
+        <v>3670614079.904422</v>
       </c>
       <c r="I9" t="n">
-        <v>3670557936.094271</v>
+        <v>3670614079.904422</v>
       </c>
     </row>
     <row r="10">
@@ -13908,10 +13908,10 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>345090926.0006815</v>
+        <v>345096204.4133292</v>
       </c>
       <c r="I10" t="n">
-        <v>345090926.0006815</v>
+        <v>345096204.4133292</v>
       </c>
     </row>
     <row r="11">
@@ -13941,10 +13941,10 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>180350.2456012457</v>
+        <v>180353.0041873043</v>
       </c>
       <c r="I11" t="n">
-        <v>180350.2456012457</v>
+        <v>180353.0041873043</v>
       </c>
     </row>
     <row r="12">
@@ -13974,10 +13974,10 @@
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>10359438063.14238</v>
+        <v>10359596518.1604</v>
       </c>
       <c r="I12" t="n">
-        <v>10359438063.14238</v>
+        <v>10359596518.1604</v>
       </c>
     </row>
     <row r="13">
@@ -14007,10 +14007,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>3287313.644460437</v>
+        <v>3287363.926274912</v>
       </c>
       <c r="I13" t="n">
-        <v>3287313.644460437</v>
+        <v>3287363.926274912</v>
       </c>
     </row>
     <row r="14">
@@ -14073,10 +14073,10 @@
         <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>3938317103.350084</v>
+        <v>3938377027.010525</v>
       </c>
       <c r="I15" t="n">
-        <v>3938317103.350084</v>
+        <v>3938377027.010525</v>
       </c>
     </row>
     <row r="16">
@@ -14106,10 +14106,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>2448422544.542375</v>
+        <v>2448459988.09293</v>
       </c>
       <c r="I16" t="n">
-        <v>5978019854.87981</v>
+        <v>5978057298.430367</v>
       </c>
     </row>
     <row r="17">
@@ -14139,10 +14139,10 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>8105251.934882004</v>
+        <v>8105375.910510174</v>
       </c>
       <c r="I17" t="n">
-        <v>8105251.934882004</v>
+        <v>8105375.910510174</v>
       </c>
     </row>
     <row r="18">
@@ -14205,10 +14205,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>2283670.172466916</v>
+        <v>2283703.185651345</v>
       </c>
       <c r="I19" t="n">
-        <v>2283670.172466916</v>
+        <v>2283703.185651345</v>
       </c>
     </row>
     <row r="20">
@@ -14238,10 +14238,10 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>3886585.728694453</v>
+        <v>3886645.176804274</v>
       </c>
       <c r="I20" t="n">
-        <v>3886585.728694453</v>
+        <v>3886645.176804274</v>
       </c>
     </row>
     <row r="21">
@@ -14271,10 +14271,10 @@
         <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>15963201.58215882</v>
+        <v>15963440.12141704</v>
       </c>
       <c r="I21" t="n">
-        <v>15963201.58215882</v>
+        <v>15963440.12141704</v>
       </c>
     </row>
     <row r="22">
@@ -14304,10 +14304,10 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>285525311.071187</v>
+        <v>285529678.3851315</v>
       </c>
       <c r="I22" t="n">
-        <v>285525311.071187</v>
+        <v>285529678.3851315</v>
       </c>
     </row>
     <row r="23">
@@ -14403,10 +14403,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>32379050.63853058</v>
+        <v>32379545.89927937</v>
       </c>
       <c r="I25" t="n">
-        <v>32379050.63853058</v>
+        <v>32379545.89927937</v>
       </c>
     </row>
     <row r="26">
@@ -14436,10 +14436,10 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>7445540.136266482</v>
+        <v>7445652.008653172</v>
       </c>
       <c r="I26" t="n">
-        <v>7445540.136266482</v>
+        <v>7445652.008653172</v>
       </c>
     </row>
     <row r="27">
@@ -14535,10 +14535,10 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>21473134.73628981</v>
+        <v>21473463.18325101</v>
       </c>
       <c r="I29" t="n">
-        <v>21473134.73628981</v>
+        <v>21473463.18325101</v>
       </c>
     </row>
     <row r="30">
@@ -14568,10 +14568,10 @@
         <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>2072931481.205784</v>
+        <v>2072963010.7777</v>
       </c>
       <c r="I30" t="n">
-        <v>2072931481.205784</v>
+        <v>2072963010.7777</v>
       </c>
     </row>
     <row r="31">
@@ -14634,10 +14634,10 @@
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>6005821.145634925</v>
+        <v>6005911.479712672</v>
       </c>
       <c r="I32" t="n">
-        <v>6005821.145634925</v>
+        <v>6005911.479712672</v>
       </c>
     </row>
     <row r="33">
@@ -14667,10 +14667,10 @@
         <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>525174.4051097098</v>
+        <v>525182.4380280318</v>
       </c>
       <c r="I33" t="n">
-        <v>525174.4051097098</v>
+        <v>525182.4380280318</v>
       </c>
     </row>
     <row r="34">
@@ -14700,10 +14700,10 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>37390973.19941365</v>
+        <v>37391545.12110437</v>
       </c>
       <c r="I34" t="n">
-        <v>37390973.19941365</v>
+        <v>37391545.12110437</v>
       </c>
     </row>
     <row r="35">
@@ -14733,10 +14733,10 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>314831.7718903777</v>
+        <v>314836.5874676111</v>
       </c>
       <c r="I35" t="n">
-        <v>314831.7718903777</v>
+        <v>314836.5874676111</v>
       </c>
     </row>
     <row r="36">
@@ -14766,10 +14766,10 @@
         <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>5288082870.144179</v>
+        <v>5288163746.942154</v>
       </c>
       <c r="I36" t="n">
-        <v>5288082870.144179</v>
+        <v>5288163746.942154</v>
       </c>
     </row>
     <row r="37">
@@ -14832,10 +14832,10 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>2094937213.985341</v>
+        <v>2094969257.54909</v>
       </c>
       <c r="I38" t="n">
-        <v>2094937213.985341</v>
+        <v>2094969257.54909</v>
       </c>
     </row>
     <row r="39">
@@ -14865,10 +14865,10 @@
         <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>21619655587.83395</v>
+        <v>21619986275.93642</v>
       </c>
       <c r="I39" t="n">
-        <v>21619655587.83395</v>
+        <v>21619986275.93642</v>
       </c>
     </row>
     <row r="40">
@@ -14898,10 +14898,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>27900623.37189059</v>
+        <v>27901050.13188975</v>
       </c>
       <c r="I40" t="n">
-        <v>27900623.37189059</v>
+        <v>27901050.13188975</v>
       </c>
     </row>
     <row r="41">
@@ -14964,10 +14964,10 @@
         <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>7590774.325671571</v>
+        <v>7590885.00711476</v>
       </c>
       <c r="I42" t="n">
-        <v>7590774.325671571</v>
+        <v>7590885.00711476</v>
       </c>
     </row>
     <row r="43">
@@ -14997,10 +14997,10 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>12407459.33556299</v>
+        <v>12407638.70023144</v>
       </c>
       <c r="I43" t="n">
-        <v>12407459.33556299</v>
+        <v>12407638.70023144</v>
       </c>
     </row>
     <row r="44">
@@ -15030,10 +15030,10 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>5078215.33885916</v>
+        <v>5078293.013796556</v>
       </c>
       <c r="I44" t="n">
-        <v>5078215.33885916</v>
+        <v>5078293.013796556</v>
       </c>
     </row>
     <row r="45">
@@ -15063,10 +15063,10 @@
         <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>22933718.10112534</v>
+        <v>22934068.88875424</v>
       </c>
       <c r="I45" t="n">
-        <v>22933718.10112534</v>
+        <v>22934068.88875424</v>
       </c>
     </row>
     <row r="46">
@@ -15096,10 +15096,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>734467744.9215349</v>
+        <v>734478979.1312521</v>
       </c>
       <c r="I46" t="n">
-        <v>734467744.9215349</v>
+        <v>734478979.1312521</v>
       </c>
     </row>
     <row r="47">
@@ -15219,7 +15219,7 @@
         <v>0</v>
       </c>
       <c r="E50" t="n">
-        <v>951738913.2840779</v>
+        <v>951739035.8213598</v>
       </c>
       <c r="F50" t="n">
         <v>0</v>
@@ -15228,10 +15228,10 @@
         <v>0</v>
       </c>
       <c r="H50" t="n">
-        <v>1043224627.202412</v>
+        <v>1043240464.211708</v>
       </c>
       <c r="I50" t="n">
-        <v>1994963540.48649</v>
+        <v>1994979500.033068</v>
       </c>
     </row>
     <row r="51">
@@ -15261,10 +15261,10 @@
         <v>0</v>
       </c>
       <c r="H51" t="n">
-        <v>3475839674.228981</v>
+        <v>3475892522.855746</v>
       </c>
       <c r="I51" t="n">
-        <v>30254712623.4539</v>
+        <v>30254765472.08067</v>
       </c>
     </row>
     <row r="52">
@@ -15294,10 +15294,10 @@
         <v>0</v>
       </c>
       <c r="H52" t="n">
-        <v>678961524.5678372</v>
+        <v>678971907.14397</v>
       </c>
       <c r="I52" t="n">
-        <v>5491969538.846031</v>
+        <v>5491979921.422165</v>
       </c>
     </row>
     <row r="53">
@@ -15327,10 +15327,10 @@
         <v>0</v>
       </c>
       <c r="H53" t="n">
-        <v>173829172.7639064</v>
+        <v>173831831.6054897</v>
       </c>
       <c r="I53" t="n">
-        <v>173829172.7639064</v>
+        <v>173831831.6054897</v>
       </c>
     </row>
     <row r="54">
@@ -15360,10 +15360,10 @@
         <v>0</v>
       </c>
       <c r="H54" t="n">
-        <v>65911945.92438413</v>
+        <v>65912932.27819076</v>
       </c>
       <c r="I54" t="n">
-        <v>65911945.92438413</v>
+        <v>65912932.27819076</v>
       </c>
     </row>
     <row r="55">
@@ -15393,10 +15393,10 @@
         <v>0</v>
       </c>
       <c r="H55" t="n">
-        <v>107635053.0181362</v>
+        <v>107636666.7819284</v>
       </c>
       <c r="I55" t="n">
-        <v>107635053.0181362</v>
+        <v>107636666.7819284</v>
       </c>
     </row>
     <row r="56">
@@ -15426,10 +15426,10 @@
         <v>0</v>
       </c>
       <c r="H56" t="n">
-        <v>99630394.04591513</v>
+        <v>99631899.41970511</v>
       </c>
       <c r="I56" t="n">
-        <v>99630394.04591513</v>
+        <v>99631899.41970511</v>
       </c>
     </row>
     <row r="57">
@@ -15459,10 +15459,10 @@
         <v>0</v>
       </c>
       <c r="H57" t="n">
-        <v>4921371928.300253</v>
+        <v>4921447191.614045</v>
       </c>
       <c r="I57" t="n">
-        <v>11177877014.33414</v>
+        <v>11177952277.64793</v>
       </c>
     </row>
     <row r="58">
@@ -15483,7 +15483,7 @@
         <v>0</v>
       </c>
       <c r="E58" t="n">
-        <v>416909542.8434555</v>
+        <v>416909542.843495</v>
       </c>
       <c r="F58" t="n">
         <v>0</v>
@@ -15492,10 +15492,10 @@
         <v>0</v>
       </c>
       <c r="H58" t="n">
-        <v>24476607.08483037</v>
+        <v>24476981.47201374</v>
       </c>
       <c r="I58" t="n">
-        <v>441386149.9282858</v>
+        <v>441386524.3155087</v>
       </c>
     </row>
     <row r="59">
@@ -15525,10 +15525,10 @@
         <v>0</v>
       </c>
       <c r="H59" t="n">
-        <v>1259525.616899349</v>
+        <v>1259544.882244931</v>
       </c>
       <c r="I59" t="n">
-        <v>1259525.616899349</v>
+        <v>1259544.882244931</v>
       </c>
     </row>
     <row r="60">
@@ -15558,10 +15558,10 @@
         <v>0</v>
       </c>
       <c r="H60" t="n">
-        <v>26050521920.85907</v>
+        <v>26050920382.23266</v>
       </c>
       <c r="I60" t="n">
-        <v>26050521920.85907</v>
+        <v>26050920382.23266</v>
       </c>
     </row>
     <row r="61">
@@ -15591,10 +15591,10 @@
         <v>0</v>
       </c>
       <c r="H61" t="n">
-        <v>579323861.4112496</v>
+        <v>579332722.06069</v>
       </c>
       <c r="I61" t="n">
-        <v>3378125754.454232</v>
+        <v>3378134615.103672</v>
       </c>
     </row>
     <row r="62">
@@ -15624,10 +15624,10 @@
         <v>0</v>
       </c>
       <c r="H62" t="n">
-        <v>8817047.589988885</v>
+        <v>8817182.453040937</v>
       </c>
       <c r="I62" t="n">
-        <v>8817047.589988885</v>
+        <v>8817182.453040937</v>
       </c>
     </row>
     <row r="63">
@@ -15657,10 +15657,10 @@
         <v>0</v>
       </c>
       <c r="H63" t="n">
-        <v>31343830036.61213</v>
+        <v>31344309462.92105</v>
       </c>
       <c r="I63" t="n">
-        <v>31343830036.61213</v>
+        <v>31344309462.92105</v>
       </c>
     </row>
     <row r="64">
@@ -15690,10 +15690,10 @@
         <v>0</v>
       </c>
       <c r="H64" t="n">
-        <v>1093146101.903908</v>
+        <v>1093162766.441229</v>
       </c>
       <c r="I64" t="n">
-        <v>10590277398.91903</v>
+        <v>10590294063.45636</v>
       </c>
     </row>
     <row r="65">
@@ -15723,10 +15723,10 @@
         <v>0</v>
       </c>
       <c r="H65" t="n">
-        <v>2058904.831203984</v>
+        <v>2058936.323626655</v>
       </c>
       <c r="I65" t="n">
-        <v>2058904.831203984</v>
+        <v>2058936.323626655</v>
       </c>
     </row>
     <row r="66">
@@ -15756,10 +15756,10 @@
         <v>0</v>
       </c>
       <c r="H66" t="n">
-        <v>1422636.595624713</v>
+        <v>1422658.355869431</v>
       </c>
       <c r="I66" t="n">
-        <v>1422636.595624713</v>
+        <v>1422658.355869431</v>
       </c>
     </row>
     <row r="67">
@@ -15822,10 +15822,10 @@
         <v>0</v>
       </c>
       <c r="H68" t="n">
-        <v>34149339645.00065</v>
+        <v>34094332446.58313</v>
       </c>
       <c r="I68" t="n">
-        <v>34149339645.00065</v>
+        <v>34094332446.58313</v>
       </c>
     </row>
     <row r="69">
@@ -15855,10 +15855,10 @@
         <v>0</v>
       </c>
       <c r="H69" t="n">
-        <v>24611464.28549749</v>
+        <v>24611838.05598528</v>
       </c>
       <c r="I69" t="n">
-        <v>24611464.28549749</v>
+        <v>24611838.05598528</v>
       </c>
     </row>
     <row r="70">
@@ -15921,10 +15921,10 @@
         <v>0</v>
       </c>
       <c r="H71" t="n">
-        <v>215647377.2427447</v>
+        <v>215650674.8577376</v>
       </c>
       <c r="I71" t="n">
-        <v>215647377.2427447</v>
+        <v>215650674.8577376</v>
       </c>
     </row>
     <row r="72">
@@ -15987,10 +15987,10 @@
         <v>0</v>
       </c>
       <c r="H73" t="n">
-        <v>1205483.590264612</v>
+        <v>1205502.028998725</v>
       </c>
       <c r="I73" t="n">
-        <v>1205483.590264612</v>
+        <v>1205502.028998725</v>
       </c>
     </row>
     <row r="74">
@@ -16020,10 +16020,10 @@
         <v>0</v>
       </c>
       <c r="H74" t="n">
-        <v>1382210.84797646</v>
+        <v>1382231.98988044</v>
       </c>
       <c r="I74" t="n">
-        <v>1382210.84797646</v>
+        <v>1382231.98988044</v>
       </c>
     </row>
     <row r="75">
@@ -16053,10 +16053,10 @@
         <v>0</v>
       </c>
       <c r="H75" t="n">
-        <v>182367299.8902909</v>
+        <v>182370089.3286381</v>
       </c>
       <c r="I75" t="n">
-        <v>437064487.8126076</v>
+        <v>437067277.2509549</v>
       </c>
     </row>
     <row r="76">
@@ -16152,10 +16152,10 @@
         <v>0</v>
       </c>
       <c r="H78" t="n">
-        <v>1482915370.126067</v>
+        <v>1482938052.377774</v>
       </c>
       <c r="I78" t="n">
-        <v>1482915370.126067</v>
+        <v>1482938052.377774</v>
       </c>
     </row>
     <row r="79">
@@ -16185,10 +16185,10 @@
         <v>0</v>
       </c>
       <c r="H79" t="n">
-        <v>42429480.90450406</v>
+        <v>42430129.8937755</v>
       </c>
       <c r="I79" t="n">
-        <v>42429480.90450406</v>
+        <v>42430129.8937755</v>
       </c>
     </row>
     <row r="80">
@@ -16218,10 +16218,10 @@
         <v>0</v>
       </c>
       <c r="H80" t="n">
-        <v>3185824.117163876</v>
+        <v>3185872.846623409</v>
       </c>
       <c r="I80" t="n">
-        <v>3185824.117163876</v>
+        <v>3185872.846623409</v>
       </c>
     </row>
     <row r="81">
@@ -16317,10 +16317,10 @@
         <v>0</v>
       </c>
       <c r="H83" t="n">
-        <v>98750123.09714326</v>
+        <v>98751633.55093807</v>
       </c>
       <c r="I83" t="n">
-        <v>98750123.09714326</v>
+        <v>98751633.55093807</v>
       </c>
     </row>
     <row r="84">
@@ -16350,10 +16350,10 @@
         <v>0</v>
       </c>
       <c r="H84" t="n">
-        <v>211607888.1567037</v>
+        <v>211611124.850772</v>
       </c>
       <c r="I84" t="n">
-        <v>211607888.1567037</v>
+        <v>211611124.850772</v>
       </c>
     </row>
     <row r="85">
@@ -16383,10 +16383,10 @@
         <v>0</v>
       </c>
       <c r="H85" t="n">
-        <v>722172.6394744178</v>
+        <v>722183.6856216993</v>
       </c>
       <c r="I85" t="n">
-        <v>722172.6394744178</v>
+        <v>722183.6856216993</v>
       </c>
     </row>
     <row r="86">
@@ -16407,7 +16407,7 @@
         <v>0</v>
       </c>
       <c r="E86" t="n">
-        <v>1857365354.719243</v>
+        <v>1857365461.348975</v>
       </c>
       <c r="F86" t="n">
         <v>0</v>
@@ -16416,10 +16416,10 @@
         <v>0</v>
       </c>
       <c r="H86" t="n">
-        <v>863392602.5538504</v>
+        <v>863405607.2040592</v>
       </c>
       <c r="I86" t="n">
-        <v>2720757957.273093</v>
+        <v>2720771068.553034</v>
       </c>
     </row>
     <row r="87">
@@ -16449,10 +16449,10 @@
         <v>0</v>
       </c>
       <c r="H87" t="n">
-        <v>431071031.1975183</v>
+        <v>431077624.7373993</v>
       </c>
       <c r="I87" t="n">
-        <v>431071031.1975183</v>
+        <v>431077624.7373993</v>
       </c>
     </row>
     <row r="88">
@@ -16515,10 +16515,10 @@
         <v>0</v>
       </c>
       <c r="H89" t="n">
-        <v>56496067.24343787</v>
+        <v>56496931.39121291</v>
       </c>
       <c r="I89" t="n">
-        <v>56496067.24343787</v>
+        <v>56496931.39121291</v>
       </c>
     </row>
     <row r="90">
@@ -16581,10 +16581,10 @@
         <v>0</v>
       </c>
       <c r="H91" t="n">
-        <v>65561793.82911524</v>
+        <v>65562796.64366551</v>
       </c>
       <c r="I91" t="n">
-        <v>65561793.82911524</v>
+        <v>65562796.64366551</v>
       </c>
     </row>
     <row r="92">
@@ -16614,10 +16614,10 @@
         <v>0</v>
       </c>
       <c r="H92" t="n">
-        <v>9759013.912831517</v>
+        <v>9759163.183932513</v>
       </c>
       <c r="I92" t="n">
-        <v>9759013.912831517</v>
+        <v>9759163.183932513</v>
       </c>
     </row>
     <row r="93">
@@ -16647,10 +16647,10 @@
         <v>0</v>
       </c>
       <c r="H93" t="n">
-        <v>16565006.68528002</v>
+        <v>16565260.05891059</v>
       </c>
       <c r="I93" t="n">
-        <v>16565006.68528002</v>
+        <v>16565260.05891059</v>
       </c>
     </row>
     <row r="94">
@@ -16680,10 +16680,10 @@
         <v>0</v>
       </c>
       <c r="H94" t="n">
-        <v>364252542.2305264</v>
+        <v>364258113.7338059</v>
       </c>
       <c r="I94" t="n">
-        <v>364252542.2305264</v>
+        <v>364258113.7338059</v>
       </c>
     </row>
     <row r="95">
@@ -16713,10 +16713,10 @@
         <v>0</v>
       </c>
       <c r="H95" t="n">
-        <v>185012207.4884669</v>
+        <v>185015037.3825685</v>
       </c>
       <c r="I95" t="n">
-        <v>7431812853.782291</v>
+        <v>7431815683.676393</v>
       </c>
     </row>
     <row r="96">
@@ -16746,10 +16746,10 @@
         <v>0</v>
       </c>
       <c r="H96" t="n">
-        <v>2898.837996427073</v>
+        <v>2898.882336228532</v>
       </c>
       <c r="I96" t="n">
-        <v>2898.837996427073</v>
+        <v>2898.882336228532</v>
       </c>
     </row>
     <row r="97">
@@ -16812,10 +16812,10 @@
         <v>0</v>
       </c>
       <c r="H98" t="n">
-        <v>8837177.402376786</v>
+        <v>8837312.57332872</v>
       </c>
       <c r="I98" t="n">
-        <v>8837177.402376786</v>
+        <v>8837312.57332872</v>
       </c>
     </row>
     <row r="99">
@@ -16845,10 +16845,10 @@
         <v>0</v>
       </c>
       <c r="H99" t="n">
-        <v>1279843611.704972</v>
+        <v>1279863187.828823</v>
       </c>
       <c r="I99" t="n">
-        <v>1279843611.704972</v>
+        <v>1279863187.828823</v>
       </c>
     </row>
     <row r="100">
@@ -16878,10 +16878,10 @@
         <v>0</v>
       </c>
       <c r="H100" t="n">
-        <v>193240978.115384</v>
+        <v>193243886.5002517</v>
       </c>
       <c r="I100" t="n">
-        <v>193240978.115384</v>
+        <v>193243886.5002517</v>
       </c>
     </row>
     <row r="101">
@@ -16911,10 +16911,10 @@
         <v>0</v>
       </c>
       <c r="H101" t="n">
-        <v>10111678.06691063</v>
+        <v>10111832.73226221</v>
       </c>
       <c r="I101" t="n">
-        <v>10111678.06691063</v>
+        <v>10111832.73226221</v>
       </c>
     </row>
     <row r="102">
@@ -16944,10 +16944,10 @@
         <v>0</v>
       </c>
       <c r="H102" t="n">
-        <v>179696133.9337333</v>
+        <v>179698869.3628152</v>
       </c>
       <c r="I102" t="n">
-        <v>179696133.9337333</v>
+        <v>179698869.3628152</v>
       </c>
     </row>
     <row r="103">
@@ -17010,10 +17010,10 @@
         <v>0</v>
       </c>
       <c r="H104" t="n">
-        <v>907495854.8219795</v>
+        <v>907509735.6204504</v>
       </c>
       <c r="I104" t="n">
-        <v>907495854.8219795</v>
+        <v>907509735.6204504</v>
       </c>
     </row>
     <row r="105">
@@ -17043,10 +17043,10 @@
         <v>0</v>
       </c>
       <c r="H105" t="n">
-        <v>63053059.54780868</v>
+        <v>63054007.32441886</v>
       </c>
       <c r="I105" t="n">
-        <v>63053059.54780868</v>
+        <v>63054007.32441886</v>
       </c>
     </row>
     <row r="106">
@@ -17076,10 +17076,10 @@
         <v>0</v>
       </c>
       <c r="H106" t="n">
-        <v>37746132.71209764</v>
+        <v>37746684.51557847</v>
       </c>
       <c r="I106" t="n">
-        <v>37746132.71209764</v>
+        <v>37746684.51557847</v>
       </c>
     </row>
     <row r="107">
@@ -17142,10 +17142,10 @@
         <v>0</v>
       </c>
       <c r="H108" t="n">
-        <v>59750020.26655439</v>
+        <v>59750934.18586934</v>
       </c>
       <c r="I108" t="n">
-        <v>59750020.26655439</v>
+        <v>59750934.18586934</v>
       </c>
     </row>
     <row r="109">
@@ -17175,10 +17175,10 @@
         <v>0</v>
       </c>
       <c r="H109" t="n">
-        <v>1716124.623779466</v>
+        <v>1716150.873133584</v>
       </c>
       <c r="I109" t="n">
-        <v>1716124.623779466</v>
+        <v>1716150.873133584</v>
       </c>
     </row>
     <row r="110">
@@ -17274,10 +17274,10 @@
         <v>0</v>
       </c>
       <c r="H112" t="n">
-        <v>71003945.65511575</v>
+        <v>71005002.3426062</v>
       </c>
       <c r="I112" t="n">
-        <v>71003945.65511575</v>
+        <v>71005002.3426062</v>
       </c>
     </row>
     <row r="113">
@@ -17340,10 +17340,10 @@
         <v>0</v>
       </c>
       <c r="H114" t="n">
-        <v>62949317.99954083</v>
+        <v>62950280.85440389</v>
       </c>
       <c r="I114" t="n">
-        <v>104579564.4182908</v>
+        <v>104580527.2731539</v>
       </c>
     </row>
     <row r="115">
@@ -17397,7 +17397,7 @@
         <v>0</v>
       </c>
       <c r="E116" t="n">
-        <v>513674029.7243924</v>
+        <v>513674029.7289597</v>
       </c>
       <c r="F116" t="n">
         <v>0</v>
@@ -17406,10 +17406,10 @@
         <v>0</v>
       </c>
       <c r="H116" t="n">
-        <v>37328809.30024602</v>
+        <v>37329380.26685901</v>
       </c>
       <c r="I116" t="n">
-        <v>551002839.0246384</v>
+        <v>551003409.9958187</v>
       </c>
     </row>
     <row r="117">
@@ -17472,10 +17472,10 @@
         <v>0</v>
       </c>
       <c r="H118" t="n">
-        <v>171463542.560343</v>
+        <v>171466165.2179196</v>
       </c>
       <c r="I118" t="n">
-        <v>171463542.560343</v>
+        <v>171466165.2179196</v>
       </c>
     </row>
     <row r="119">
@@ -17538,10 +17538,10 @@
         <v>0</v>
       </c>
       <c r="H120" t="n">
-        <v>806345.9625333999</v>
+        <v>806358.2961718891</v>
       </c>
       <c r="I120" t="n">
-        <v>806345.9625333999</v>
+        <v>806358.2961718891</v>
       </c>
     </row>
     <row r="121">
@@ -17571,10 +17571,10 @@
         <v>0</v>
       </c>
       <c r="H121" t="n">
-        <v>1457334.884538898</v>
+        <v>1457357.175518773</v>
       </c>
       <c r="I121" t="n">
-        <v>1457334.884538898</v>
+        <v>1457357.175518773</v>
       </c>
     </row>
     <row r="122">
@@ -17604,10 +17604,10 @@
         <v>0</v>
       </c>
       <c r="H122" t="n">
-        <v>48980.14411461361</v>
+        <v>48980.89330096627</v>
       </c>
       <c r="I122" t="n">
-        <v>48980.14411461361</v>
+        <v>48980.89330096627</v>
       </c>
     </row>
     <row r="123">
@@ -17637,10 +17637,10 @@
         <v>0</v>
       </c>
       <c r="H123" t="n">
-        <v>319951095.6763683</v>
+        <v>319955989.5573221</v>
       </c>
       <c r="I123" t="n">
-        <v>319951095.6763683</v>
+        <v>319955989.5573221</v>
       </c>
     </row>
     <row r="124">
@@ -17703,10 +17703,10 @@
         <v>0</v>
       </c>
       <c r="H125" t="n">
-        <v>7330724.089289014</v>
+        <v>7330836.217959561</v>
       </c>
       <c r="I125" t="n">
-        <v>7330724.089289014</v>
+        <v>7330836.217959561</v>
       </c>
     </row>
     <row r="126">
@@ -17736,10 +17736,10 @@
         <v>0</v>
       </c>
       <c r="H126" t="n">
-        <v>1479870.34357925</v>
+        <v>1479892.979255097</v>
       </c>
       <c r="I126" t="n">
-        <v>1479870.34357925</v>
+        <v>1479892.979255097</v>
       </c>
     </row>
     <row r="127">
@@ -17802,10 +17802,10 @@
         <v>0</v>
       </c>
       <c r="H128" t="n">
-        <v>122099233.6615458</v>
+        <v>122101054.8016333</v>
       </c>
       <c r="I128" t="n">
-        <v>122099233.6615458</v>
+        <v>122101054.8016333</v>
       </c>
     </row>
     <row r="129">
@@ -17835,10 +17835,10 @@
         <v>0</v>
       </c>
       <c r="H129" t="n">
-        <v>730038.5133060815</v>
+        <v>730049.6797675318</v>
       </c>
       <c r="I129" t="n">
-        <v>730038.5133060815</v>
+        <v>730049.6797675318</v>
       </c>
     </row>
     <row r="130">
@@ -17868,10 +17868,10 @@
         <v>0</v>
       </c>
       <c r="H130" t="n">
-        <v>9476332.977141924</v>
+        <v>9476475.442237992</v>
       </c>
       <c r="I130" t="n">
-        <v>9476332.977141924</v>
+        <v>9476475.442237992</v>
       </c>
     </row>
     <row r="131">
@@ -17901,10 +17901,10 @@
         <v>0</v>
       </c>
       <c r="H131" t="n">
-        <v>1355773.59296522</v>
+        <v>1355794.330492467</v>
       </c>
       <c r="I131" t="n">
-        <v>1355773.59296522</v>
+        <v>1355794.330492467</v>
       </c>
     </row>
     <row r="132">
@@ -17934,10 +17934,10 @@
         <v>0</v>
       </c>
       <c r="H132" t="n">
-        <v>5479509.216201145</v>
+        <v>5479593.029215546</v>
       </c>
       <c r="I132" t="n">
-        <v>5479509.216201145</v>
+        <v>5479593.029215546</v>
       </c>
     </row>
     <row r="133">
@@ -18000,10 +18000,10 @@
         <v>0</v>
       </c>
       <c r="H134" t="n">
-        <v>312581.8057173868</v>
+        <v>312586.5868797775</v>
       </c>
       <c r="I134" t="n">
-        <v>312581.8057173868</v>
+        <v>312586.5868797775</v>
       </c>
     </row>
     <row r="135">
@@ -18033,10 +18033,10 @@
         <v>0</v>
       </c>
       <c r="H135" t="n">
-        <v>1389911139.49408</v>
+        <v>1389932315.021962</v>
       </c>
       <c r="I135" t="n">
-        <v>1389911139.49408</v>
+        <v>1389932315.021962</v>
       </c>
     </row>
     <row r="136">
@@ -18066,10 +18066,10 @@
         <v>0</v>
       </c>
       <c r="H136" t="n">
-        <v>29139892.29869453</v>
+        <v>29140338.01419869</v>
       </c>
       <c r="I136" t="n">
-        <v>29139892.29869453</v>
+        <v>29140338.01419869</v>
       </c>
     </row>
     <row r="137">
@@ -18099,10 +18099,10 @@
         <v>0</v>
       </c>
       <c r="H137" t="n">
-        <v>33635271.21388143</v>
+        <v>33635778.53866422</v>
       </c>
       <c r="I137" t="n">
-        <v>33635271.21388143</v>
+        <v>33635778.53866422</v>
       </c>
     </row>
     <row r="138">
@@ -18132,10 +18132,10 @@
         <v>0</v>
       </c>
       <c r="H138" t="n">
-        <v>7139617.602226633</v>
+        <v>7139726.807786712</v>
       </c>
       <c r="I138" t="n">
-        <v>7139617.602226633</v>
+        <v>7139726.807786712</v>
       </c>
     </row>
     <row r="139">
@@ -18156,7 +18156,7 @@
         <v>0</v>
       </c>
       <c r="E139" t="n">
-        <v>7587274005.244033</v>
+        <v>3912320796.056003</v>
       </c>
       <c r="F139" t="n">
         <v>0</v>
@@ -18165,10 +18165,10 @@
         <v>0</v>
       </c>
       <c r="H139" t="n">
-        <v>38664471112.24168</v>
+        <v>38406158583.68304</v>
       </c>
       <c r="I139" t="n">
-        <v>46251745117.48572</v>
+        <v>42318479379.73904</v>
       </c>
     </row>
     <row r="140">
@@ -18198,10 +18198,10 @@
         <v>0</v>
       </c>
       <c r="H140" t="n">
-        <v>143476939.7178271</v>
+        <v>143479127.8289222</v>
       </c>
       <c r="I140" t="n">
-        <v>143476939.7178271</v>
+        <v>143479127.8289222</v>
       </c>
     </row>
     <row r="141">
@@ -18231,10 +18231,10 @@
         <v>0</v>
       </c>
       <c r="H141" t="n">
-        <v>379037.2517351037</v>
+        <v>379043.0493810944</v>
       </c>
       <c r="I141" t="n">
-        <v>379037.2517351037</v>
+        <v>379043.0493810944</v>
       </c>
     </row>
     <row r="142">
@@ -18264,10 +18264,10 @@
         <v>0</v>
       </c>
       <c r="H142" t="n">
-        <v>457470238.4295157</v>
+        <v>457477217.2780175</v>
       </c>
       <c r="I142" t="n">
-        <v>457470238.4295157</v>
+        <v>457477217.2780175</v>
       </c>
     </row>
     <row r="143">
@@ -18297,10 +18297,10 @@
         <v>0</v>
       </c>
       <c r="H143" t="n">
-        <v>749750136.8691165</v>
+        <v>749761555.2653309</v>
       </c>
       <c r="I143" t="n">
-        <v>749750136.8691165</v>
+        <v>749761555.2653309</v>
       </c>
     </row>
     <row r="144">
@@ -18330,10 +18330,10 @@
         <v>0</v>
       </c>
       <c r="H144" t="n">
-        <v>9329474124.970295</v>
+        <v>9329616807.331263</v>
       </c>
       <c r="I144" t="n">
-        <v>9329474124.970295</v>
+        <v>9329616807.331263</v>
       </c>
     </row>
     <row r="145">
@@ -18363,10 +18363,10 @@
         <v>0</v>
       </c>
       <c r="H145" t="n">
-        <v>3040174950.601075</v>
+        <v>3040221452.252384</v>
       </c>
       <c r="I145" t="n">
-        <v>3040174950.601075</v>
+        <v>3040221452.252384</v>
       </c>
     </row>
     <row r="146">
@@ -18396,10 +18396,10 @@
         <v>0</v>
       </c>
       <c r="H146" t="n">
-        <v>72213217.37838419</v>
+        <v>72214321.93121716</v>
       </c>
       <c r="I146" t="n">
-        <v>72213217.37838419</v>
+        <v>72214321.93121716</v>
       </c>
     </row>
     <row r="147">
@@ -18429,10 +18429,10 @@
         <v>0</v>
       </c>
       <c r="H147" t="n">
-        <v>20126156118.34055</v>
+        <v>20126463951.90316</v>
       </c>
       <c r="I147" t="n">
-        <v>20126156118.34055</v>
+        <v>20126463951.90316</v>
       </c>
     </row>
     <row r="148">
@@ -18528,10 +18528,10 @@
         <v>0</v>
       </c>
       <c r="H150" t="n">
-        <v>306172588.5733003</v>
+        <v>306177188.4507764</v>
       </c>
       <c r="I150" t="n">
-        <v>306172588.5733003</v>
+        <v>306177188.4507764</v>
       </c>
     </row>
     <row r="151">
@@ -18561,10 +18561,10 @@
         <v>0</v>
       </c>
       <c r="H151" t="n">
-        <v>507956073.0088631</v>
+        <v>507963842.5604749</v>
       </c>
       <c r="I151" t="n">
-        <v>507956073.0088631</v>
+        <v>507963842.5604749</v>
       </c>
     </row>
     <row r="152">
@@ -18594,10 +18594,10 @@
         <v>0</v>
       </c>
       <c r="H152" t="n">
-        <v>238237016.7637494</v>
+        <v>238240660.7693946</v>
       </c>
       <c r="I152" t="n">
-        <v>238237016.7637494</v>
+        <v>238240660.7693946</v>
       </c>
     </row>
     <row r="153">
@@ -18618,7 +18618,7 @@
         <v>0</v>
       </c>
       <c r="E153" t="n">
-        <v>12100594326.45106</v>
+        <v>12100594540.93373</v>
       </c>
       <c r="F153" t="n">
         <v>0</v>
@@ -18627,10 +18627,10 @@
         <v>0</v>
       </c>
       <c r="H153" t="n">
-        <v>1792019953.641476</v>
+        <v>1792047164.925712</v>
       </c>
       <c r="I153" t="n">
-        <v>13892614280.09254</v>
+        <v>13892641705.85945</v>
       </c>
     </row>
     <row r="154">
@@ -18693,10 +18693,10 @@
         <v>0</v>
       </c>
       <c r="H155" t="n">
-        <v>329901.5902858538</v>
+        <v>329906.6363667429</v>
       </c>
       <c r="I155" t="n">
-        <v>329901.5902858538</v>
+        <v>329906.6363667429</v>
       </c>
     </row>
     <row r="156">
@@ -18717,7 +18717,7 @@
         <v>0</v>
       </c>
       <c r="E156" t="n">
-        <v>414556873.8994778</v>
+        <v>414556974.6245031</v>
       </c>
       <c r="F156" t="n">
         <v>0</v>
@@ -18726,10 +18726,10 @@
         <v>0</v>
       </c>
       <c r="H156" t="n">
-        <v>931885278.2464037</v>
+        <v>931899438.6711279</v>
       </c>
       <c r="I156" t="n">
-        <v>1346442152.145882</v>
+        <v>1346456413.295631</v>
       </c>
     </row>
     <row r="157">
@@ -18759,10 +18759,10 @@
         <v>0</v>
       </c>
       <c r="H157" t="n">
-        <v>83040178.90383318</v>
+        <v>83041449.06279008</v>
       </c>
       <c r="I157" t="n">
-        <v>83040178.90383318</v>
+        <v>83041449.06279008</v>
       </c>
     </row>
     <row r="158">
@@ -18792,10 +18792,10 @@
         <v>0</v>
       </c>
       <c r="H158" t="n">
-        <v>105322133.4656549</v>
+        <v>105323744.4430509</v>
       </c>
       <c r="I158" t="n">
-        <v>105322133.4656549</v>
+        <v>105323744.4430509</v>
       </c>
     </row>
     <row r="159">
@@ -18825,10 +18825,10 @@
         <v>0</v>
       </c>
       <c r="H159" t="n">
-        <v>708868540.4838701</v>
+        <v>708879382.9353642</v>
       </c>
       <c r="I159" t="n">
-        <v>869100398.5650775</v>
+        <v>869111241.0165715</v>
       </c>
     </row>
     <row r="160">
@@ -18858,10 +18858,10 @@
         <v>0</v>
       </c>
       <c r="H160" t="n">
-        <v>871062619.1605729</v>
+        <v>871075923.1331445</v>
       </c>
       <c r="I160" t="n">
-        <v>871062619.1605729</v>
+        <v>871075923.1331445</v>
       </c>
     </row>
     <row r="161">
@@ -18891,10 +18891,10 @@
         <v>0</v>
       </c>
       <c r="H161" t="n">
-        <v>985823823.906951</v>
+        <v>985838893.6834469</v>
       </c>
       <c r="I161" t="n">
-        <v>985823823.906951</v>
+        <v>985838893.6834469</v>
       </c>
     </row>
     <row r="162">
@@ -18924,10 +18924,10 @@
         <v>0</v>
       </c>
       <c r="H162" t="n">
-        <v>2211784.7471079</v>
+        <v>2211818.577938281</v>
       </c>
       <c r="I162" t="n">
-        <v>2211784.7471079</v>
+        <v>2211818.577938281</v>
       </c>
     </row>
     <row r="163">
@@ -18957,10 +18957,10 @@
         <v>0</v>
       </c>
       <c r="H163" t="n">
-        <v>11647231.77564377</v>
+        <v>11647403.95720039</v>
       </c>
       <c r="I163" t="n">
-        <v>11647231.77564377</v>
+        <v>11647403.95720039</v>
       </c>
     </row>
     <row r="164">
@@ -19023,10 +19023,10 @@
         <v>0</v>
       </c>
       <c r="H165" t="n">
-        <v>896565.2504746191</v>
+        <v>896578.9640816749</v>
       </c>
       <c r="I165" t="n">
-        <v>896565.2504746191</v>
+        <v>896578.9640816749</v>
       </c>
     </row>
     <row r="166">
@@ -19056,10 +19056,10 @@
         <v>0</v>
       </c>
       <c r="H166" t="n">
-        <v>25023839.51815213</v>
+        <v>25024222.27568372</v>
       </c>
       <c r="I166" t="n">
-        <v>25023839.51815213</v>
+        <v>25024222.27568372</v>
       </c>
     </row>
     <row r="167">
@@ -19089,10 +19089,10 @@
         <v>0</v>
       </c>
       <c r="H167" t="n">
-        <v>461340138.7665902</v>
+        <v>461347194.3377105</v>
       </c>
       <c r="I167" t="n">
-        <v>461340138.7665902</v>
+        <v>461347194.3377105</v>
       </c>
     </row>
     <row r="168">
@@ -19122,10 +19122,10 @@
         <v>0</v>
       </c>
       <c r="H168" t="n">
-        <v>302712.2008864613</v>
+        <v>302716.8310861838</v>
       </c>
       <c r="I168" t="n">
-        <v>302712.2008864613</v>
+        <v>302716.8310861838</v>
       </c>
     </row>
     <row r="169">
@@ -19179,7 +19179,7 @@
         <v>0</v>
       </c>
       <c r="E170" t="n">
-        <v>20827.63006085233</v>
+        <v>20832.02717019772</v>
       </c>
       <c r="F170" t="n">
         <v>0</v>
@@ -19188,10 +19188,10 @@
         <v>0</v>
       </c>
       <c r="H170" t="n">
-        <v>196587169.5289898</v>
+        <v>196590172.3918826</v>
       </c>
       <c r="I170" t="n">
-        <v>196607997.1590507</v>
+        <v>196611004.4190528</v>
       </c>
     </row>
     <row r="171">
@@ -19221,10 +19221,10 @@
         <v>0</v>
       </c>
       <c r="H171" t="n">
-        <v>78069172.34087174</v>
+        <v>78070366.46472618</v>
       </c>
       <c r="I171" t="n">
-        <v>145513407.8708764</v>
+        <v>145514601.9947309</v>
       </c>
     </row>
     <row r="172">
@@ -19254,10 +19254,10 @@
         <v>0</v>
       </c>
       <c r="H172" t="n">
-        <v>2042664371.046082</v>
+        <v>2042695599.349945</v>
       </c>
       <c r="I172" t="n">
-        <v>3905333879.735014</v>
+        <v>3905365108.038878</v>
       </c>
     </row>
     <row r="173">
@@ -19287,10 +19287,10 @@
         <v>0</v>
       </c>
       <c r="H173" t="n">
-        <v>73045769.79748797</v>
+        <v>73046887.08480594</v>
       </c>
       <c r="I173" t="n">
-        <v>73045769.79748797</v>
+        <v>73046887.08480594</v>
       </c>
     </row>
     <row r="174">
@@ -19353,10 +19353,10 @@
         <v>0</v>
       </c>
       <c r="H175" t="n">
-        <v>2504839192.234703</v>
+        <v>2504877467.382216</v>
       </c>
       <c r="I175" t="n">
-        <v>2504839192.234703</v>
+        <v>2504877467.382216</v>
       </c>
     </row>
     <row r="176">
@@ -19386,10 +19386,10 @@
         <v>0</v>
       </c>
       <c r="H176" t="n">
-        <v>4941810.113189018</v>
+        <v>4941885.701710881</v>
       </c>
       <c r="I176" t="n">
-        <v>4941810.113189018</v>
+        <v>4941885.701710881</v>
       </c>
     </row>
     <row r="177">
@@ -19419,10 +19419,10 @@
         <v>0</v>
       </c>
       <c r="H177" t="n">
-        <v>3273786.424760729</v>
+        <v>3273836.499666699</v>
       </c>
       <c r="I177" t="n">
-        <v>3273786.424760729</v>
+        <v>3273836.499666699</v>
       </c>
     </row>
     <row r="178">
@@ -19452,10 +19452,10 @@
         <v>0</v>
       </c>
       <c r="H178" t="n">
-        <v>20762287.69511157</v>
+        <v>20762605.26915861</v>
       </c>
       <c r="I178" t="n">
-        <v>20762287.69511157</v>
+        <v>20762605.26915861</v>
       </c>
     </row>
     <row r="179">
@@ -19485,10 +19485,10 @@
         <v>0</v>
       </c>
       <c r="H179" t="n">
-        <v>610577367.6044371</v>
+        <v>610586706.8221817</v>
       </c>
       <c r="I179" t="n">
-        <v>610577367.6044371</v>
+        <v>610586706.8221817</v>
       </c>
     </row>
     <row r="180">
@@ -19518,10 +19518,10 @@
         <v>0</v>
       </c>
       <c r="H180" t="n">
-        <v>1111023966.54482</v>
+        <v>1111040960.451397</v>
       </c>
       <c r="I180" t="n">
-        <v>1111023966.54482</v>
+        <v>1111040960.451397</v>
       </c>
     </row>
     <row r="181">
@@ -19551,10 +19551,10 @@
         <v>0</v>
       </c>
       <c r="H181" t="n">
-        <v>4017966.213131001</v>
+        <v>4018027.670799342</v>
       </c>
       <c r="I181" t="n">
-        <v>4017966.213131001</v>
+        <v>4018027.670799342</v>
       </c>
     </row>
     <row r="182">
@@ -19584,10 +19584,10 @@
         <v>0</v>
       </c>
       <c r="H182" t="n">
-        <v>19304996.57228306</v>
+        <v>19305291.85601959</v>
       </c>
       <c r="I182" t="n">
-        <v>19304996.57228306</v>
+        <v>19305291.85601959</v>
       </c>
     </row>
     <row r="183">
@@ -19617,10 +19617,10 @@
         <v>0</v>
       </c>
       <c r="H183" t="n">
-        <v>167733391.6013729</v>
+        <v>167735957.2036214</v>
       </c>
       <c r="I183" t="n">
-        <v>167733391.6013729</v>
+        <v>167735957.2036214</v>
       </c>
     </row>
     <row r="184">
@@ -19650,10 +19650,10 @@
         <v>0</v>
       </c>
       <c r="H184" t="n">
-        <v>441271830.3828957</v>
+        <v>441278579.9512996</v>
       </c>
       <c r="I184" t="n">
-        <v>441271830.3828957</v>
+        <v>441278579.9512996</v>
       </c>
     </row>
     <row r="185">
@@ -19683,10 +19683,10 @@
         <v>0</v>
       </c>
       <c r="H185" t="n">
-        <v>36203698366.24625</v>
+        <v>36204252124.72353</v>
       </c>
       <c r="I185" t="n">
-        <v>36203698366.24625</v>
+        <v>36204252124.72353</v>
       </c>
     </row>
     <row r="186">
@@ -19716,10 +19716,10 @@
         <v>0</v>
       </c>
       <c r="H186" t="n">
-        <v>1659794.992722592</v>
+        <v>1659820.380474695</v>
       </c>
       <c r="I186" t="n">
-        <v>1659794.992722592</v>
+        <v>1659820.380474695</v>
       </c>
     </row>
     <row r="187">
@@ -19782,10 +19782,10 @@
         <v>0</v>
       </c>
       <c r="H188" t="n">
-        <v>199700499.4380751</v>
+        <v>199703538.3712762</v>
       </c>
       <c r="I188" t="n">
-        <v>199700499.4380751</v>
+        <v>199703538.3712762</v>
       </c>
     </row>
     <row r="189">
@@ -19848,10 +19848,10 @@
         <v>0</v>
       </c>
       <c r="H190" t="n">
-        <v>486795384.8011125</v>
+        <v>486802830.6848562</v>
       </c>
       <c r="I190" t="n">
-        <v>486795384.8011125</v>
+        <v>486802830.6848562</v>
       </c>
     </row>
     <row r="191">
@@ -19881,10 +19881,10 @@
         <v>0</v>
       </c>
       <c r="H191" t="n">
-        <v>813534344.367503</v>
+        <v>813546756.914488</v>
       </c>
       <c r="I191" t="n">
-        <v>813534344.367503</v>
+        <v>813546756.914488</v>
       </c>
     </row>
     <row r="192">
@@ -19914,10 +19914,10 @@
         <v>0</v>
       </c>
       <c r="H192" t="n">
-        <v>40727500.85533323</v>
+        <v>40728123.81160194</v>
       </c>
       <c r="I192" t="n">
-        <v>40727500.85533323</v>
+        <v>40728123.81160194</v>
       </c>
     </row>
     <row r="193">
@@ -19947,10 +19947,10 @@
         <v>0</v>
       </c>
       <c r="H193" t="n">
-        <v>44549909.73527465</v>
+        <v>44550591.15802236</v>
       </c>
       <c r="I193" t="n">
-        <v>44549909.73527465</v>
+        <v>44550591.15802236</v>
       </c>
     </row>
     <row r="194">
@@ -19980,10 +19980,10 @@
         <v>0</v>
       </c>
       <c r="H194" t="n">
-        <v>410220.7683129652</v>
+        <v>410227.0429331557</v>
       </c>
       <c r="I194" t="n">
-        <v>410220.7683129652</v>
+        <v>410227.0429331557</v>
       </c>
     </row>
     <row r="195">
@@ -20013,10 +20013,10 @@
         <v>0</v>
       </c>
       <c r="H195" t="n">
-        <v>614075.1545848629</v>
+        <v>614084.5473037623</v>
       </c>
       <c r="I195" t="n">
-        <v>614075.1545848629</v>
+        <v>614084.5473037623</v>
       </c>
     </row>
     <row r="196">
@@ -20046,10 +20046,10 @@
         <v>0</v>
       </c>
       <c r="H196" t="n">
-        <v>566870007.0088924</v>
+        <v>566878677.6912814</v>
       </c>
       <c r="I196" t="n">
-        <v>566870007.0088924</v>
+        <v>566878677.6912814</v>
       </c>
     </row>
     <row r="197">
@@ -20079,10 +20079,10 @@
         <v>0</v>
       </c>
       <c r="H197" t="n">
-        <v>49818992.14674662</v>
+        <v>49819722.25372778</v>
       </c>
       <c r="I197" t="n">
-        <v>49818992.14674662</v>
+        <v>49819722.25372778</v>
       </c>
     </row>
     <row r="198">
@@ -20112,10 +20112,10 @@
         <v>0</v>
       </c>
       <c r="H198" t="n">
-        <v>12177747.10345916</v>
+        <v>12177933.37081506</v>
       </c>
       <c r="I198" t="n">
-        <v>12177747.10345916</v>
+        <v>12177933.37081506</v>
       </c>
     </row>
   </sheetData>
@@ -20211,10 +20211,10 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>177014.2998804605</v>
+        <v>177016.810610913</v>
       </c>
       <c r="I2" t="n">
-        <v>177014.2998804605</v>
+        <v>177016.810610913</v>
       </c>
     </row>
     <row r="3">
@@ -20244,10 +20244,10 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>2590063791.56022</v>
+        <v>2590100528.434245</v>
       </c>
       <c r="I3" t="n">
-        <v>2590063791.56022</v>
+        <v>2590100528.434245</v>
       </c>
     </row>
     <row r="4">
@@ -20277,10 +20277,10 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>4180139.230108957</v>
+        <v>4180198.520250306</v>
       </c>
       <c r="I4" t="n">
-        <v>4180139.230108957</v>
+        <v>4180198.520250306</v>
       </c>
     </row>
     <row r="5">
@@ -20343,10 +20343,10 @@
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>3338917.845895601</v>
+        <v>3338965.204344719</v>
       </c>
       <c r="I6" t="n">
-        <v>3338917.845895601</v>
+        <v>3338965.204344719</v>
       </c>
     </row>
     <row r="7">
@@ -20376,10 +20376,10 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>12906506752.30017</v>
+        <v>12906689815.24797</v>
       </c>
       <c r="I7" t="n">
-        <v>12906506752.30017</v>
+        <v>12906689815.24797</v>
       </c>
     </row>
     <row r="8">
@@ -20442,10 +20442,10 @@
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>4531926419.330501</v>
+        <v>4531990699.141099</v>
       </c>
       <c r="I9" t="n">
-        <v>4531926419.330501</v>
+        <v>4531990699.141099</v>
       </c>
     </row>
     <row r="10">
@@ -20475,10 +20475,10 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>662969084.1339478</v>
+        <v>662978487.5362139</v>
       </c>
       <c r="I10" t="n">
-        <v>662969084.1339478</v>
+        <v>662978487.5362139</v>
       </c>
     </row>
     <row r="11">
@@ -20508,10 +20508,10 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>252180.7602078472</v>
+        <v>252184.3370822275</v>
       </c>
       <c r="I11" t="n">
-        <v>252180.7602078472</v>
+        <v>252184.3370822275</v>
       </c>
     </row>
     <row r="12">
@@ -20541,10 +20541,10 @@
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>17425879884.3165</v>
+        <v>17426127049.02193</v>
       </c>
       <c r="I12" t="n">
-        <v>17425879884.3165</v>
+        <v>17426127049.02193</v>
       </c>
     </row>
     <row r="13">
@@ -20574,10 +20574,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>4379362.164467239</v>
+        <v>4379424.280341245</v>
       </c>
       <c r="I13" t="n">
-        <v>4379362.164467239</v>
+        <v>4379424.280341245</v>
       </c>
     </row>
     <row r="14">
@@ -20640,10 +20640,10 @@
         <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>6322053529.468674</v>
+        <v>6322142793.114785</v>
       </c>
       <c r="I15" t="n">
-        <v>6322053529.468674</v>
+        <v>6322142793.114785</v>
       </c>
     </row>
     <row r="16">
@@ -20673,10 +20673,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>3353682216.746168</v>
+        <v>3353729775.325119</v>
       </c>
       <c r="I16" t="n">
-        <v>7768996960.321104</v>
+        <v>7769044518.900055</v>
       </c>
     </row>
     <row r="17">
@@ -20706,10 +20706,10 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>14506001.74149913</v>
+        <v>14506207.491319</v>
       </c>
       <c r="I17" t="n">
-        <v>14506001.74149913</v>
+        <v>14506207.491319</v>
       </c>
     </row>
     <row r="18">
@@ -20772,10 +20772,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>2876186.329298897</v>
+        <v>2876224.942250716</v>
       </c>
       <c r="I19" t="n">
-        <v>2876186.329298897</v>
+        <v>2876224.942250716</v>
       </c>
     </row>
     <row r="20">
@@ -20805,10 +20805,10 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>4848186.949420512</v>
+        <v>4848255.714998329</v>
       </c>
       <c r="I20" t="n">
-        <v>4848186.949420512</v>
+        <v>4848255.714998329</v>
       </c>
     </row>
     <row r="21">
@@ -20838,10 +20838,10 @@
         <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>25445949.32365153</v>
+        <v>25446301.90677575</v>
       </c>
       <c r="I21" t="n">
-        <v>25445949.32365153</v>
+        <v>25446301.90677575</v>
       </c>
     </row>
     <row r="22">
@@ -20871,10 +20871,10 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>377558456.8273422</v>
+        <v>377563812.0303727</v>
       </c>
       <c r="I22" t="n">
-        <v>377558456.8273422</v>
+        <v>377563812.0303727</v>
       </c>
     </row>
     <row r="23">
@@ -20970,10 +20970,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>44652934.1465192</v>
+        <v>44653567.49355179</v>
       </c>
       <c r="I25" t="n">
-        <v>44652934.1465192</v>
+        <v>44653567.49355179</v>
       </c>
     </row>
     <row r="26">
@@ -21003,10 +21003,10 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>14861820.11100342</v>
+        <v>14862028.3162787</v>
       </c>
       <c r="I26" t="n">
-        <v>14861820.11100342</v>
+        <v>14862028.3162787</v>
       </c>
     </row>
     <row r="27">
@@ -21102,10 +21102,10 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>61940249.16632804</v>
+        <v>61941127.71269362</v>
       </c>
       <c r="I29" t="n">
-        <v>61940249.16632804</v>
+        <v>61941127.71269362</v>
       </c>
     </row>
     <row r="30">
@@ -21135,10 +21135,10 @@
         <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>4311530802.442651</v>
+        <v>4311591675.328018</v>
       </c>
       <c r="I30" t="n">
-        <v>4311530802.442651</v>
+        <v>4311591675.328018</v>
       </c>
     </row>
     <row r="31">
@@ -21201,10 +21201,10 @@
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>8725208.396322541</v>
+        <v>8725330.447945928</v>
       </c>
       <c r="I32" t="n">
-        <v>8725208.396322541</v>
+        <v>8725330.447945928</v>
       </c>
     </row>
     <row r="33">
@@ -21234,10 +21234,10 @@
         <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>992299.7598665056</v>
+        <v>992313.8344199557</v>
       </c>
       <c r="I33" t="n">
-        <v>992299.7598665056</v>
+        <v>992313.8344199557</v>
       </c>
     </row>
     <row r="34">
@@ -21267,10 +21267,10 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>54827312.28711215</v>
+        <v>54828089.94520351</v>
       </c>
       <c r="I34" t="n">
-        <v>54827312.28711215</v>
+        <v>54828089.94520351</v>
       </c>
     </row>
     <row r="35">
@@ -21300,10 +21300,10 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>421302.4155790014</v>
+        <v>421308.3912363648</v>
       </c>
       <c r="I35" t="n">
-        <v>421302.4155790014</v>
+        <v>421308.3912363648</v>
       </c>
     </row>
     <row r="36">
@@ -21333,10 +21333,10 @@
         <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>8817287695.064854</v>
+        <v>8817412738.252539</v>
       </c>
       <c r="I36" t="n">
-        <v>8817287695.064854</v>
+        <v>8817412738.252539</v>
       </c>
     </row>
     <row r="37">
@@ -21399,10 +21399,10 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>3162988267.157918</v>
+        <v>3163033130.262021</v>
       </c>
       <c r="I38" t="n">
-        <v>3162988267.157918</v>
+        <v>3163033130.262021</v>
       </c>
     </row>
     <row r="39">
@@ -21432,10 +21432,10 @@
         <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>38999866897.33738</v>
+        <v>39000420062.55357</v>
       </c>
       <c r="I39" t="n">
-        <v>38999866897.33738</v>
+        <v>39000420062.55357</v>
       </c>
     </row>
     <row r="40">
@@ -21465,10 +21465,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>39233665.66771634</v>
+        <v>39234222.14908096</v>
       </c>
       <c r="I40" t="n">
-        <v>39233665.66771634</v>
+        <v>39234222.14908096</v>
       </c>
     </row>
     <row r="41">
@@ -21531,10 +21531,10 @@
         <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>12172453.68477779</v>
+        <v>12172618.24676115</v>
       </c>
       <c r="I42" t="n">
-        <v>12172453.68477779</v>
+        <v>12172618.24676115</v>
       </c>
     </row>
     <row r="43">
@@ -21564,10 +21564,10 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>15577862.10528304</v>
+        <v>15578071.2406636</v>
       </c>
       <c r="I43" t="n">
-        <v>15577862.10528304</v>
+        <v>15578071.2406636</v>
       </c>
     </row>
     <row r="44">
@@ -21597,10 +21597,10 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>6261863.894580448</v>
+        <v>6261952.711429596</v>
       </c>
       <c r="I44" t="n">
-        <v>6261863.894580448</v>
+        <v>6261952.711429596</v>
       </c>
     </row>
     <row r="45">
@@ -21630,10 +21630,10 @@
         <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>38861296.92164341</v>
+        <v>38861848.12141467</v>
       </c>
       <c r="I45" t="n">
-        <v>38861296.92164341</v>
+        <v>38861848.12141467</v>
       </c>
     </row>
     <row r="46">
@@ -21663,10 +21663,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>982409613.5231819</v>
+        <v>982423547.7970521</v>
       </c>
       <c r="I46" t="n">
-        <v>982409613.5231819</v>
+        <v>982423547.7970521</v>
       </c>
     </row>
     <row r="47">
@@ -21786,7 +21786,7 @@
         <v>0</v>
       </c>
       <c r="E50" t="n">
-        <v>1901209879.069565</v>
+        <v>1901210061.203775</v>
       </c>
       <c r="F50" t="n">
         <v>0</v>
@@ -21795,10 +21795,10 @@
         <v>0</v>
       </c>
       <c r="H50" t="n">
-        <v>1671834202.706491</v>
+        <v>1671857742.164243</v>
       </c>
       <c r="I50" t="n">
-        <v>3573044081.776056</v>
+        <v>3573067803.368017</v>
       </c>
     </row>
     <row r="51">
@@ -21828,10 +21828,10 @@
         <v>0</v>
       </c>
       <c r="H51" t="n">
-        <v>6701721858.873629</v>
+        <v>6701816511.309305</v>
       </c>
       <c r="I51" t="n">
-        <v>43489261708.09855</v>
+        <v>43489356360.53423</v>
       </c>
     </row>
     <row r="52">
@@ -21861,10 +21861,10 @@
         <v>0</v>
       </c>
       <c r="H52" t="n">
-        <v>1049946856.623929</v>
+        <v>1049961745.366833</v>
       </c>
       <c r="I52" t="n">
-        <v>7609683358.505873</v>
+        <v>7609698247.248777</v>
       </c>
     </row>
     <row r="53">
@@ -21894,10 +21894,10 @@
         <v>0</v>
       </c>
       <c r="H53" t="n">
-        <v>261911600.6991406</v>
+        <v>261915315.5935428</v>
       </c>
       <c r="I53" t="n">
-        <v>261911600.6991406</v>
+        <v>261915315.5935428</v>
       </c>
     </row>
     <row r="54">
@@ -21927,10 +21927,10 @@
         <v>0</v>
       </c>
       <c r="H54" t="n">
-        <v>120947346.2754689</v>
+        <v>120949030.9181897</v>
       </c>
       <c r="I54" t="n">
-        <v>120947346.2754689</v>
+        <v>120949030.9181897</v>
       </c>
     </row>
     <row r="55">
@@ -21960,10 +21960,10 @@
         <v>0</v>
       </c>
       <c r="H55" t="n">
-        <v>169021084.7051157</v>
+        <v>169023443.4402722</v>
       </c>
       <c r="I55" t="n">
-        <v>169021084.7051157</v>
+        <v>169023443.4402722</v>
       </c>
     </row>
     <row r="56">
@@ -21993,10 +21993,10 @@
         <v>0</v>
       </c>
       <c r="H56" t="n">
-        <v>208801692.1978543</v>
+        <v>208804629.6414731</v>
       </c>
       <c r="I56" t="n">
-        <v>208801692.1978543</v>
+        <v>208804629.6414731</v>
       </c>
     </row>
     <row r="57">
@@ -22026,10 +22026,10 @@
         <v>0</v>
       </c>
       <c r="H57" t="n">
-        <v>7161645634.571945</v>
+        <v>7161747197.658648</v>
       </c>
       <c r="I57" t="n">
-        <v>15685550494.55133</v>
+        <v>15685652057.63803</v>
       </c>
     </row>
     <row r="58">
@@ -22050,7 +22050,7 @@
         <v>0</v>
       </c>
       <c r="E58" t="n">
-        <v>571714044.2887933</v>
+        <v>571714044.2888471</v>
       </c>
       <c r="F58" t="n">
         <v>0</v>
@@ -22059,10 +22059,10 @@
         <v>0</v>
       </c>
       <c r="H58" t="n">
-        <v>36000318.68021109</v>
+        <v>36000829.30047102</v>
       </c>
       <c r="I58" t="n">
-        <v>607714362.9690044</v>
+        <v>607714873.5893182</v>
       </c>
     </row>
     <row r="59">
@@ -22092,10 +22092,10 @@
         <v>0</v>
       </c>
       <c r="H59" t="n">
-        <v>3961870.684581062</v>
+        <v>3961925.483147152</v>
       </c>
       <c r="I59" t="n">
-        <v>3961870.684581062</v>
+        <v>3961925.483147152</v>
       </c>
     </row>
     <row r="60">
@@ -22125,10 +22125,10 @@
         <v>0</v>
       </c>
       <c r="H60" t="n">
-        <v>35202716121.42469</v>
+        <v>35203215428.72041</v>
       </c>
       <c r="I60" t="n">
-        <v>35202716121.42469</v>
+        <v>35203215428.72041</v>
       </c>
     </row>
     <row r="61">
@@ -22158,10 +22158,10 @@
         <v>0</v>
       </c>
       <c r="H61" t="n">
-        <v>908250536.4193393</v>
+        <v>908263417.2838043</v>
       </c>
       <c r="I61" t="n">
-        <v>4562224345.341621</v>
+        <v>4562237226.206086</v>
       </c>
     </row>
     <row r="62">
@@ -22191,10 +22191,10 @@
         <v>0</v>
       </c>
       <c r="H62" t="n">
-        <v>14470711.77896756</v>
+        <v>14470917.02824266</v>
       </c>
       <c r="I62" t="n">
-        <v>14470711.77896756</v>
+        <v>14470917.02824266</v>
       </c>
     </row>
     <row r="63">
@@ -22224,10 +22224,10 @@
         <v>0</v>
       </c>
       <c r="H63" t="n">
-        <v>42305677367.93093</v>
+        <v>42306277422.00878</v>
       </c>
       <c r="I63" t="n">
-        <v>42305677367.93093</v>
+        <v>42306277422.00878</v>
       </c>
     </row>
     <row r="64">
@@ -22257,10 +22257,10 @@
         <v>0</v>
       </c>
       <c r="H64" t="n">
-        <v>2675617274.245911</v>
+        <v>2675655143.199497</v>
       </c>
       <c r="I64" t="n">
-        <v>17469259823.36104</v>
+        <v>17469297692.31462</v>
       </c>
     </row>
     <row r="65">
@@ -22290,10 +22290,10 @@
         <v>0</v>
       </c>
       <c r="H65" t="n">
-        <v>2555775.799471139</v>
+        <v>2555812.050012106</v>
       </c>
       <c r="I65" t="n">
-        <v>2555775.799471139</v>
+        <v>2555812.050012106</v>
       </c>
     </row>
     <row r="66">
@@ -22323,10 +22323,10 @@
         <v>0</v>
       </c>
       <c r="H66" t="n">
-        <v>3652605.469307429</v>
+        <v>3652657.277030245</v>
       </c>
       <c r="I66" t="n">
-        <v>3652605.469307429</v>
+        <v>3652657.277030245</v>
       </c>
     </row>
     <row r="67">
@@ -22389,10 +22389,10 @@
         <v>0</v>
       </c>
       <c r="H68" t="n">
-        <v>46334995628.82922</v>
+        <v>46278592345.34509</v>
       </c>
       <c r="I68" t="n">
-        <v>46334995628.82922</v>
+        <v>46278592345.34509</v>
       </c>
     </row>
     <row r="69">
@@ -22422,10 +22422,10 @@
         <v>0</v>
       </c>
       <c r="H69" t="n">
-        <v>31042399.49960931</v>
+        <v>31042836.76069412</v>
       </c>
       <c r="I69" t="n">
-        <v>31042399.49960931</v>
+        <v>31042836.76069412</v>
       </c>
     </row>
     <row r="70">
@@ -22488,10 +22488,10 @@
         <v>0</v>
       </c>
       <c r="H71" t="n">
-        <v>329643838.2978631</v>
+        <v>329648512.4146649</v>
       </c>
       <c r="I71" t="n">
-        <v>329643838.2978631</v>
+        <v>329648512.4146649</v>
       </c>
     </row>
     <row r="72">
@@ -22554,10 +22554,10 @@
         <v>0</v>
       </c>
       <c r="H73" t="n">
-        <v>1650400.445662405</v>
+        <v>1650423.85456587</v>
       </c>
       <c r="I73" t="n">
-        <v>1650400.445662405</v>
+        <v>1650423.85456587</v>
       </c>
     </row>
     <row r="74">
@@ -22587,10 +22587,10 @@
         <v>0</v>
       </c>
       <c r="H74" t="n">
-        <v>1742362.427803873</v>
+        <v>1742387.141075115</v>
       </c>
       <c r="I74" t="n">
-        <v>1742362.427803873</v>
+        <v>1742387.141075115</v>
       </c>
     </row>
     <row r="75">
@@ -22620,10 +22620,10 @@
         <v>0</v>
       </c>
       <c r="H75" t="n">
-        <v>272547724.1785604</v>
+        <v>272551589.4685425</v>
       </c>
       <c r="I75" t="n">
-        <v>630362074.600877</v>
+        <v>630365939.8908592</v>
       </c>
     </row>
     <row r="76">
@@ -22686,10 +22686,10 @@
         <v>0</v>
       </c>
       <c r="H77" t="n">
-        <v>2152624.054682301</v>
+        <v>2152654.587010879</v>
       </c>
       <c r="I77" t="n">
-        <v>2152624.054682301</v>
+        <v>2152654.587010879</v>
       </c>
     </row>
     <row r="78">
@@ -22719,10 +22719,10 @@
         <v>0</v>
       </c>
       <c r="H78" t="n">
-        <v>2176545867.875093</v>
+        <v>2176576739.505213</v>
       </c>
       <c r="I78" t="n">
-        <v>2176545867.875093</v>
+        <v>2176576739.505213</v>
       </c>
     </row>
     <row r="79">
@@ -22752,10 +22752,10 @@
         <v>0</v>
       </c>
       <c r="H79" t="n">
-        <v>119753349.0282677</v>
+        <v>119755047.5824546</v>
       </c>
       <c r="I79" t="n">
-        <v>119753349.0282677</v>
+        <v>119755047.5824546</v>
       </c>
     </row>
     <row r="80">
@@ -22785,10 +22785,10 @@
         <v>0</v>
       </c>
       <c r="H80" t="n">
-        <v>4095896.997352523</v>
+        <v>4095955.092621258</v>
       </c>
       <c r="I80" t="n">
-        <v>4095896.997352523</v>
+        <v>4095955.092621258</v>
       </c>
     </row>
     <row r="81">
@@ -22884,10 +22884,10 @@
         <v>0</v>
       </c>
       <c r="H83" t="n">
-        <v>140966649.3545753</v>
+        <v>140968648.7933752</v>
       </c>
       <c r="I83" t="n">
-        <v>140966649.3545753</v>
+        <v>140968648.7933752</v>
       </c>
     </row>
     <row r="84">
@@ -22917,10 +22917,10 @@
         <v>0</v>
       </c>
       <c r="H84" t="n">
-        <v>301913269.1121909</v>
+        <v>301917551.3811334</v>
       </c>
       <c r="I84" t="n">
-        <v>301913269.1121909</v>
+        <v>301917551.3811334</v>
       </c>
     </row>
     <row r="85">
@@ -22950,10 +22950,10 @@
         <v>0</v>
       </c>
       <c r="H85" t="n">
-        <v>894189.6286339989</v>
+        <v>894202.3116157266</v>
       </c>
       <c r="I85" t="n">
-        <v>894189.6286339989</v>
+        <v>894202.3116157266</v>
       </c>
     </row>
     <row r="86">
@@ -22974,7 +22974,7 @@
         <v>0</v>
       </c>
       <c r="E86" t="n">
-        <v>2503859275.767144</v>
+        <v>2503859429.044111</v>
       </c>
       <c r="F86" t="n">
         <v>0</v>
@@ -22983,10 +22983,10 @@
         <v>0</v>
       </c>
       <c r="H86" t="n">
-        <v>1336238227.824761</v>
+        <v>1336256921.610286</v>
       </c>
       <c r="I86" t="n">
-        <v>3840097503.591906</v>
+        <v>3840116350.654397</v>
       </c>
     </row>
     <row r="87">
@@ -23016,10 +23016,10 @@
         <v>0</v>
       </c>
       <c r="H87" t="n">
-        <v>809002328.0333074</v>
+        <v>809013802.7377946</v>
       </c>
       <c r="I87" t="n">
-        <v>809002328.0333074</v>
+        <v>809013802.7377946</v>
       </c>
     </row>
     <row r="88">
@@ -23082,10 +23082,10 @@
         <v>0</v>
       </c>
       <c r="H89" t="n">
-        <v>99726420.57017533</v>
+        <v>99727835.06697708</v>
       </c>
       <c r="I89" t="n">
-        <v>99726420.57017533</v>
+        <v>99727835.06697708</v>
       </c>
     </row>
     <row r="90">
@@ -23148,10 +23148,10 @@
         <v>0</v>
       </c>
       <c r="H91" t="n">
-        <v>89012558.45134148</v>
+        <v>89013820.98516676</v>
       </c>
       <c r="I91" t="n">
-        <v>89012558.45134148</v>
+        <v>89013820.98516676</v>
       </c>
     </row>
     <row r="92">
@@ -23181,10 +23181,10 @@
         <v>0</v>
       </c>
       <c r="H92" t="n">
-        <v>13606656.82739973</v>
+        <v>13606849.82111648</v>
       </c>
       <c r="I92" t="n">
-        <v>13606656.82739973</v>
+        <v>13606849.82111648</v>
       </c>
     </row>
     <row r="93">
@@ -23214,10 +23214,10 @@
         <v>0</v>
       </c>
       <c r="H93" t="n">
-        <v>23497123.76315535</v>
+        <v>23497457.04099911</v>
       </c>
       <c r="I93" t="n">
-        <v>23497123.76315535</v>
+        <v>23497457.04099911</v>
       </c>
     </row>
     <row r="94">
@@ -23247,10 +23247,10 @@
         <v>0</v>
       </c>
       <c r="H94" t="n">
-        <v>697874566.9797599</v>
+        <v>697884464.4464965</v>
       </c>
       <c r="I94" t="n">
-        <v>697874566.9797599</v>
+        <v>697884464.4464965</v>
       </c>
     </row>
     <row r="95">
@@ -23280,10 +23280,10 @@
         <v>0</v>
       </c>
       <c r="H95" t="n">
-        <v>1186350039.281259</v>
+        <v>1186366861.11361</v>
       </c>
       <c r="I95" t="n">
-        <v>11376645029.06798</v>
+        <v>11376661850.90033</v>
       </c>
     </row>
     <row r="96">
@@ -23313,10 +23313,10 @@
         <v>0</v>
       </c>
       <c r="H96" t="n">
-        <v>5066218.341720864</v>
+        <v>5066290.199806218</v>
       </c>
       <c r="I96" t="n">
-        <v>5066218.341720864</v>
+        <v>5066290.199806218</v>
       </c>
     </row>
     <row r="97">
@@ -23379,10 +23379,10 @@
         <v>0</v>
       </c>
       <c r="H98" t="n">
-        <v>13764840.11576908</v>
+        <v>13765035.35312152</v>
       </c>
       <c r="I98" t="n">
-        <v>13764840.11576908</v>
+        <v>13765035.35312152</v>
       </c>
     </row>
     <row r="99">
@@ -23412,10 +23412,10 @@
         <v>0</v>
       </c>
       <c r="H99" t="n">
-        <v>3424994027.298584</v>
+        <v>3425042606.632626</v>
       </c>
       <c r="I99" t="n">
-        <v>3424994027.298584</v>
+        <v>3425042606.632626</v>
       </c>
     </row>
     <row r="100">
@@ -23445,10 +23445,10 @@
         <v>0</v>
       </c>
       <c r="H100" t="n">
-        <v>486310989.7917448</v>
+        <v>486317794.7193028</v>
       </c>
       <c r="I100" t="n">
-        <v>486310989.7917448</v>
+        <v>486317794.7193028</v>
       </c>
     </row>
     <row r="101">
@@ -23478,10 +23478,10 @@
         <v>0</v>
       </c>
       <c r="H101" t="n">
-        <v>15127319.06187373</v>
+        <v>15127533.62431676</v>
       </c>
       <c r="I101" t="n">
-        <v>15127319.06187373</v>
+        <v>15127533.62431676</v>
       </c>
     </row>
     <row r="102">
@@ -23511,10 +23511,10 @@
         <v>0</v>
       </c>
       <c r="H102" t="n">
-        <v>239755042.1292447</v>
+        <v>239758426.6136529</v>
       </c>
       <c r="I102" t="n">
-        <v>239755042.1292447</v>
+        <v>239758426.6136529</v>
       </c>
     </row>
     <row r="103">
@@ -23577,10 +23577,10 @@
         <v>0</v>
       </c>
       <c r="H104" t="n">
-        <v>1776913881.736216</v>
+        <v>1776939063.347418</v>
       </c>
       <c r="I104" t="n">
-        <v>1776913881.736216</v>
+        <v>1776939063.347418</v>
       </c>
     </row>
     <row r="105">
@@ -23610,10 +23610,10 @@
         <v>0</v>
       </c>
       <c r="H105" t="n">
-        <v>79215055.14813039</v>
+        <v>79216160.17212631</v>
       </c>
       <c r="I105" t="n">
-        <v>79215055.14813039</v>
+        <v>79216160.17212631</v>
       </c>
     </row>
     <row r="106">
@@ -23643,10 +23643,10 @@
         <v>0</v>
       </c>
       <c r="H106" t="n">
-        <v>49998794.01637055</v>
+        <v>49999472.161638</v>
       </c>
       <c r="I106" t="n">
-        <v>49998794.01637055</v>
+        <v>49999472.161638</v>
       </c>
     </row>
     <row r="107">
@@ -23709,10 +23709,10 @@
         <v>0</v>
       </c>
       <c r="H108" t="n">
-        <v>73682699.2754155</v>
+        <v>73683744.37401497</v>
       </c>
       <c r="I108" t="n">
-        <v>73682699.2754155</v>
+        <v>73683744.37401497</v>
       </c>
     </row>
     <row r="109">
@@ -23742,10 +23742,10 @@
         <v>0</v>
       </c>
       <c r="H109" t="n">
-        <v>2420269.291029679</v>
+        <v>2420303.619577239</v>
       </c>
       <c r="I109" t="n">
-        <v>2420269.291029679</v>
+        <v>2420303.619577239</v>
       </c>
     </row>
     <row r="110">
@@ -23841,10 +23841,10 @@
         <v>0</v>
       </c>
       <c r="H112" t="n">
-        <v>101273191.819463</v>
+        <v>101274592.3751559</v>
       </c>
       <c r="I112" t="n">
-        <v>101273191.819463</v>
+        <v>101274592.3751559</v>
       </c>
     </row>
     <row r="113">
@@ -23874,10 +23874,10 @@
         <v>0</v>
       </c>
       <c r="H113" t="n">
-        <v>2006077.205969005</v>
+        <v>2006105.659710508</v>
       </c>
       <c r="I113" t="n">
-        <v>2006077.205969005</v>
+        <v>2006105.659710508</v>
       </c>
     </row>
     <row r="114">
@@ -23907,10 +23907,10 @@
         <v>0</v>
       </c>
       <c r="H114" t="n">
-        <v>90904237.09177674</v>
+        <v>90905526.45674038</v>
       </c>
       <c r="I114" t="n">
-        <v>145550070.9278767</v>
+        <v>145551360.2928404</v>
       </c>
     </row>
     <row r="115">
@@ -23964,7 +23964,7 @@
         <v>0</v>
       </c>
       <c r="E116" t="n">
-        <v>688354088.4393756</v>
+        <v>688354088.4449223</v>
       </c>
       <c r="F116" t="n">
         <v>0</v>
@@ -23973,10 +23973,10 @@
         <v>0</v>
       </c>
       <c r="H116" t="n">
-        <v>48887092.10914373</v>
+        <v>48887785.50750026</v>
       </c>
       <c r="I116" t="n">
-        <v>737241180.5485194</v>
+        <v>737241873.9524226</v>
       </c>
     </row>
     <row r="117">
@@ -24039,10 +24039,10 @@
         <v>0</v>
       </c>
       <c r="H118" t="n">
-        <v>233876221.8649738</v>
+        <v>233879539.1119574</v>
       </c>
       <c r="I118" t="n">
-        <v>233876221.8649738</v>
+        <v>233879539.1119574</v>
       </c>
     </row>
     <row r="119">
@@ -24105,10 +24105,10 @@
         <v>0</v>
       </c>
       <c r="H120" t="n">
-        <v>1581857.950334193</v>
+        <v>1581880.387046538</v>
       </c>
       <c r="I120" t="n">
-        <v>1581857.950334193</v>
+        <v>1581880.387046538</v>
       </c>
     </row>
     <row r="121">
@@ -24138,10 +24138,10 @@
         <v>0</v>
       </c>
       <c r="H121" t="n">
-        <v>2044948.697396065</v>
+        <v>2044977.702481936</v>
       </c>
       <c r="I121" t="n">
-        <v>2044948.697396065</v>
+        <v>2044977.702481936</v>
       </c>
     </row>
     <row r="122">
@@ -24171,10 +24171,10 @@
         <v>0</v>
       </c>
       <c r="H122" t="n">
-        <v>60396.6109187384</v>
+        <v>60397.46757049119</v>
       </c>
       <c r="I122" t="n">
-        <v>60396.6109187384</v>
+        <v>60397.46757049119</v>
       </c>
     </row>
     <row r="123">
@@ -24204,10 +24204,10 @@
         <v>0</v>
       </c>
       <c r="H123" t="n">
-        <v>1369432346.851177</v>
+        <v>1369451770.567217</v>
       </c>
       <c r="I123" t="n">
-        <v>1369432346.851177</v>
+        <v>1369451770.567217</v>
       </c>
     </row>
     <row r="124">
@@ -24270,10 +24270,10 @@
         <v>0</v>
       </c>
       <c r="H125" t="n">
-        <v>10791057.50412667</v>
+        <v>10791210.56202486</v>
       </c>
       <c r="I125" t="n">
-        <v>10791057.50412667</v>
+        <v>10791210.56202486</v>
       </c>
     </row>
     <row r="126">
@@ -24303,10 +24303,10 @@
         <v>0</v>
       </c>
       <c r="H126" t="n">
-        <v>1859228.160545511</v>
+        <v>1859254.53141365</v>
       </c>
       <c r="I126" t="n">
-        <v>1859228.160545511</v>
+        <v>1859254.53141365</v>
       </c>
     </row>
     <row r="127">
@@ -24369,10 +24369,10 @@
         <v>0</v>
       </c>
       <c r="H128" t="n">
-        <v>163092866.8080685</v>
+        <v>163095127.4208285</v>
       </c>
       <c r="I128" t="n">
-        <v>163092866.8080685</v>
+        <v>163095127.4208285</v>
       </c>
     </row>
     <row r="129">
@@ -24402,10 +24402,10 @@
         <v>0</v>
       </c>
       <c r="H129" t="n">
-        <v>1149261.284453375</v>
+        <v>1149277.585313287</v>
       </c>
       <c r="I129" t="n">
-        <v>1149261.284453375</v>
+        <v>1149277.585313287</v>
       </c>
     </row>
     <row r="130">
@@ -24435,10 +24435,10 @@
         <v>0</v>
       </c>
       <c r="H130" t="n">
-        <v>15569154.2987284</v>
+        <v>15569370.12075185</v>
       </c>
       <c r="I130" t="n">
-        <v>15569154.2987284</v>
+        <v>15569370.12075185</v>
       </c>
     </row>
     <row r="131">
@@ -24468,10 +24468,10 @@
         <v>0</v>
       </c>
       <c r="H131" t="n">
-        <v>1713644.441529962</v>
+        <v>1713668.747471837</v>
       </c>
       <c r="I131" t="n">
-        <v>1713644.441529962</v>
+        <v>1713668.747471837</v>
       </c>
     </row>
     <row r="132">
@@ -24501,10 +24501,10 @@
         <v>0</v>
       </c>
       <c r="H132" t="n">
-        <v>7363224.936430898</v>
+        <v>7363329.374733843</v>
       </c>
       <c r="I132" t="n">
-        <v>7363224.936430898</v>
+        <v>7363329.374733843</v>
       </c>
     </row>
     <row r="133">
@@ -24567,10 +24567,10 @@
         <v>0</v>
       </c>
       <c r="H134" t="n">
-        <v>1989429.30377954</v>
+        <v>1989457.521390995</v>
       </c>
       <c r="I134" t="n">
-        <v>1989429.30377954</v>
+        <v>1989457.521390995</v>
       </c>
     </row>
     <row r="135">
@@ -24600,10 +24600,10 @@
         <v>0</v>
       </c>
       <c r="H135" t="n">
-        <v>2268400112.237099</v>
+        <v>2268432178.045607</v>
       </c>
       <c r="I135" t="n">
-        <v>2268400112.237099</v>
+        <v>2268432178.045607</v>
       </c>
     </row>
     <row r="136">
@@ -24633,10 +24633,10 @@
         <v>0</v>
       </c>
       <c r="H136" t="n">
-        <v>53101554.36290355</v>
+        <v>53102307.3780289</v>
       </c>
       <c r="I136" t="n">
-        <v>53101554.36290355</v>
+        <v>53102307.3780289</v>
       </c>
     </row>
     <row r="137">
@@ -24666,10 +24666,10 @@
         <v>0</v>
       </c>
       <c r="H137" t="n">
-        <v>63899573.39756805</v>
+        <v>63900465.7050118</v>
       </c>
       <c r="I137" t="n">
-        <v>63899573.39756805</v>
+        <v>63900465.7050118</v>
       </c>
     </row>
     <row r="138">
@@ -24699,10 +24699,10 @@
         <v>0</v>
       </c>
       <c r="H138" t="n">
-        <v>14229736.87562797</v>
+        <v>14229938.70697001</v>
       </c>
       <c r="I138" t="n">
-        <v>14229736.87562797</v>
+        <v>14229938.70697001</v>
       </c>
     </row>
     <row r="139">
@@ -24723,7 +24723,7 @@
         <v>0</v>
       </c>
       <c r="E139" t="n">
-        <v>10129508670.74148</v>
+        <v>5223204987.585903</v>
       </c>
       <c r="F139" t="n">
         <v>0</v>
@@ -24732,10 +24732,10 @@
         <v>0</v>
       </c>
       <c r="H139" t="n">
-        <v>49072775621.14262</v>
+        <v>48814463092.58398</v>
       </c>
       <c r="I139" t="n">
-        <v>59202284291.88409</v>
+        <v>54037668080.16988</v>
       </c>
     </row>
     <row r="140">
@@ -24765,10 +24765,10 @@
         <v>0</v>
       </c>
       <c r="H140" t="n">
-        <v>208885720.7550339</v>
+        <v>208888675.4751699</v>
       </c>
       <c r="I140" t="n">
-        <v>208885720.7550339</v>
+        <v>208888675.4751699</v>
       </c>
     </row>
     <row r="141">
@@ -24798,10 +24798,10 @@
         <v>0</v>
       </c>
       <c r="H141" t="n">
-        <v>3244702.87502887</v>
+        <v>3244748.897154332</v>
       </c>
       <c r="I141" t="n">
-        <v>3244702.87502887</v>
+        <v>3244748.897154332</v>
       </c>
     </row>
     <row r="142">
@@ -24831,10 +24831,10 @@
         <v>0</v>
       </c>
       <c r="H142" t="n">
-        <v>982814420.5193787</v>
+        <v>982828338.122227</v>
       </c>
       <c r="I142" t="n">
-        <v>982814420.5193787</v>
+        <v>982828338.122227</v>
       </c>
     </row>
     <row r="143">
@@ -24864,10 +24864,10 @@
         <v>0</v>
       </c>
       <c r="H143" t="n">
-        <v>1074344166.375303</v>
+        <v>1074359320.167277</v>
       </c>
       <c r="I143" t="n">
-        <v>1074344166.375303</v>
+        <v>1074359320.167277</v>
       </c>
     </row>
     <row r="144">
@@ -24897,10 +24897,10 @@
         <v>0</v>
       </c>
       <c r="H144" t="n">
-        <v>12537888171.56503</v>
+        <v>12538065977.20942</v>
       </c>
       <c r="I144" t="n">
-        <v>12537888171.56503</v>
+        <v>12538065977.20942</v>
       </c>
     </row>
     <row r="145">
@@ -24930,10 +24930,10 @@
         <v>0</v>
       </c>
       <c r="H145" t="n">
-        <v>5662102478.052493</v>
+        <v>5662182740.101245</v>
       </c>
       <c r="I145" t="n">
-        <v>5662102478.052493</v>
+        <v>5662182740.101245</v>
       </c>
     </row>
     <row r="146">
@@ -24963,10 +24963,10 @@
         <v>0</v>
       </c>
       <c r="H146" t="n">
-        <v>94094669.99255086</v>
+        <v>94096004.60988703</v>
       </c>
       <c r="I146" t="n">
-        <v>94094669.99255086</v>
+        <v>94096004.60988703</v>
       </c>
     </row>
     <row r="147">
@@ -24996,10 +24996,10 @@
         <v>0</v>
       </c>
       <c r="H147" t="n">
-        <v>26518843110.16156</v>
+        <v>26519219233.47737</v>
       </c>
       <c r="I147" t="n">
-        <v>26518843110.16156</v>
+        <v>26519219233.47737</v>
       </c>
     </row>
     <row r="148">
@@ -25095,10 +25095,10 @@
         <v>0</v>
       </c>
       <c r="H150" t="n">
-        <v>671924344.8406066</v>
+        <v>671933769.8558582</v>
       </c>
       <c r="I150" t="n">
-        <v>671924344.8406066</v>
+        <v>671933769.8558582</v>
       </c>
     </row>
     <row r="151">
@@ -25128,10 +25128,10 @@
         <v>0</v>
       </c>
       <c r="H151" t="n">
-        <v>932515026.4551864</v>
+        <v>932528253.0356147</v>
       </c>
       <c r="I151" t="n">
-        <v>932515026.4551864</v>
+        <v>932528253.0356147</v>
       </c>
     </row>
     <row r="152">
@@ -25161,10 +25161,10 @@
         <v>0</v>
       </c>
       <c r="H152" t="n">
-        <v>316960559.3913823</v>
+        <v>316965055.087658</v>
       </c>
       <c r="I152" t="n">
-        <v>316960559.3913823</v>
+        <v>316965055.087658</v>
       </c>
     </row>
     <row r="153">
@@ -25185,7 +25185,7 @@
         <v>0</v>
       </c>
       <c r="E153" t="n">
-        <v>16135988743.73455</v>
+        <v>16135989051.51637</v>
       </c>
       <c r="F153" t="n">
         <v>0</v>
@@ -25194,10 +25194,10 @@
         <v>0</v>
       </c>
       <c r="H153" t="n">
-        <v>2772669813.07676</v>
+        <v>2772708861.166191</v>
       </c>
       <c r="I153" t="n">
-        <v>18908658556.81131</v>
+        <v>18908697912.68256</v>
       </c>
     </row>
     <row r="154">
@@ -25260,10 +25260,10 @@
         <v>0</v>
       </c>
       <c r="H155" t="n">
-        <v>2499498.772991166</v>
+        <v>2499534.225311626</v>
       </c>
       <c r="I155" t="n">
-        <v>2499498.772991166</v>
+        <v>2499534.225311626</v>
       </c>
     </row>
     <row r="156">
@@ -25284,7 +25284,7 @@
         <v>0</v>
       </c>
       <c r="E156" t="n">
-        <v>1700601769.808324</v>
+        <v>1700601910.264233</v>
       </c>
       <c r="F156" t="n">
         <v>0</v>
@@ -25293,10 +25293,10 @@
         <v>0</v>
       </c>
       <c r="H156" t="n">
-        <v>1401092346.700622</v>
+        <v>1401112092.690493</v>
       </c>
       <c r="I156" t="n">
-        <v>3101694116.508945</v>
+        <v>3101714002.954726</v>
       </c>
     </row>
     <row r="157">
@@ -25326,10 +25326,10 @@
         <v>0</v>
       </c>
       <c r="H157" t="n">
-        <v>112726202.1770924</v>
+        <v>112727801.0598312</v>
       </c>
       <c r="I157" t="n">
-        <v>112726202.1770924</v>
+        <v>112727801.0598312</v>
       </c>
     </row>
     <row r="158">
@@ -25359,10 +25359,10 @@
         <v>0</v>
       </c>
       <c r="H158" t="n">
-        <v>132708096.642023</v>
+        <v>132709978.943395</v>
       </c>
       <c r="I158" t="n">
-        <v>132708096.642023</v>
+        <v>132709978.943395</v>
       </c>
     </row>
     <row r="159">
@@ -25392,10 +25392,10 @@
         <v>0</v>
       </c>
       <c r="H159" t="n">
-        <v>1077261532.316853</v>
+        <v>1077276810.808495</v>
       </c>
       <c r="I159" t="n">
-        <v>1281722954.69806</v>
+        <v>1281738233.189702</v>
       </c>
     </row>
     <row r="160">
@@ -25425,10 +25425,10 @@
         <v>0</v>
       </c>
       <c r="H160" t="n">
-        <v>1982146677.473399</v>
+        <v>1982174763.570828</v>
       </c>
       <c r="I160" t="n">
-        <v>1982146677.473399</v>
+        <v>1982174763.570828</v>
       </c>
     </row>
     <row r="161">
@@ -25458,10 +25458,10 @@
         <v>0</v>
       </c>
       <c r="H161" t="n">
-        <v>1300098942.376059</v>
+        <v>1300117365.924806</v>
       </c>
       <c r="I161" t="n">
-        <v>1300098942.376059</v>
+        <v>1300117365.924806</v>
       </c>
     </row>
     <row r="162">
@@ -25491,10 +25491,10 @@
         <v>0</v>
       </c>
       <c r="H162" t="n">
-        <v>2790292.405236097</v>
+        <v>2790331.982107106</v>
       </c>
       <c r="I162" t="n">
-        <v>2790292.405236097</v>
+        <v>2790331.982107106</v>
       </c>
     </row>
     <row r="163">
@@ -25524,10 +25524,10 @@
         <v>0</v>
       </c>
       <c r="H163" t="n">
-        <v>16172571.90607618</v>
+        <v>16172793.85155497</v>
       </c>
       <c r="I163" t="n">
-        <v>16172571.90607618</v>
+        <v>16172793.85155497</v>
       </c>
     </row>
     <row r="164">
@@ -25590,10 +25590,10 @@
         <v>0</v>
       </c>
       <c r="H165" t="n">
-        <v>1659125.737357887</v>
+        <v>1659149.270018899</v>
       </c>
       <c r="I165" t="n">
-        <v>1659125.737357887</v>
+        <v>1659149.270018899</v>
       </c>
     </row>
     <row r="166">
@@ -25623,10 +25623,10 @@
         <v>0</v>
       </c>
       <c r="H166" t="n">
-        <v>51097676.38173879</v>
+        <v>51098401.13952519</v>
       </c>
       <c r="I166" t="n">
-        <v>51097676.38173879</v>
+        <v>51098401.13952519</v>
       </c>
     </row>
     <row r="167">
@@ -25656,10 +25656,10 @@
         <v>0</v>
       </c>
       <c r="H167" t="n">
-        <v>588768060.2544867</v>
+        <v>588776410.1381991</v>
       </c>
       <c r="I167" t="n">
-        <v>588768060.2544867</v>
+        <v>588776410.1381991</v>
       </c>
     </row>
     <row r="168">
@@ -25689,10 +25689,10 @@
         <v>0</v>
       </c>
       <c r="H168" t="n">
-        <v>512828.022352408</v>
+        <v>512835.2961881009</v>
       </c>
       <c r="I168" t="n">
-        <v>512828.022352408</v>
+        <v>512835.2961881009</v>
       </c>
     </row>
     <row r="169">
@@ -25746,7 +25746,7 @@
         <v>0</v>
       </c>
       <c r="E170" t="n">
-        <v>350618095.6503581</v>
+        <v>350618104.9661449</v>
       </c>
       <c r="F170" t="n">
         <v>0</v>
@@ -25755,10 +25755,10 @@
         <v>0</v>
       </c>
       <c r="H170" t="n">
-        <v>449127552.9831079</v>
+        <v>449133914.8968552</v>
       </c>
       <c r="I170" t="n">
-        <v>799745648.633466</v>
+        <v>799752019.8630002</v>
       </c>
     </row>
     <row r="171">
@@ -25788,10 +25788,10 @@
         <v>0</v>
       </c>
       <c r="H171" t="n">
-        <v>111775252.1046084</v>
+        <v>111776837.4992883</v>
       </c>
       <c r="I171" t="n">
-        <v>205824148.2241631</v>
+        <v>205825733.618843</v>
       </c>
     </row>
     <row r="172">
@@ -25821,10 +25821,10 @@
         <v>0</v>
       </c>
       <c r="H172" t="n">
-        <v>2889750526.979677</v>
+        <v>2889791480.144063</v>
       </c>
       <c r="I172" t="n">
-        <v>5808087608.313519</v>
+        <v>5808128561.477903</v>
       </c>
     </row>
     <row r="173">
@@ -25854,10 +25854,10 @@
         <v>0</v>
       </c>
       <c r="H173" t="n">
-        <v>96132324.20623215</v>
+        <v>96133687.72519088</v>
       </c>
       <c r="I173" t="n">
-        <v>96132324.20623215</v>
+        <v>96133687.72519088</v>
       </c>
     </row>
     <row r="174">
@@ -25920,10 +25920,10 @@
         <v>0</v>
       </c>
       <c r="H175" t="n">
-        <v>4121398595.085218</v>
+        <v>4121457001.948816</v>
       </c>
       <c r="I175" t="n">
-        <v>4121398595.085218</v>
+        <v>4121457001.948816</v>
       </c>
     </row>
     <row r="176">
@@ -25953,10 +25953,10 @@
         <v>0</v>
       </c>
       <c r="H176" t="n">
-        <v>6588496.397871317</v>
+        <v>6588589.847601387</v>
       </c>
       <c r="I176" t="n">
-        <v>6588496.397871317</v>
+        <v>6588589.847601387</v>
       </c>
     </row>
     <row r="177">
@@ -25986,10 +25986,10 @@
         <v>0</v>
       </c>
       <c r="H177" t="n">
-        <v>30244093.95563842</v>
+        <v>30244522.9309684</v>
       </c>
       <c r="I177" t="n">
-        <v>30244093.95563842</v>
+        <v>30244522.9309684</v>
       </c>
     </row>
     <row r="178">
@@ -26019,10 +26019,10 @@
         <v>0</v>
       </c>
       <c r="H178" t="n">
-        <v>30484484.64057713</v>
+        <v>30484917.02555376</v>
       </c>
       <c r="I178" t="n">
-        <v>30484484.64057713</v>
+        <v>30484917.02555376</v>
       </c>
     </row>
     <row r="179">
@@ -26052,10 +26052,10 @@
         <v>0</v>
       </c>
       <c r="H179" t="n">
-        <v>1114067907.074202</v>
+        <v>1114083708.465329</v>
       </c>
       <c r="I179" t="n">
-        <v>1114067907.074202</v>
+        <v>1114083708.465329</v>
       </c>
     </row>
     <row r="180">
@@ -26085,10 +26085,10 @@
         <v>0</v>
       </c>
       <c r="H180" t="n">
-        <v>1698843314.69631</v>
+        <v>1698867410.702379</v>
       </c>
       <c r="I180" t="n">
-        <v>1698843314.69631</v>
+        <v>1698867410.702379</v>
       </c>
     </row>
     <row r="181">
@@ -26118,10 +26118,10 @@
         <v>0</v>
       </c>
       <c r="H181" t="n">
-        <v>7689942.910901234</v>
+        <v>7690051.983297404</v>
       </c>
       <c r="I181" t="n">
-        <v>7689942.910901234</v>
+        <v>7690051.983297404</v>
       </c>
     </row>
     <row r="182">
@@ -26151,10 +26151,10 @@
         <v>0</v>
       </c>
       <c r="H182" t="n">
-        <v>27916914.72054643</v>
+        <v>27917310.68769697</v>
       </c>
       <c r="I182" t="n">
-        <v>27916914.72054643</v>
+        <v>27917310.68769697</v>
       </c>
     </row>
     <row r="183">
@@ -26184,10 +26184,10 @@
         <v>0</v>
       </c>
       <c r="H183" t="n">
-        <v>259766052.4933045</v>
+        <v>259769736.9557403</v>
       </c>
       <c r="I183" t="n">
-        <v>259766052.4933045</v>
+        <v>259769736.9557403</v>
       </c>
     </row>
     <row r="184">
@@ -26217,10 +26217,10 @@
         <v>0</v>
       </c>
       <c r="H184" t="n">
-        <v>600610119.0690911</v>
+        <v>600618637.9860206</v>
       </c>
       <c r="I184" t="n">
-        <v>600610119.0690911</v>
+        <v>600618637.9860206</v>
       </c>
     </row>
     <row r="185">
@@ -26250,10 +26250,10 @@
         <v>0</v>
       </c>
       <c r="H185" t="n">
-        <v>50756142772.55958</v>
+        <v>50756862589.14359</v>
       </c>
       <c r="I185" t="n">
-        <v>50756142772.55958</v>
+        <v>50756862589.14359</v>
       </c>
     </row>
     <row r="186">
@@ -26283,10 +26283,10 @@
         <v>0</v>
       </c>
       <c r="H186" t="n">
-        <v>2082439.687499798</v>
+        <v>2082469.22434932</v>
       </c>
       <c r="I186" t="n">
-        <v>2082439.687499798</v>
+        <v>2082469.22434932</v>
       </c>
     </row>
     <row r="187">
@@ -26349,10 +26349,10 @@
         <v>0</v>
       </c>
       <c r="H188" t="n">
-        <v>253555876.3559466</v>
+        <v>253559453.1911025</v>
       </c>
       <c r="I188" t="n">
-        <v>253555876.3559466</v>
+        <v>253559453.1911025</v>
       </c>
     </row>
     <row r="189">
@@ -26415,10 +26415,10 @@
         <v>0</v>
       </c>
       <c r="H190" t="n">
-        <v>601739514.0827395</v>
+        <v>601748049.0187503</v>
       </c>
       <c r="I190" t="n">
-        <v>601739514.0827395</v>
+        <v>601748049.0187503</v>
       </c>
     </row>
     <row r="191">
@@ -26448,10 +26448,10 @@
         <v>0</v>
       </c>
       <c r="H191" t="n">
-        <v>1236616145.950553</v>
+        <v>1236633648.165012</v>
       </c>
       <c r="I191" t="n">
-        <v>1236616145.950553</v>
+        <v>1236633648.165012</v>
       </c>
     </row>
     <row r="192">
@@ -26481,10 +26481,10 @@
         <v>0</v>
       </c>
       <c r="H192" t="n">
-        <v>50316962.40781338</v>
+        <v>50317676.09213085</v>
       </c>
       <c r="I192" t="n">
-        <v>50316962.40781338</v>
+        <v>50317676.09213085</v>
       </c>
     </row>
     <row r="193">
@@ -26514,10 +26514,10 @@
         <v>0</v>
       </c>
       <c r="H193" t="n">
-        <v>57586074.06623028</v>
+        <v>57586890.85396944</v>
       </c>
       <c r="I193" t="n">
-        <v>57586074.06623028</v>
+        <v>57586890.85396944</v>
       </c>
     </row>
     <row r="194">
@@ -26547,10 +26547,10 @@
         <v>0</v>
       </c>
       <c r="H194" t="n">
-        <v>544389.0730269388</v>
+        <v>544396.7945173754</v>
       </c>
       <c r="I194" t="n">
-        <v>544389.0730269388</v>
+        <v>544396.7945173754</v>
       </c>
     </row>
     <row r="195">
@@ -26580,10 +26580,10 @@
         <v>0</v>
       </c>
       <c r="H195" t="n">
-        <v>831097.5495557535</v>
+        <v>831109.3376538227</v>
       </c>
       <c r="I195" t="n">
-        <v>831097.5495557535</v>
+        <v>831109.3376538227</v>
       </c>
     </row>
     <row r="196">
@@ -26613,10 +26613,10 @@
         <v>0</v>
       </c>
       <c r="H196" t="n">
-        <v>947864631.8042508</v>
+        <v>947878076.0999801</v>
       </c>
       <c r="I196" t="n">
-        <v>947864631.8042508</v>
+        <v>947878076.0999801</v>
       </c>
     </row>
     <row r="197">
@@ -26646,10 +26646,10 @@
         <v>0</v>
       </c>
       <c r="H197" t="n">
-        <v>73648189.60422294</v>
+        <v>73649193.27209021</v>
       </c>
       <c r="I197" t="n">
-        <v>73648189.60422294</v>
+        <v>73649193.27209021</v>
       </c>
     </row>
     <row r="198">
@@ -26679,10 +26679,10 @@
         <v>0</v>
       </c>
       <c r="H198" t="n">
-        <v>43590877.46419968</v>
+        <v>43591495.74726254</v>
       </c>
       <c r="I198" t="n">
-        <v>43590877.46419968</v>
+        <v>43591495.74726254</v>
       </c>
     </row>
   </sheetData>
